--- a/alunos.xlsx
+++ b/alunos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leticia\Documents\Letícia\Repositórios\latelie_de_verao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFDDC0A-6BD5-4BC7-9D43-AC2EFAA9F0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E8F88E-082D-4F65-B7BE-15724AB0FE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BD735D1-F3B0-4DC0-AB17-30AB545D3AA1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="386">
   <si>
     <t xml:space="preserve">Nome completo
 </t>
@@ -1189,6 +1189,12 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1buDrBqk4rHcGLbKKMJHOEOM9AOosdrVF</t>
+  </si>
+  <si>
+    <t>Atividade 3</t>
+  </si>
+  <si>
+    <t>Qntd. de Palavras Atv. 3</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1540,7 +1546,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1559,9 +1564,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1574,9 +1576,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1585,6 +1584,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1921,32 +1924,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C2AB94-8371-415B-B15C-673BF998D579}">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="90.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="134.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="66.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="65" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="22" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="35.77734375" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="134.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="65" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.77734375" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="22" style="29" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1989,21 +1992,27 @@
       <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2039,27 +2048,33 @@
       <c r="L2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q2" s="4">
         <v>207</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="R2" s="18">
         <v>0</v>
       </c>
-      <c r="R2" s="19">
+      <c r="S2" s="18">
+        <v>0</v>
+      </c>
+      <c r="T2" s="18">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2095,27 +2110,33 @@
       <c r="L3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P3" s="7">
+      <c r="O3" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q3" s="7">
         <v>645</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="R3" s="21">
         <v>1170</v>
       </c>
-      <c r="R3" s="22">
-        <v>1815</v>
+      <c r="S3" s="21">
+        <v>376</v>
+      </c>
+      <c r="T3" s="21">
+        <v>2191</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2151,27 +2172,33 @@
       <c r="L4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="O4" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q4" s="4">
         <v>243</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="R4" s="18">
         <v>358</v>
       </c>
-      <c r="R4" s="19">
+      <c r="S4" s="18">
+        <v>0</v>
+      </c>
+      <c r="T4" s="18">
         <v>601</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2207,27 +2234,33 @@
       <c r="L5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="O5" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q5" s="7">
         <v>1992</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="R5" s="21">
         <v>3976</v>
       </c>
-      <c r="R5" s="22">
-        <v>5968</v>
+      <c r="S5" s="21">
+        <v>2344</v>
+      </c>
+      <c r="T5" s="21">
+        <v>8312</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2263,27 +2296,33 @@
       <c r="L6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="O6" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q6" s="4">
         <v>1870</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="R6" s="18">
         <v>1383</v>
       </c>
-      <c r="R6" s="19">
-        <v>3253</v>
+      <c r="S6" s="18">
+        <v>495</v>
+      </c>
+      <c r="T6" s="18">
+        <v>3748</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2319,27 +2358,33 @@
       <c r="L7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="O7" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q7" s="7">
         <v>514</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="R7" s="21">
         <v>868</v>
       </c>
-      <c r="R7" s="22">
-        <v>1382</v>
+      <c r="S7" s="21">
+        <v>86</v>
+      </c>
+      <c r="T7" s="21">
+        <v>1468</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2375,27 +2420,33 @@
       <c r="L8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P8" s="4">
+      <c r="O8" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q8" s="4">
         <v>269</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="R8" s="18">
         <v>474</v>
       </c>
-      <c r="R8" s="19">
-        <v>743</v>
+      <c r="S8" s="18">
+        <v>320</v>
+      </c>
+      <c r="T8" s="18">
+        <v>1063</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2431,27 +2482,33 @@
       <c r="L9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="O9" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q9" s="7">
         <v>261</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="R9" s="21">
         <v>766</v>
       </c>
-      <c r="R9" s="22">
-        <v>1027</v>
+      <c r="S9" s="21">
+        <v>478</v>
+      </c>
+      <c r="T9" s="21">
+        <v>1505</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2487,27 +2544,33 @@
       <c r="L10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="O10" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q10" s="4">
         <v>355</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="R10" s="18">
         <v>868</v>
       </c>
-      <c r="R10" s="19">
-        <v>1223</v>
+      <c r="S10" s="18">
+        <v>420</v>
+      </c>
+      <c r="T10" s="18">
+        <v>1643</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
         <v>91</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2543,27 +2606,33 @@
       <c r="L11" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="O11" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q11" s="7">
         <v>549</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="R11" s="21">
         <v>3324</v>
       </c>
-      <c r="R11" s="22">
-        <v>3873</v>
+      <c r="S11" s="21">
+        <v>1745</v>
+      </c>
+      <c r="T11" s="21">
+        <v>5618</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2599,27 +2668,33 @@
       <c r="L12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q12" s="4">
         <v>789</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="R12" s="18">
         <v>0</v>
       </c>
-      <c r="R12" s="19">
+      <c r="S12" s="18">
+        <v>0</v>
+      </c>
+      <c r="T12" s="18">
         <v>789</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
         <v>105</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2655,27 +2730,33 @@
       <c r="L13" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="O13" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q13" s="7">
         <v>783</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="R13" s="21">
         <v>1466</v>
       </c>
-      <c r="R13" s="22">
-        <v>2249</v>
+      <c r="S13" s="21">
+        <v>741</v>
+      </c>
+      <c r="T13" s="21">
+        <v>2990</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2711,27 +2792,33 @@
       <c r="L14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P14" s="4">
+      <c r="O14" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q14" s="4">
         <v>565</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="R14" s="18">
         <v>884</v>
       </c>
-      <c r="R14" s="19">
+      <c r="S14" s="18">
+        <v>0</v>
+      </c>
+      <c r="T14" s="18">
         <v>1449</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2767,27 +2854,33 @@
       <c r="L15" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P15" s="7">
+      <c r="O15" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q15" s="7">
         <v>394</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="R15" s="21">
         <v>1845</v>
       </c>
-      <c r="R15" s="22">
-        <v>2239</v>
+      <c r="S15" s="21">
+        <v>1041</v>
+      </c>
+      <c r="T15" s="21">
+        <v>3280</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2823,27 +2916,33 @@
       <c r="L16" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P16" s="4">
+      <c r="O16" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q16" s="4">
         <v>1935</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="R16" s="18">
         <v>1620</v>
       </c>
-      <c r="R16" s="19">
-        <v>3555</v>
+      <c r="S16" s="18">
+        <v>759</v>
+      </c>
+      <c r="T16" s="18">
+        <v>4314</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
         <v>133</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2879,27 +2978,33 @@
       <c r="L17" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="21" t="s">
+      <c r="O17" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q17" s="7">
         <v>683</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="R17" s="21">
         <v>0</v>
       </c>
-      <c r="R17" s="22">
+      <c r="S17" s="21">
+        <v>0</v>
+      </c>
+      <c r="T17" s="21">
         <v>683</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
         <v>140</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2935,27 +3040,33 @@
       <c r="L18" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P18" s="4">
+      <c r="O18" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q18" s="4">
         <v>908</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="R18" s="18">
         <v>1612</v>
       </c>
-      <c r="R18" s="19">
-        <v>2520</v>
+      <c r="S18" s="18">
+        <v>681</v>
+      </c>
+      <c r="T18" s="18">
+        <v>3201</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
         <v>147</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2991,27 +3102,33 @@
       <c r="L19" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P19" s="7">
+      <c r="O19" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q19" s="7">
         <v>818</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="R19" s="21">
         <v>1226</v>
       </c>
-      <c r="R19" s="22">
+      <c r="S19" s="21">
+        <v>0</v>
+      </c>
+      <c r="T19" s="21">
         <v>2044</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
         <v>154</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3047,27 +3164,33 @@
       <c r="L20" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O20" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P20" s="4">
+      <c r="O20" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q20" s="4">
         <v>720</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="R20" s="18">
         <v>1177</v>
       </c>
-      <c r="R20" s="19">
-        <v>1897</v>
+      <c r="S20" s="18">
+        <v>1256</v>
+      </c>
+      <c r="T20" s="18">
+        <v>3153</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
         <v>161</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3103,27 +3226,33 @@
       <c r="L21" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O21" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P21" s="7">
+      <c r="O21" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q21" s="7">
         <v>964</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="R21" s="21">
         <v>575</v>
       </c>
-      <c r="R21" s="22">
-        <v>1539</v>
+      <c r="S21" s="21">
+        <v>760</v>
+      </c>
+      <c r="T21" s="21">
+        <v>2299</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
         <v>167</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3159,27 +3288,33 @@
       <c r="L22" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P22" s="4">
+      <c r="O22" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q22" s="4">
         <v>5001</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="R22" s="18">
         <v>7230</v>
       </c>
-      <c r="R22" s="19">
-        <v>12231</v>
+      <c r="S22" s="18">
+        <v>5756</v>
+      </c>
+      <c r="T22" s="18">
+        <v>17987</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
         <v>174</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3215,27 +3350,33 @@
       <c r="L23" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O23" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P23" s="7">
+      <c r="O23" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P23" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q23" s="7">
         <v>490</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="R23" s="21">
         <v>696</v>
       </c>
-      <c r="R23" s="22">
-        <v>1186</v>
+      <c r="S23" s="21">
+        <v>245</v>
+      </c>
+      <c r="T23" s="21">
+        <v>1431</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -3271,25 +3412,33 @@
       <c r="L24" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="O24" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q24" s="4">
         <v>446</v>
       </c>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="19">
+      <c r="R24" s="18">
+        <v>0</v>
+      </c>
+      <c r="S24" s="18">
+        <v>0</v>
+      </c>
+      <c r="T24" s="18">
         <v>446</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
         <v>187</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -3325,25 +3474,33 @@
       <c r="L25" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="21" t="s">
+      <c r="O25" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q25" s="7">
         <v>543</v>
       </c>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="22">
+      <c r="R25" s="21">
+        <v>0</v>
+      </c>
+      <c r="S25" s="21">
+        <v>0</v>
+      </c>
+      <c r="T25" s="21">
         <v>543</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
         <v>192</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3379,27 +3536,33 @@
       <c r="L26" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O26" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P26" s="4">
+      <c r="O26" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q26" s="4">
         <v>1145</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="R26" s="18">
         <v>1820</v>
       </c>
-      <c r="R26" s="19">
-        <v>2965</v>
+      <c r="S26" s="18">
+        <v>1340</v>
+      </c>
+      <c r="T26" s="18">
+        <v>4305</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="19" t="s">
         <v>198</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3435,27 +3598,33 @@
       <c r="L27" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O27" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P27" s="7">
+      <c r="O27" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P27" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q27" s="7">
         <v>607</v>
       </c>
-      <c r="Q27" s="22">
+      <c r="R27" s="21">
         <v>808</v>
       </c>
-      <c r="R27" s="22">
-        <v>1415</v>
+      <c r="S27" s="21">
+        <v>778</v>
+      </c>
+      <c r="T27" s="21">
+        <v>2193</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
         <v>204</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3491,27 +3660,33 @@
       <c r="L28" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="M28" s="18" t="s">
+      <c r="M28" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O28" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P28" s="4">
+      <c r="O28" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q28" s="4">
         <v>555</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="R28" s="18">
         <v>445</v>
       </c>
-      <c r="R28" s="19">
+      <c r="S28" s="18">
+        <v>0</v>
+      </c>
+      <c r="T28" s="18">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="19" t="s">
         <v>210</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3547,27 +3722,33 @@
       <c r="L29" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="M29" s="21" t="s">
+      <c r="M29" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="O29" s="21" t="s">
+      <c r="O29" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q29" s="7">
         <v>0</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="R29" s="21">
         <v>0</v>
       </c>
-      <c r="R29" s="22">
+      <c r="S29" s="21">
         <v>0</v>
       </c>
+      <c r="T29" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
         <v>217</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3603,27 +3784,33 @@
       <c r="L30" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="M30" s="18" t="s">
+      <c r="M30" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="O30" s="18" t="s">
+      <c r="O30" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q30" s="4">
         <v>0</v>
       </c>
-      <c r="Q30" s="19">
+      <c r="R30" s="18">
         <v>0</v>
       </c>
-      <c r="R30" s="19">
+      <c r="S30" s="18">
         <v>0</v>
       </c>
+      <c r="T30" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="19" t="s">
         <v>223</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -3659,27 +3846,33 @@
       <c r="L31" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="M31" s="21" t="s">
+      <c r="M31" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O31" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P31" s="7">
+      <c r="O31" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P31" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q31" s="7">
         <v>514</v>
       </c>
-      <c r="Q31" s="22">
+      <c r="R31" s="21">
         <v>1382</v>
       </c>
-      <c r="R31" s="22">
-        <v>1896</v>
+      <c r="S31" s="21">
+        <v>1343</v>
+      </c>
+      <c r="T31" s="21">
+        <v>3239</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
         <v>229</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3715,27 +3908,33 @@
       <c r="L32" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="M32" s="18" t="s">
+      <c r="M32" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O32" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P32" s="4">
+      <c r="O32" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P32" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q32" s="4">
         <v>2234</v>
       </c>
-      <c r="Q32" s="19">
+      <c r="R32" s="18">
         <v>3447</v>
       </c>
-      <c r="R32" s="19">
-        <v>5681</v>
+      <c r="S32" s="18">
+        <v>1127</v>
+      </c>
+      <c r="T32" s="18">
+        <v>6808</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="19" t="s">
         <v>237</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3771,27 +3970,33 @@
       <c r="L33" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="M33" s="21" t="s">
+      <c r="M33" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O33" s="21" t="s">
+      <c r="O33" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q33" s="7">
         <v>407</v>
       </c>
-      <c r="Q33" s="22">
+      <c r="R33" s="21">
         <v>0</v>
       </c>
-      <c r="R33" s="22">
-        <v>407</v>
+      <c r="S33" s="21">
+        <v>761</v>
+      </c>
+      <c r="T33" s="21">
+        <v>1168</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16" t="s">
         <v>243</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3827,27 +4032,33 @@
       <c r="L34" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="M34" s="18" t="s">
+      <c r="M34" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O34" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P34" s="4">
+      <c r="O34" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P34" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q34" s="4">
         <v>462</v>
       </c>
-      <c r="Q34" s="19">
+      <c r="R34" s="18">
         <v>978</v>
       </c>
-      <c r="R34" s="19">
-        <v>1440</v>
+      <c r="S34" s="18">
+        <v>1281</v>
+      </c>
+      <c r="T34" s="18">
+        <v>2721</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="19" t="s">
         <v>250</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3883,27 +4094,33 @@
       <c r="L35" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="M35" s="21" t="s">
+      <c r="M35" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O35" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P35" s="7">
+      <c r="O35" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P35" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q35" s="7">
         <v>658</v>
       </c>
-      <c r="Q35" s="22">
+      <c r="R35" s="21">
         <v>709</v>
       </c>
-      <c r="R35" s="22">
-        <v>1367</v>
+      <c r="S35" s="21">
+        <v>818</v>
+      </c>
+      <c r="T35" s="21">
+        <v>2185</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
         <v>256</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3939,27 +4156,33 @@
       <c r="L36" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="M36" s="18" t="s">
+      <c r="M36" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O36" s="18" t="s">
+      <c r="O36" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q36" s="4">
         <v>1350</v>
       </c>
-      <c r="Q36" s="19">
+      <c r="R36" s="18">
         <v>0</v>
       </c>
-      <c r="R36" s="19">
+      <c r="S36" s="18">
+        <v>0</v>
+      </c>
+      <c r="T36" s="18">
         <v>1350</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="20" t="s">
+    <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
         <v>263</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -3995,27 +4218,33 @@
       <c r="L37" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="M37" s="21" t="s">
+      <c r="M37" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O37" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P37" s="7">
+      <c r="O37" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P37" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q37" s="7">
         <v>2381</v>
       </c>
-      <c r="Q37" s="22">
+      <c r="R37" s="21">
         <v>1268</v>
       </c>
-      <c r="R37" s="22">
+      <c r="S37" s="21">
+        <v>0</v>
+      </c>
+      <c r="T37" s="21">
         <v>3649</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="16" t="s">
         <v>270</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -4051,27 +4280,33 @@
       <c r="L38" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="M38" s="18" t="s">
+      <c r="M38" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O38" s="18" t="s">
+      <c r="O38" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q38" s="4">
         <v>1293</v>
       </c>
-      <c r="Q38" s="19">
+      <c r="R38" s="18">
         <v>0</v>
       </c>
-      <c r="R38" s="19">
+      <c r="S38" s="18">
+        <v>0</v>
+      </c>
+      <c r="T38" s="18">
         <v>1293</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="20" t="s">
+    <row r="39" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
         <v>276</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -4107,27 +4342,33 @@
       <c r="L39" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="M39" s="21" t="s">
+      <c r="M39" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O39" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P39" s="7">
+      <c r="O39" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P39" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q39" s="7">
         <v>590</v>
       </c>
-      <c r="Q39" s="22">
+      <c r="R39" s="21">
         <v>4626</v>
       </c>
-      <c r="R39" s="22">
+      <c r="S39" s="21">
+        <v>0</v>
+      </c>
+      <c r="T39" s="21">
         <v>5216</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
         <v>282</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4163,27 +4404,33 @@
       <c r="L40" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="M40" s="18" t="s">
+      <c r="M40" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O40" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P40" s="4">
+      <c r="O40" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P40" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q40" s="4">
         <v>2176</v>
       </c>
-      <c r="Q40" s="19">
+      <c r="R40" s="18">
         <v>3627</v>
       </c>
-      <c r="R40" s="19">
-        <v>5803</v>
+      <c r="S40" s="18">
+        <v>1653</v>
+      </c>
+      <c r="T40" s="18">
+        <v>7456</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="20" t="s">
+    <row r="41" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
         <v>289</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -4219,27 +4466,33 @@
       <c r="L41" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="M41" s="21" t="s">
+      <c r="M41" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O41" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P41" s="7">
+      <c r="O41" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P41" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q41" s="7">
         <v>524</v>
       </c>
-      <c r="Q41" s="22">
+      <c r="R41" s="21">
         <v>1259</v>
       </c>
-      <c r="R41" s="22">
-        <v>1783</v>
+      <c r="S41" s="21">
+        <v>1212</v>
+      </c>
+      <c r="T41" s="21">
+        <v>2995</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
         <v>295</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -4273,27 +4526,33 @@
         <v>26</v>
       </c>
       <c r="L42" s="8"/>
-      <c r="M42" s="18" t="s">
+      <c r="M42" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O42" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P42" s="4">
+      <c r="O42" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P42" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q42" s="4">
         <v>2080</v>
       </c>
-      <c r="Q42" s="19">
+      <c r="R42" s="18">
         <v>1638</v>
       </c>
-      <c r="R42" s="19">
-        <v>3718</v>
+      <c r="S42" s="18">
+        <v>779</v>
+      </c>
+      <c r="T42" s="18">
+        <v>4497</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="20" t="s">
+    <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="19" t="s">
         <v>300</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -4329,27 +4588,33 @@
       <c r="L43" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="M43" s="21" t="s">
+      <c r="M43" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O43" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P43" s="7">
+      <c r="O43" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P43" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q43" s="7">
         <v>1716</v>
       </c>
-      <c r="Q43" s="22">
+      <c r="R43" s="21">
         <v>2216</v>
       </c>
-      <c r="R43" s="22">
-        <v>3932</v>
+      <c r="S43" s="21">
+        <v>842</v>
+      </c>
+      <c r="T43" s="21">
+        <v>4774</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
         <v>306</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4385,27 +4650,33 @@
       <c r="L44" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="M44" s="18" t="s">
+      <c r="M44" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="O44" s="18" t="s">
+      <c r="O44" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q44" s="4">
         <v>0</v>
       </c>
-      <c r="Q44" s="19">
+      <c r="R44" s="18">
         <v>0</v>
       </c>
-      <c r="R44" s="19">
+      <c r="S44" s="18">
         <v>0</v>
       </c>
+      <c r="T44" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="20" t="s">
+    <row r="45" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="19" t="s">
         <v>312</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -4441,27 +4712,33 @@
       <c r="L45" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="M45" s="21" t="s">
+      <c r="M45" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O45" s="21" t="s">
+      <c r="O45" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q45" s="7">
         <v>787</v>
       </c>
-      <c r="Q45" s="22">
+      <c r="R45" s="21">
         <v>0</v>
       </c>
-      <c r="R45" s="22">
-        <v>787</v>
+      <c r="S45" s="21">
+        <v>815</v>
+      </c>
+      <c r="T45" s="21">
+        <v>1602</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
         <v>319</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -4497,27 +4774,33 @@
       <c r="L46" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="M46" s="18" t="s">
+      <c r="M46" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O46" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P46" s="4">
+      <c r="O46" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P46" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q46" s="4">
         <v>268</v>
       </c>
-      <c r="Q46" s="19">
+      <c r="R46" s="18">
         <v>507</v>
       </c>
-      <c r="R46" s="19">
-        <v>775</v>
+      <c r="S46" s="18">
+        <v>603</v>
+      </c>
+      <c r="T46" s="18">
+        <v>1378</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="20" t="s">
+    <row r="47" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="19" t="s">
         <v>326</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -4553,27 +4836,33 @@
       <c r="L47" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="M47" s="21" t="s">
+      <c r="M47" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O47" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P47" s="7">
+      <c r="O47" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P47" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q47" s="7">
         <v>633</v>
       </c>
-      <c r="Q47" s="22">
+      <c r="R47" s="21">
         <v>4260</v>
       </c>
-      <c r="R47" s="22">
-        <v>4893</v>
+      <c r="S47" s="21">
+        <v>552</v>
+      </c>
+      <c r="T47" s="21">
+        <v>5445</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="16" t="s">
         <v>332</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4609,27 +4898,33 @@
       <c r="L48" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="M48" s="18" t="s">
+      <c r="M48" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O48" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P48" s="4">
+      <c r="O48" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P48" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q48" s="4">
         <v>1755</v>
       </c>
-      <c r="Q48" s="19">
+      <c r="R48" s="18">
         <v>3189</v>
       </c>
-      <c r="R48" s="19">
-        <v>4944</v>
+      <c r="S48" s="18">
+        <v>3735</v>
+      </c>
+      <c r="T48" s="18">
+        <v>8679</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="20" t="s">
+    <row r="49" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="19" t="s">
         <v>339</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -4665,27 +4960,33 @@
       <c r="L49" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="M49" s="21" t="s">
+      <c r="M49" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O49" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P49" s="7">
+      <c r="O49" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P49" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q49" s="7">
         <v>424</v>
       </c>
-      <c r="Q49" s="22">
+      <c r="R49" s="21">
         <v>3217</v>
       </c>
-      <c r="R49" s="22">
-        <v>3641</v>
+      <c r="S49" s="21">
+        <v>253</v>
+      </c>
+      <c r="T49" s="21">
+        <v>3894</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="16" t="s">
         <v>346</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -4721,27 +5022,33 @@
       <c r="L50" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="M50" s="18" t="s">
+      <c r="M50" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O50" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P50" s="4">
+      <c r="O50" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P50" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q50" s="4">
         <v>522</v>
       </c>
-      <c r="Q50" s="19">
+      <c r="R50" s="18">
         <v>2749</v>
       </c>
-      <c r="R50" s="19">
-        <v>3271</v>
+      <c r="S50" s="18">
+        <v>754</v>
+      </c>
+      <c r="T50" s="18">
+        <v>4025</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="20" t="s">
+    <row r="51" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="19" t="s">
         <v>352</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -4777,27 +5084,33 @@
       <c r="L51" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="M51" s="21" t="s">
+      <c r="M51" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O51" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P51" s="7">
+      <c r="O51" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P51" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q51" s="7">
         <v>1408</v>
       </c>
-      <c r="Q51" s="22">
+      <c r="R51" s="21">
         <v>1052</v>
       </c>
-      <c r="R51" s="22">
-        <v>2460</v>
+      <c r="S51" s="21">
+        <v>906</v>
+      </c>
+      <c r="T51" s="21">
+        <v>3366</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="16" t="s">
         <v>359</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -4833,27 +5146,33 @@
       <c r="L52" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="M52" s="18" t="s">
+      <c r="M52" s="17" t="s">
         <v>28</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O52" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P52" s="4">
+      <c r="O52" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P52" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q52" s="4">
         <v>662</v>
       </c>
-      <c r="Q52" s="19">
+      <c r="R52" s="18">
         <v>643</v>
       </c>
-      <c r="R52" s="19">
-        <v>1305</v>
+      <c r="S52" s="18">
+        <v>373</v>
+      </c>
+      <c r="T52" s="18">
+        <v>1678</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="20" t="s">
+    <row r="53" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="19" t="s">
         <v>366</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -4889,27 +5208,31 @@
       <c r="L53" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="M53" s="21" t="s">
+      <c r="M53" s="20" t="s">
         <v>28</v>
       </c>
       <c r="N53" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O53" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="P53" s="7">
+      <c r="O53" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="P53" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q53" s="7">
         <v>684</v>
       </c>
-      <c r="Q53" s="22">
+      <c r="R53" s="21">
         <v>1573</v>
       </c>
-      <c r="R53" s="22">
+      <c r="S53" s="22"/>
+      <c r="T53" s="21">
         <v>2257</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="25" t="s">
+    <row r="54" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="23" t="s">
         <v>373</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -4931,129 +5254,135 @@
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="27" t="s">
+      <c r="M54" s="24"/>
+      <c r="N54" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="O54" s="28" t="s">
+      <c r="O54" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="P54" s="29">
+      <c r="P54" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q54" s="26">
         <v>0</v>
       </c>
-      <c r="Q54" s="30">
+      <c r="R54" s="27">
         <v>0</v>
       </c>
-      <c r="R54" s="31">
+      <c r="S54" s="28">
+        <v>0</v>
+      </c>
+      <c r="T54" s="28">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{EB738A8F-B3AC-4F21-9ECF-BFEA8B187D24}"/>
-    <hyperlink ref="L2" r:id="rId2" xr:uid="{E3503D9E-C635-429A-B842-A9FB43547436}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{EE968E23-0BBA-408A-8F73-A473B9EA86F2}"/>
-    <hyperlink ref="L3" r:id="rId4" xr:uid="{F28C4BA9-FF70-4617-8ADC-F018E8DBD3B3}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{4F654CFC-8F81-472B-AD41-78CF5F0370FD}"/>
-    <hyperlink ref="L4" r:id="rId6" xr:uid="{E331795C-E17E-4C0F-9DC2-7372D547B6DF}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{04E2D06C-8BFE-488E-9B4C-B3C68A724C2E}"/>
-    <hyperlink ref="L5" r:id="rId8" xr:uid="{EEEAA601-FFA7-4972-BE77-BD271A7604D9}"/>
-    <hyperlink ref="F6" r:id="rId9" xr:uid="{37660679-92C2-4865-998D-A0D3B6EF2B7F}"/>
-    <hyperlink ref="L6" r:id="rId10" xr:uid="{2122171C-4648-4719-9257-C5A460D54B49}"/>
-    <hyperlink ref="F7" r:id="rId11" xr:uid="{BCF47F12-B47A-48D5-A310-25D2021910E3}"/>
-    <hyperlink ref="L7" r:id="rId12" xr:uid="{7DED0B92-4A5F-46D3-A600-BF2860882279}"/>
-    <hyperlink ref="F8" r:id="rId13" xr:uid="{0960048C-EAAB-4F3B-B98B-61023D8DC95C}"/>
-    <hyperlink ref="L8" r:id="rId14" xr:uid="{46D3BAE1-970B-4561-8E88-FA45E9F7E3F4}"/>
-    <hyperlink ref="F9" r:id="rId15" xr:uid="{BD1E913C-962A-4081-B1A6-4E38F6E41259}"/>
-    <hyperlink ref="L9" r:id="rId16" xr:uid="{2BEE5143-0D49-4029-83F7-AB52E83FDE5B}"/>
-    <hyperlink ref="F10" r:id="rId17" xr:uid="{E8FE4556-2258-4D94-B043-28EF6B6B0479}"/>
-    <hyperlink ref="L10" r:id="rId18" xr:uid="{1456CBFF-4E37-4573-A0FA-3FAFE8D4807E}"/>
-    <hyperlink ref="F11" r:id="rId19" xr:uid="{295C4CDE-2014-4799-837F-75F24C61B063}"/>
-    <hyperlink ref="L11" r:id="rId20" xr:uid="{D5947C03-F305-422F-8E2A-2EE6D66C7BA7}"/>
-    <hyperlink ref="F12" r:id="rId21" xr:uid="{4729A630-A9C8-45CF-A1C6-A1ACCCBF8FA9}"/>
-    <hyperlink ref="L12" r:id="rId22" xr:uid="{B9E6DF40-E054-42F2-B870-F93BE1CDD1EC}"/>
-    <hyperlink ref="F13" r:id="rId23" xr:uid="{E048198B-E4AF-4D7F-99CE-049A08846FE5}"/>
-    <hyperlink ref="L13" r:id="rId24" xr:uid="{14BE9966-146E-41C4-BD37-5F21883B5F9B}"/>
-    <hyperlink ref="F14" r:id="rId25" xr:uid="{9E1AD0BB-CBF2-4F35-9F4F-928CF6AD7DD1}"/>
-    <hyperlink ref="L14" r:id="rId26" xr:uid="{64C6AC31-B5BE-402A-A926-51B97FD41D36}"/>
-    <hyperlink ref="F15" r:id="rId27" xr:uid="{B59E4789-63DD-43D4-8B91-6FD68DBDE367}"/>
-    <hyperlink ref="L15" r:id="rId28" xr:uid="{55B14ACF-5C30-4D9B-90B8-BACAC04CC4C6}"/>
-    <hyperlink ref="F16" r:id="rId29" xr:uid="{12CD7407-F882-4649-958F-1F013216DD1A}"/>
-    <hyperlink ref="L16" r:id="rId30" xr:uid="{4B32E4BA-B970-4526-B4F2-119B4A21946C}"/>
-    <hyperlink ref="F17" r:id="rId31" xr:uid="{1AE9BD01-C175-4825-A336-39B57064047F}"/>
-    <hyperlink ref="L17" r:id="rId32" xr:uid="{9C8A8CEE-71F9-41D2-B491-96338CCDDB6D}"/>
-    <hyperlink ref="F18" r:id="rId33" xr:uid="{E45F13AE-BBE6-4C34-A6FB-D492E4736815}"/>
-    <hyperlink ref="L18" r:id="rId34" xr:uid="{B9A81F05-886B-4AAE-98D3-60AD282E4A8F}"/>
-    <hyperlink ref="F19" r:id="rId35" xr:uid="{1803C080-D2FE-4A6E-B098-EEE976CD16BB}"/>
-    <hyperlink ref="L19" r:id="rId36" xr:uid="{A532308F-DB0D-4BE5-90ED-606402367AAA}"/>
-    <hyperlink ref="F20" r:id="rId37" xr:uid="{9DFE5E21-3F2F-4374-BB56-AC638636F0AA}"/>
-    <hyperlink ref="L20" r:id="rId38" xr:uid="{3EA8B6D5-C002-45DC-8405-7F68EB775700}"/>
-    <hyperlink ref="F21" r:id="rId39" xr:uid="{5E23B10A-09D4-4C98-B5DA-FB8BACA5F226}"/>
-    <hyperlink ref="L21" r:id="rId40" xr:uid="{69938961-F60C-46C9-A9E0-4C4C78A60428}"/>
-    <hyperlink ref="F22" r:id="rId41" xr:uid="{024E2041-617C-4272-856A-CAF6C9F8EA0B}"/>
-    <hyperlink ref="L22" r:id="rId42" xr:uid="{AEA369BB-39B8-4D1F-8ED1-E7004649A6FD}"/>
-    <hyperlink ref="F23" r:id="rId43" xr:uid="{A8C2C4E8-803D-41B1-BCF6-9AAE35FE9461}"/>
-    <hyperlink ref="L23" r:id="rId44" xr:uid="{ECD31150-8418-4CDF-8818-7521D739BF1E}"/>
-    <hyperlink ref="F24" r:id="rId45" xr:uid="{4D1D7C0C-F3CC-4A79-9696-AE52AC49D818}"/>
-    <hyperlink ref="L24" r:id="rId46" xr:uid="{A27B4EEE-7FFB-4E7F-8E05-1C1B8C26D06C}"/>
-    <hyperlink ref="F25" r:id="rId47" xr:uid="{B0D0B877-D79A-46AC-ABEF-BD214D6A64DF}"/>
-    <hyperlink ref="L25" r:id="rId48" xr:uid="{B26384DA-D9B9-472E-8BCB-B8C3C703F256}"/>
-    <hyperlink ref="F26" r:id="rId49" xr:uid="{5A2F3502-5831-4322-A2A7-91AD9F0B7C1F}"/>
-    <hyperlink ref="L26" r:id="rId50" xr:uid="{677833C5-2A38-4551-AA52-D90C31259D8B}"/>
-    <hyperlink ref="F27" r:id="rId51" display="https://drive.google.com/file/d/1buDrBqk4rHcGLbKKMJHOEOM9AOosdrVF/view?usp=drive_link" xr:uid="{79967531-2A57-44D5-BD57-F0445E2D84E9}"/>
-    <hyperlink ref="L27" r:id="rId52" xr:uid="{745F3F22-C292-40E0-88A9-72DD1C6CDFCD}"/>
-    <hyperlink ref="F28" r:id="rId53" xr:uid="{4D8B81D2-7779-43DB-99C9-BB0976A21F9F}"/>
-    <hyperlink ref="L28" r:id="rId54" xr:uid="{9E7FF82C-9872-4F3A-A83F-710F7168E6BC}"/>
-    <hyperlink ref="F29" r:id="rId55" xr:uid="{E8A184F3-31F1-4D7B-81B0-154E96E9F503}"/>
-    <hyperlink ref="L29" r:id="rId56" xr:uid="{5271FFD9-D3C3-4391-B8F6-E21C7933B2BD}"/>
-    <hyperlink ref="F30" r:id="rId57" xr:uid="{FA16667E-68A4-47E5-9450-D7F6DB564A69}"/>
-    <hyperlink ref="L30" r:id="rId58" xr:uid="{D9A73594-AAE4-40F9-9D4A-C63F1AA4184A}"/>
-    <hyperlink ref="F31" r:id="rId59" xr:uid="{5BEA62FB-EFC3-4AB6-B8CD-9D1C6E0EDA0F}"/>
-    <hyperlink ref="L31" r:id="rId60" xr:uid="{95B2BB62-3B5E-4C9D-AF0E-5F455AEB6232}"/>
-    <hyperlink ref="F32" r:id="rId61" xr:uid="{4E8E792E-8744-4684-89E1-57D6C23E070C}"/>
-    <hyperlink ref="L32" r:id="rId62" xr:uid="{1D417491-01C3-4B03-A7DF-0ECACEA64C59}"/>
-    <hyperlink ref="F33" r:id="rId63" xr:uid="{9C1CAA25-A41A-4C4B-A04A-76D6487DE13E}"/>
-    <hyperlink ref="L33" r:id="rId64" xr:uid="{8F7477E3-8C4C-4ED7-9F06-4F39A668DC8B}"/>
-    <hyperlink ref="F34" r:id="rId65" xr:uid="{98332B7A-DE25-4C28-B854-B559E2CD1252}"/>
-    <hyperlink ref="L34" r:id="rId66" xr:uid="{DD1F7CFF-CB8C-4DE6-A118-5805173A893D}"/>
-    <hyperlink ref="F35" r:id="rId67" xr:uid="{948D2CBA-9336-403C-AA62-58EC637E9746}"/>
-    <hyperlink ref="L35" r:id="rId68" xr:uid="{B32D672A-4056-4235-882C-D4C84AEABD15}"/>
-    <hyperlink ref="F36" r:id="rId69" xr:uid="{85E4CCE6-F5CC-46DB-84CA-59E2229E2A2E}"/>
-    <hyperlink ref="L36" r:id="rId70" xr:uid="{8C070ED1-575B-41D9-BF9C-DD089A20FA71}"/>
-    <hyperlink ref="F37" r:id="rId71" xr:uid="{93252CD3-0380-4A84-B4DF-F38A391016A3}"/>
-    <hyperlink ref="L37" r:id="rId72" xr:uid="{7FDAAB39-303B-4095-8CF0-477946DBC3F1}"/>
-    <hyperlink ref="F38" r:id="rId73" xr:uid="{F05BA44A-4B1F-40D5-85F6-DAD064B8546F}"/>
-    <hyperlink ref="L38" r:id="rId74" xr:uid="{E5E89D99-8AC1-4914-9F6E-0259809EE6C7}"/>
-    <hyperlink ref="F39" r:id="rId75" xr:uid="{E1170239-2CC3-44D6-8EC7-0C2E5B080075}"/>
-    <hyperlink ref="L39" r:id="rId76" xr:uid="{BA5277F6-96B1-4827-8414-F1132F38E908}"/>
-    <hyperlink ref="F40" r:id="rId77" xr:uid="{B26364E6-F4C7-476E-A74F-B0058361AC71}"/>
-    <hyperlink ref="L40" r:id="rId78" xr:uid="{D50F68DC-7CAD-4162-BC38-240CBE904FFB}"/>
-    <hyperlink ref="F41" r:id="rId79" xr:uid="{3EB6F693-F4AE-44BD-A71C-7BC8880B9165}"/>
-    <hyperlink ref="L41" r:id="rId80" xr:uid="{FD3728E3-6372-4403-8C7B-77D2FACEFD15}"/>
-    <hyperlink ref="F42" r:id="rId81" xr:uid="{2DC1E206-159B-4E90-8A4D-00ED35EDF5FF}"/>
-    <hyperlink ref="F43" r:id="rId82" xr:uid="{603D8F37-9BF7-4960-99AE-8A310885D001}"/>
-    <hyperlink ref="L43" r:id="rId83" xr:uid="{BD9F1CF5-BF75-4E21-9533-79CF88B7A8C5}"/>
-    <hyperlink ref="F44" r:id="rId84" xr:uid="{2039E21D-E32C-49E0-B758-E6B72ED043ED}"/>
-    <hyperlink ref="L44" r:id="rId85" xr:uid="{8D39279B-E68B-4DC3-99BE-55D298339D6F}"/>
-    <hyperlink ref="F45" r:id="rId86" xr:uid="{F904DE0B-06ED-4BBF-AE9C-BD3958607565}"/>
-    <hyperlink ref="L45" r:id="rId87" xr:uid="{57396CEC-7B04-48D1-9DA4-4AC47DF9C6D9}"/>
-    <hyperlink ref="F46" r:id="rId88" xr:uid="{38AC5E9C-EF9E-4E99-B6C5-76DE1571FD87}"/>
-    <hyperlink ref="L46" r:id="rId89" xr:uid="{3193C4B6-EADD-4B64-B27E-0AEAB09CEC92}"/>
-    <hyperlink ref="F47" r:id="rId90" xr:uid="{0F6E0CBC-C1DB-4850-A9D8-6BC8F5DAD35F}"/>
-    <hyperlink ref="L47" r:id="rId91" xr:uid="{71413ED1-DA74-4C9B-9322-D408619CC0B4}"/>
-    <hyperlink ref="F48" r:id="rId92" xr:uid="{EF2382DD-D89C-486D-BC85-87F7ED5D46AA}"/>
-    <hyperlink ref="L48" r:id="rId93" xr:uid="{77A030EF-03A8-48EB-864E-CD30A6B974C6}"/>
-    <hyperlink ref="F49" r:id="rId94" xr:uid="{E4A958BF-662B-49BE-8933-75378FDC0D52}"/>
-    <hyperlink ref="L49" r:id="rId95" xr:uid="{0C8688AC-96E7-4286-9D4A-37A9996F4272}"/>
-    <hyperlink ref="F50" r:id="rId96" xr:uid="{12FED2CC-552A-4CF0-82A9-6228C6296899}"/>
-    <hyperlink ref="L50" r:id="rId97" xr:uid="{3CEEA9AD-1667-4186-9EF9-264886EE24C1}"/>
-    <hyperlink ref="F51" r:id="rId98" xr:uid="{EC43AB3E-1329-4317-BD37-E7F555F27326}"/>
-    <hyperlink ref="L51" r:id="rId99" xr:uid="{439DF3A7-37B3-4E22-9D93-A08BD9C64311}"/>
-    <hyperlink ref="F52" r:id="rId100" xr:uid="{E4890BFE-3BC3-42BC-B58B-303E4A0B694B}"/>
-    <hyperlink ref="L52" r:id="rId101" xr:uid="{4C755FDF-8D71-463A-9C66-13EA4042550E}"/>
-    <hyperlink ref="F53" r:id="rId102" xr:uid="{6637F6EC-7E0F-490A-8994-8AA645ABB08B}"/>
-    <hyperlink ref="L53" r:id="rId103" xr:uid="{787A0977-AE27-4F56-A9CF-4103F06E5EB2}"/>
-    <hyperlink ref="F54" r:id="rId104" xr:uid="{4321CCC7-36A7-4B52-9C7E-D20DBE6632B6}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{BF4871D9-1E6A-4FAB-86AC-B1CA162C2E6F}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{C693EA93-9F21-4ACE-8C74-C46F8B922D59}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{2599B7BE-C480-4166-83E1-8E8473E6C97E}"/>
+    <hyperlink ref="L3" r:id="rId4" xr:uid="{E485AC19-3BD8-4843-9F31-4AB755F96004}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{39314B55-4F5C-4126-9794-19DB324F0A2F}"/>
+    <hyperlink ref="L4" r:id="rId6" xr:uid="{EF0EE722-D4A0-4575-9243-61E64C2564A6}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{54E80522-7BD2-4AFD-B34D-748F9946DEE3}"/>
+    <hyperlink ref="L5" r:id="rId8" xr:uid="{BA6ED292-98EF-4782-A5B4-96C5E748DD75}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{0E903748-842D-4E69-903B-0E9F7D1124BC}"/>
+    <hyperlink ref="L6" r:id="rId10" xr:uid="{6A9E5D54-A0BD-43E6-ADCD-9F5E0CDFF719}"/>
+    <hyperlink ref="F7" r:id="rId11" xr:uid="{0C04BAE9-4D85-4C9A-9CE9-C1EFBAE04A54}"/>
+    <hyperlink ref="L7" r:id="rId12" xr:uid="{11525ED1-4362-4E6A-8DED-F2E49F84DC39}"/>
+    <hyperlink ref="F8" r:id="rId13" xr:uid="{C2587CFA-A1DA-47BF-9FCF-9DC94AD8EF97}"/>
+    <hyperlink ref="L8" r:id="rId14" xr:uid="{0C4A514D-4E5C-4CFA-B3EB-12E4F53AD1DD}"/>
+    <hyperlink ref="F9" r:id="rId15" xr:uid="{A43558CA-55B2-4E53-AE7A-B77EEE86CC17}"/>
+    <hyperlink ref="L9" r:id="rId16" xr:uid="{BDD79251-CFB0-45B1-AE4F-3E8F41A47981}"/>
+    <hyperlink ref="F10" r:id="rId17" xr:uid="{C64D93EE-1B1A-4DA4-A1F3-D0985ACB7EC5}"/>
+    <hyperlink ref="L10" r:id="rId18" xr:uid="{99FC9A37-6115-46DE-A9A1-6A20326DBC3B}"/>
+    <hyperlink ref="F11" r:id="rId19" xr:uid="{50060AE3-3933-4595-B484-2A8219965D3F}"/>
+    <hyperlink ref="L11" r:id="rId20" xr:uid="{7EAA4FF2-BBE0-4073-8506-3B9ACC06D495}"/>
+    <hyperlink ref="F12" r:id="rId21" xr:uid="{4CB7CA0E-9CA0-402C-9657-27B218D63D45}"/>
+    <hyperlink ref="L12" r:id="rId22" xr:uid="{FC4F21B6-0DCF-4944-9AF8-39741E5C7C42}"/>
+    <hyperlink ref="F13" r:id="rId23" xr:uid="{D85FAC32-1BCD-40F7-A2CA-6B8E06C850DA}"/>
+    <hyperlink ref="L13" r:id="rId24" xr:uid="{88A981B4-CCF4-48C6-89F1-76F25009ED0A}"/>
+    <hyperlink ref="F14" r:id="rId25" xr:uid="{FFB2AB9E-271F-4E68-AC78-DB795A2108B5}"/>
+    <hyperlink ref="L14" r:id="rId26" xr:uid="{4D7EDD75-DC42-48B1-94CB-7924CB2A7CAE}"/>
+    <hyperlink ref="F15" r:id="rId27" xr:uid="{4DCB5AD4-4DBC-4C8B-82FD-A6B88673905F}"/>
+    <hyperlink ref="L15" r:id="rId28" xr:uid="{8426D3A1-7C0E-4DA6-82B3-42BA30D28CA1}"/>
+    <hyperlink ref="F16" r:id="rId29" xr:uid="{53CBAB83-A060-4897-A50A-75A6F90EFE9E}"/>
+    <hyperlink ref="L16" r:id="rId30" xr:uid="{EE3FAC74-04D0-4929-9FF9-B02266135527}"/>
+    <hyperlink ref="F17" r:id="rId31" xr:uid="{37E84704-02AC-4FC5-BEA8-20F7F067F293}"/>
+    <hyperlink ref="L17" r:id="rId32" xr:uid="{315EA7B0-1A62-48CB-8004-553F68A6825C}"/>
+    <hyperlink ref="F18" r:id="rId33" xr:uid="{4D31920F-4FFC-46FB-B311-702082CF266B}"/>
+    <hyperlink ref="L18" r:id="rId34" xr:uid="{832D894F-E975-4467-9F69-0D5C519CB8D7}"/>
+    <hyperlink ref="F19" r:id="rId35" xr:uid="{18E5557E-EB0A-42E7-824A-E63226208560}"/>
+    <hyperlink ref="L19" r:id="rId36" xr:uid="{D2914809-5099-46AA-9E8C-FA8517915020}"/>
+    <hyperlink ref="F20" r:id="rId37" xr:uid="{7A195B2D-D958-40C4-B50F-A1D1362E4C5C}"/>
+    <hyperlink ref="L20" r:id="rId38" xr:uid="{56000586-2E17-4688-ADA1-8B4C99693C03}"/>
+    <hyperlink ref="F21" r:id="rId39" xr:uid="{187CCA8F-56A0-443D-A257-2369B6E6FBEC}"/>
+    <hyperlink ref="L21" r:id="rId40" xr:uid="{5F3CC269-CFDB-41D2-A2F5-9575306E5C5F}"/>
+    <hyperlink ref="F22" r:id="rId41" xr:uid="{89B63224-36BA-4386-98CA-53BD6DEA785C}"/>
+    <hyperlink ref="L22" r:id="rId42" xr:uid="{070B3B55-B6DA-4D7D-96A1-0B38655B7EE5}"/>
+    <hyperlink ref="F23" r:id="rId43" xr:uid="{542656C7-0D07-48CB-BE60-C337D6B82BDE}"/>
+    <hyperlink ref="L23" r:id="rId44" xr:uid="{20DAC5B6-6C72-4C02-BBB5-39AB54DFE4FB}"/>
+    <hyperlink ref="F24" r:id="rId45" xr:uid="{F5B2BA3B-331A-480C-B1DC-D99A87AC3982}"/>
+    <hyperlink ref="L24" r:id="rId46" xr:uid="{D4802E10-61EC-4AEA-A21F-D48ACEE2AF4C}"/>
+    <hyperlink ref="F25" r:id="rId47" xr:uid="{F7AEB93C-57A8-4BEC-9309-9CCF86AEFD74}"/>
+    <hyperlink ref="L25" r:id="rId48" xr:uid="{569C8B00-05E5-4885-BC8C-23003D7FD7D1}"/>
+    <hyperlink ref="F26" r:id="rId49" xr:uid="{305146D1-D16B-423A-B9AE-64B61DB70208}"/>
+    <hyperlink ref="L26" r:id="rId50" xr:uid="{19BC3173-B2D0-44BF-96FD-D44F5780BE53}"/>
+    <hyperlink ref="F27" r:id="rId51" display="https://drive.google.com/file/d/1buDrBqk4rHcGLbKKMJHOEOM9AOosdrVF/view?usp=drive_link" xr:uid="{F2B92217-933B-40C6-9E0D-CDC57C3ABD25}"/>
+    <hyperlink ref="L27" r:id="rId52" xr:uid="{03D06138-3500-4731-882A-C37EC9194DB1}"/>
+    <hyperlink ref="F28" r:id="rId53" xr:uid="{09D61F21-63CF-4923-97B9-D6D685FCF725}"/>
+    <hyperlink ref="L28" r:id="rId54" xr:uid="{481922EA-C663-4FC4-B85B-1DF4F52A8D4D}"/>
+    <hyperlink ref="F29" r:id="rId55" xr:uid="{A447EEF4-C6FB-41A1-AC77-F823A2012E94}"/>
+    <hyperlink ref="L29" r:id="rId56" xr:uid="{B54BF329-7307-408A-9A08-09528434830A}"/>
+    <hyperlink ref="F30" r:id="rId57" xr:uid="{92D1FF1B-AAEF-4A86-95D3-E9EB523624AA}"/>
+    <hyperlink ref="L30" r:id="rId58" xr:uid="{516642FA-6318-4C35-B053-26827143CB59}"/>
+    <hyperlink ref="F31" r:id="rId59" xr:uid="{48E5B769-368A-4029-8C55-BB9E27DC42F4}"/>
+    <hyperlink ref="L31" r:id="rId60" xr:uid="{BE2A4988-4D0B-4EB4-BE11-17B0BD49DC8B}"/>
+    <hyperlink ref="F32" r:id="rId61" xr:uid="{A8B5CF5F-C59F-4A08-BE3E-0871678C66C9}"/>
+    <hyperlink ref="L32" r:id="rId62" xr:uid="{DE74A513-1010-487D-A1E5-C8B7528F48CB}"/>
+    <hyperlink ref="F33" r:id="rId63" xr:uid="{412368C3-1B36-401D-9645-A54DE65175EF}"/>
+    <hyperlink ref="L33" r:id="rId64" xr:uid="{6803A765-70D4-47D9-832E-061B4499C344}"/>
+    <hyperlink ref="F34" r:id="rId65" xr:uid="{5638778F-C664-43F9-A972-775A068EF781}"/>
+    <hyperlink ref="L34" r:id="rId66" xr:uid="{9328E37F-D22E-437B-8FC5-044D5624D77C}"/>
+    <hyperlink ref="F35" r:id="rId67" xr:uid="{67C6EDDE-DE10-4D5B-944C-5ED3E8EB1BA7}"/>
+    <hyperlink ref="L35" r:id="rId68" xr:uid="{985547D5-B505-4788-99A4-0154360F1A31}"/>
+    <hyperlink ref="F36" r:id="rId69" xr:uid="{1380A29E-FD2E-4CF5-9D4F-4AA31EEF3684}"/>
+    <hyperlink ref="L36" r:id="rId70" xr:uid="{2932EF15-ECB4-4970-A552-E41FDE73C11E}"/>
+    <hyperlink ref="F37" r:id="rId71" xr:uid="{DAC946FD-380B-47C2-8D73-216A770C0EEC}"/>
+    <hyperlink ref="L37" r:id="rId72" xr:uid="{444BDA33-DDBC-4270-9B2C-7333164ACC6F}"/>
+    <hyperlink ref="F38" r:id="rId73" xr:uid="{2199F9EC-6BE6-49EE-AB4A-5676605608ED}"/>
+    <hyperlink ref="L38" r:id="rId74" xr:uid="{0D6457B5-13A9-4B96-8725-EA526DC4CB5C}"/>
+    <hyperlink ref="F39" r:id="rId75" xr:uid="{1332CDD2-1C0B-4306-8363-658AC68E6398}"/>
+    <hyperlink ref="L39" r:id="rId76" xr:uid="{F05266ED-1994-4BE7-8222-6CAE1E20BA06}"/>
+    <hyperlink ref="F40" r:id="rId77" xr:uid="{5D7A7365-A8C5-49B3-9DF7-87FFEF7C2676}"/>
+    <hyperlink ref="L40" r:id="rId78" xr:uid="{96BC6402-59A6-4C40-9CA3-A7A93C8CDB0F}"/>
+    <hyperlink ref="F41" r:id="rId79" xr:uid="{A4D84D0C-311B-404B-B507-A9EF1D163EC7}"/>
+    <hyperlink ref="L41" r:id="rId80" xr:uid="{18F191BF-3EBD-447F-B12E-FB2E4F7716E7}"/>
+    <hyperlink ref="F42" r:id="rId81" xr:uid="{DB2CAA61-1D01-4EC3-8AFE-98D2A969DD40}"/>
+    <hyperlink ref="F43" r:id="rId82" xr:uid="{0FDEDDE5-3261-4C50-831C-6060A20FC48E}"/>
+    <hyperlink ref="L43" r:id="rId83" xr:uid="{EF0F958D-5A76-47A8-961C-26C91241A9F2}"/>
+    <hyperlink ref="F44" r:id="rId84" xr:uid="{2C6DD999-A8A8-42F1-A019-66AD6DC2175A}"/>
+    <hyperlink ref="L44" r:id="rId85" xr:uid="{55B780D0-7CB5-4062-9465-96E5CC3FD8E4}"/>
+    <hyperlink ref="F45" r:id="rId86" xr:uid="{7729B01B-5051-44C4-A9C8-70ACA5895AB9}"/>
+    <hyperlink ref="L45" r:id="rId87" xr:uid="{6D438157-69A3-4709-9BC6-8AC753B6558E}"/>
+    <hyperlink ref="F46" r:id="rId88" xr:uid="{83A0E19D-82F9-460E-8BCD-2C748D341B76}"/>
+    <hyperlink ref="L46" r:id="rId89" xr:uid="{5997857A-B084-470A-B7E8-3D1A3AEF0CEC}"/>
+    <hyperlink ref="F47" r:id="rId90" xr:uid="{AA21AF18-8995-4412-9DF0-0FC0B5459AA2}"/>
+    <hyperlink ref="L47" r:id="rId91" xr:uid="{51326B38-3A8B-44AC-A4A6-2CD88D23216F}"/>
+    <hyperlink ref="F48" r:id="rId92" xr:uid="{40C22073-A136-48B7-823D-D09A6D9A23D0}"/>
+    <hyperlink ref="L48" r:id="rId93" xr:uid="{783F25CC-FD28-4A2E-980B-77C1390D4064}"/>
+    <hyperlink ref="F49" r:id="rId94" xr:uid="{6F6BBF82-A1AA-4435-8C68-F2C94DBCC111}"/>
+    <hyperlink ref="L49" r:id="rId95" xr:uid="{84E89D86-034E-461E-8B2F-14A093498B6C}"/>
+    <hyperlink ref="F50" r:id="rId96" xr:uid="{B5A344BD-0991-4875-A8D1-1EF04C12A72A}"/>
+    <hyperlink ref="L50" r:id="rId97" xr:uid="{1325BE3D-68F1-4BFC-81E5-373DE57F1F16}"/>
+    <hyperlink ref="F51" r:id="rId98" xr:uid="{E2543043-AC62-4DCC-B2CE-83638B534A2A}"/>
+    <hyperlink ref="L51" r:id="rId99" xr:uid="{415A8DBF-67FE-4864-A8EF-EDC02192D9A5}"/>
+    <hyperlink ref="F52" r:id="rId100" xr:uid="{0F8A4830-596A-4547-BA5F-4B5570D631EC}"/>
+    <hyperlink ref="L52" r:id="rId101" xr:uid="{CEF0DFB0-AA13-4BFB-9C4C-0BDC8E75FAF4}"/>
+    <hyperlink ref="F53" r:id="rId102" xr:uid="{1D5FE741-48CD-4D14-9AA6-105873DB8366}"/>
+    <hyperlink ref="L53" r:id="rId103" xr:uid="{E8DF7D37-2642-4DBF-A8DA-FF792B416D9F}"/>
+    <hyperlink ref="F54" r:id="rId104" xr:uid="{E27549AE-23DF-4C8B-AE77-FC403C244CA2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId105"/>

--- a/alunos.xlsx
+++ b/alunos.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leticia\Documents\Letícia\Repositórios\latelie_de_verao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E8F88E-082D-4F65-B7BE-15724AB0FE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B0123C-5453-4FD3-9446-DBD12036A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BD735D1-F3B0-4DC0-AB17-30AB545D3AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$V$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="388">
   <si>
     <t xml:space="preserve">Nome completo
 </t>
@@ -1195,6 +1198,12 @@
   </si>
   <si>
     <t>Qntd. de Palavras Atv. 3</t>
+  </si>
+  <si>
+    <t>Atividade 4</t>
+  </si>
+  <si>
+    <t>Qntd. de Palavras Atv. 4</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1564,9 +1573,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1584,10 +1590,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1924,32 +1926,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C2AB94-8371-415B-B15C-673BF998D579}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="90.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="134.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="66.21875" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="65" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.77734375" style="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="22" style="29" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="29"/>
+    <col min="1" max="1" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="134.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="65" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1995,23 +1998,29 @@
       <c r="O1" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="V1" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
@@ -2057,23 +2066,29 @@
       <c r="O2" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R2" s="4">
         <v>207</v>
-      </c>
-      <c r="R2" s="18">
-        <v>0</v>
       </c>
       <c r="S2" s="18">
         <v>0</v>
       </c>
       <c r="T2" s="18">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18">
+        <v>0</v>
+      </c>
+      <c r="V2" s="18">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>30</v>
       </c>
@@ -2119,23 +2134,29 @@
       <c r="O3" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P3" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q3" s="7">
+      <c r="P3" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R3" s="7">
         <v>645</v>
       </c>
-      <c r="R3" s="21">
+      <c r="S3" s="21">
         <v>1170</v>
       </c>
-      <c r="S3" s="21">
+      <c r="T3" s="21">
         <v>376</v>
       </c>
-      <c r="T3" s="21">
-        <v>2191</v>
+      <c r="U3" s="21">
+        <v>970</v>
+      </c>
+      <c r="V3" s="21">
+        <v>3161</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>40</v>
       </c>
@@ -2181,23 +2202,29 @@
       <c r="O4" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R4" s="4">
         <v>243</v>
       </c>
-      <c r="R4" s="18">
+      <c r="S4" s="18">
         <v>358</v>
       </c>
-      <c r="S4" s="18">
+      <c r="T4" s="18">
         <v>0</v>
       </c>
-      <c r="T4" s="18">
+      <c r="U4" s="18">
+        <v>0</v>
+      </c>
+      <c r="V4" s="18">
         <v>601</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
@@ -2243,23 +2270,29 @@
       <c r="O5" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P5" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q5" s="7">
+      <c r="P5" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R5" s="7">
         <v>1992</v>
       </c>
-      <c r="R5" s="21">
+      <c r="S5" s="21">
         <v>3976</v>
       </c>
-      <c r="S5" s="21">
+      <c r="T5" s="21">
         <v>2344</v>
       </c>
-      <c r="T5" s="21">
-        <v>8312</v>
+      <c r="U5" s="21">
+        <v>2995</v>
+      </c>
+      <c r="V5" s="21">
+        <v>11307</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>55</v>
       </c>
@@ -2305,23 +2338,29 @@
       <c r="O6" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P6" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q6" s="4">
+      <c r="P6" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R6" s="4">
         <v>1870</v>
       </c>
-      <c r="R6" s="18">
+      <c r="S6" s="18">
         <v>1383</v>
       </c>
-      <c r="S6" s="18">
+      <c r="T6" s="18">
         <v>495</v>
       </c>
-      <c r="T6" s="18">
-        <v>3748</v>
+      <c r="U6" s="18">
+        <v>1317</v>
+      </c>
+      <c r="V6" s="18">
+        <v>5065</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>61</v>
       </c>
@@ -2367,23 +2406,29 @@
       <c r="O7" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P7" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q7" s="7">
+      <c r="P7" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="R7" s="7">
         <v>514</v>
       </c>
-      <c r="R7" s="21">
+      <c r="S7" s="21">
         <v>868</v>
       </c>
-      <c r="S7" s="21">
+      <c r="T7" s="21">
         <v>86</v>
       </c>
-      <c r="T7" s="21">
+      <c r="U7" s="21">
+        <v>0</v>
+      </c>
+      <c r="V7" s="21">
         <v>1468</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>68</v>
       </c>
@@ -2429,23 +2474,29 @@
       <c r="O8" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P8" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q8" s="4">
+      <c r="P8" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R8" s="4">
         <v>269</v>
       </c>
-      <c r="R8" s="18">
+      <c r="S8" s="18">
         <v>474</v>
       </c>
-      <c r="S8" s="18">
+      <c r="T8" s="18">
         <v>320</v>
       </c>
-      <c r="T8" s="18">
-        <v>1063</v>
+      <c r="U8" s="18">
+        <v>56</v>
+      </c>
+      <c r="V8" s="18">
+        <v>1119</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>75</v>
       </c>
@@ -2491,23 +2542,29 @@
       <c r="O9" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q9" s="7">
+      <c r="P9" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R9" s="7">
         <v>261</v>
       </c>
-      <c r="R9" s="21">
+      <c r="S9" s="21">
         <v>766</v>
       </c>
-      <c r="S9" s="21">
+      <c r="T9" s="21">
         <v>478</v>
       </c>
-      <c r="T9" s="21">
-        <v>1505</v>
+      <c r="U9" s="21">
+        <v>608</v>
+      </c>
+      <c r="V9" s="21">
+        <v>2113</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>83</v>
       </c>
@@ -2553,23 +2610,29 @@
       <c r="O10" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P10" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q10" s="4">
+      <c r="P10" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R10" s="4">
         <v>355</v>
       </c>
-      <c r="R10" s="18">
+      <c r="S10" s="18">
         <v>868</v>
       </c>
-      <c r="S10" s="18">
+      <c r="T10" s="18">
         <v>420</v>
       </c>
-      <c r="T10" s="18">
-        <v>1643</v>
+      <c r="U10" s="18">
+        <v>926</v>
+      </c>
+      <c r="V10" s="18">
+        <v>2569</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>91</v>
       </c>
@@ -2615,23 +2678,29 @@
       <c r="O11" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P11" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q11" s="7">
+      <c r="P11" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R11" s="7">
         <v>549</v>
       </c>
-      <c r="R11" s="21">
+      <c r="S11" s="21">
         <v>3324</v>
       </c>
-      <c r="S11" s="21">
+      <c r="T11" s="21">
         <v>1745</v>
       </c>
-      <c r="T11" s="21">
-        <v>5618</v>
+      <c r="U11" s="21">
+        <v>4349</v>
+      </c>
+      <c r="V11" s="21">
+        <v>9967</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>97</v>
       </c>
@@ -2677,23 +2746,29 @@
       <c r="O12" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R12" s="4">
         <v>789</v>
-      </c>
-      <c r="R12" s="18">
-        <v>0</v>
       </c>
       <c r="S12" s="18">
         <v>0</v>
       </c>
       <c r="T12" s="18">
+        <v>0</v>
+      </c>
+      <c r="U12" s="18">
+        <v>0</v>
+      </c>
+      <c r="V12" s="18">
         <v>789</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>105</v>
       </c>
@@ -2739,23 +2814,29 @@
       <c r="O13" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P13" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q13" s="7">
+      <c r="P13" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R13" s="7">
         <v>783</v>
       </c>
-      <c r="R13" s="21">
+      <c r="S13" s="21">
         <v>1466</v>
       </c>
-      <c r="S13" s="21">
+      <c r="T13" s="21">
         <v>741</v>
       </c>
-      <c r="T13" s="21">
-        <v>2990</v>
+      <c r="U13" s="21">
+        <v>2831</v>
+      </c>
+      <c r="V13" s="21">
+        <v>5821</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>112</v>
       </c>
@@ -2801,23 +2882,29 @@
       <c r="O14" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R14" s="4">
         <v>565</v>
       </c>
-      <c r="R14" s="18">
+      <c r="S14" s="18">
         <v>884</v>
       </c>
-      <c r="S14" s="18">
+      <c r="T14" s="18">
         <v>0</v>
       </c>
-      <c r="T14" s="18">
-        <v>1449</v>
+      <c r="U14" s="18">
+        <v>967</v>
+      </c>
+      <c r="V14" s="18">
+        <v>2416</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>121</v>
       </c>
@@ -2863,23 +2950,29 @@
       <c r="O15" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P15" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q15" s="7">
+      <c r="P15" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R15" s="7">
         <v>394</v>
       </c>
-      <c r="R15" s="21">
+      <c r="S15" s="21">
         <v>1845</v>
       </c>
-      <c r="S15" s="21">
+      <c r="T15" s="21">
         <v>1041</v>
       </c>
-      <c r="T15" s="21">
-        <v>3280</v>
+      <c r="U15" s="21">
+        <v>1841</v>
+      </c>
+      <c r="V15" s="21">
+        <v>5121</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>127</v>
       </c>
@@ -2925,23 +3018,29 @@
       <c r="O16" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P16" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q16" s="4">
+      <c r="P16" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R16" s="4">
         <v>1935</v>
       </c>
-      <c r="R16" s="18">
+      <c r="S16" s="18">
         <v>1620</v>
       </c>
-      <c r="S16" s="18">
+      <c r="T16" s="18">
         <v>759</v>
       </c>
-      <c r="T16" s="18">
-        <v>4314</v>
+      <c r="U16" s="18">
+        <v>3119</v>
+      </c>
+      <c r="V16" s="18">
+        <v>7433</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>133</v>
       </c>
@@ -2987,23 +3086,29 @@
       <c r="O17" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R17" s="7">
         <v>683</v>
-      </c>
-      <c r="R17" s="21">
-        <v>0</v>
       </c>
       <c r="S17" s="21">
         <v>0</v>
       </c>
       <c r="T17" s="21">
-        <v>683</v>
+        <v>0</v>
+      </c>
+      <c r="U17" s="21">
+        <v>943</v>
+      </c>
+      <c r="V17" s="21">
+        <v>1626</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>140</v>
       </c>
@@ -3049,23 +3154,29 @@
       <c r="O18" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P18" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q18" s="4">
+      <c r="P18" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R18" s="4">
         <v>908</v>
       </c>
-      <c r="R18" s="18">
+      <c r="S18" s="18">
         <v>1612</v>
       </c>
-      <c r="S18" s="18">
+      <c r="T18" s="18">
         <v>681</v>
       </c>
-      <c r="T18" s="18">
-        <v>3201</v>
+      <c r="U18" s="18">
+        <v>1092</v>
+      </c>
+      <c r="V18" s="18">
+        <v>4293</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>147</v>
       </c>
@@ -3111,23 +3222,29 @@
       <c r="O19" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R19" s="7">
         <v>818</v>
       </c>
-      <c r="R19" s="21">
+      <c r="S19" s="21">
         <v>1226</v>
       </c>
-      <c r="S19" s="21">
+      <c r="T19" s="21">
         <v>0</v>
       </c>
-      <c r="T19" s="21">
-        <v>2044</v>
+      <c r="U19" s="21">
+        <v>1251</v>
+      </c>
+      <c r="V19" s="21">
+        <v>3295</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>154</v>
       </c>
@@ -3173,23 +3290,29 @@
       <c r="O20" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P20" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q20" s="4">
+      <c r="P20" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R20" s="4">
         <v>720</v>
       </c>
-      <c r="R20" s="18">
+      <c r="S20" s="18">
         <v>1177</v>
       </c>
-      <c r="S20" s="18">
+      <c r="T20" s="18">
         <v>1256</v>
       </c>
-      <c r="T20" s="18">
-        <v>3153</v>
+      <c r="U20" s="18">
+        <v>780</v>
+      </c>
+      <c r="V20" s="18">
+        <v>3933</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
         <v>161</v>
       </c>
@@ -3235,23 +3358,29 @@
       <c r="O21" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P21" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q21" s="7">
+      <c r="P21" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R21" s="7">
         <v>964</v>
       </c>
-      <c r="R21" s="21">
+      <c r="S21" s="21">
         <v>575</v>
       </c>
-      <c r="S21" s="21">
+      <c r="T21" s="21">
         <v>760</v>
       </c>
-      <c r="T21" s="21">
-        <v>2299</v>
+      <c r="U21" s="21">
+        <v>1032</v>
+      </c>
+      <c r="V21" s="21">
+        <v>3331</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>167</v>
       </c>
@@ -3297,23 +3426,29 @@
       <c r="O22" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P22" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q22" s="4">
+      <c r="P22" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R22" s="4">
         <v>5001</v>
       </c>
-      <c r="R22" s="18">
+      <c r="S22" s="18">
         <v>7230</v>
       </c>
-      <c r="S22" s="18">
+      <c r="T22" s="18">
         <v>5756</v>
       </c>
-      <c r="T22" s="18">
-        <v>17987</v>
+      <c r="U22" s="18">
+        <v>13912</v>
+      </c>
+      <c r="V22" s="18">
+        <v>31899</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
         <v>174</v>
       </c>
@@ -3359,23 +3494,29 @@
       <c r="O23" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P23" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q23" s="7">
+      <c r="P23" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R23" s="7">
         <v>490</v>
       </c>
-      <c r="R23" s="21">
+      <c r="S23" s="21">
         <v>696</v>
       </c>
-      <c r="S23" s="21">
+      <c r="T23" s="21">
         <v>245</v>
       </c>
-      <c r="T23" s="21">
-        <v>1431</v>
+      <c r="U23" s="21">
+        <v>878</v>
+      </c>
+      <c r="V23" s="21">
+        <v>2309</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>180</v>
       </c>
@@ -3421,23 +3562,29 @@
       <c r="O24" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P24" s="17" t="s">
+      <c r="P24" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R24" s="4">
         <v>446</v>
-      </c>
-      <c r="R24" s="18">
-        <v>0</v>
       </c>
       <c r="S24" s="18">
         <v>0</v>
       </c>
       <c r="T24" s="18">
+        <v>0</v>
+      </c>
+      <c r="U24" s="18">
+        <v>0</v>
+      </c>
+      <c r="V24" s="18">
         <v>446</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>187</v>
       </c>
@@ -3483,23 +3630,29 @@
       <c r="O25" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="P25" s="20" t="s">
+      <c r="P25" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="R25" s="7">
         <v>543</v>
-      </c>
-      <c r="R25" s="21">
-        <v>0</v>
       </c>
       <c r="S25" s="21">
         <v>0</v>
       </c>
       <c r="T25" s="21">
+        <v>0</v>
+      </c>
+      <c r="U25" s="21">
+        <v>0</v>
+      </c>
+      <c r="V25" s="21">
         <v>543</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>192</v>
       </c>
@@ -3545,23 +3698,29 @@
       <c r="O26" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P26" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q26" s="4">
+      <c r="P26" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R26" s="4">
         <v>1145</v>
       </c>
-      <c r="R26" s="18">
+      <c r="S26" s="18">
         <v>1820</v>
       </c>
-      <c r="S26" s="18">
+      <c r="T26" s="18">
         <v>1340</v>
       </c>
-      <c r="T26" s="18">
-        <v>4305</v>
+      <c r="U26" s="18">
+        <v>875</v>
+      </c>
+      <c r="V26" s="18">
+        <v>5180</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
         <v>198</v>
       </c>
@@ -3607,23 +3766,29 @@
       <c r="O27" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P27" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q27" s="7">
+      <c r="P27" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R27" s="7">
         <v>607</v>
       </c>
-      <c r="R27" s="21">
+      <c r="S27" s="21">
         <v>808</v>
       </c>
-      <c r="S27" s="21">
+      <c r="T27" s="21">
         <v>778</v>
       </c>
-      <c r="T27" s="21">
-        <v>2193</v>
+      <c r="U27" s="21">
+        <v>509</v>
+      </c>
+      <c r="V27" s="21">
+        <v>2702</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>204</v>
       </c>
@@ -3669,23 +3834,29 @@
       <c r="O28" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P28" s="17" t="s">
+      <c r="P28" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R28" s="4">
         <v>555</v>
       </c>
-      <c r="R28" s="18">
+      <c r="S28" s="18">
         <v>445</v>
       </c>
-      <c r="S28" s="18">
+      <c r="T28" s="18">
         <v>0</v>
       </c>
-      <c r="T28" s="18">
-        <v>1000</v>
+      <c r="U28" s="18">
+        <v>50</v>
+      </c>
+      <c r="V28" s="18">
+        <v>1050</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
         <v>210</v>
       </c>
@@ -3731,13 +3902,13 @@
       <c r="O29" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="P29" s="20" t="s">
+      <c r="P29" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="Q29" s="7">
-        <v>0</v>
-      </c>
-      <c r="R29" s="21">
+      <c r="Q29" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="R29" s="7">
         <v>0</v>
       </c>
       <c r="S29" s="21">
@@ -3746,8 +3917,14 @@
       <c r="T29" s="21">
         <v>0</v>
       </c>
+      <c r="U29" s="21">
+        <v>0</v>
+      </c>
+      <c r="V29" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>217</v>
       </c>
@@ -3793,13 +3970,13 @@
       <c r="O30" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P30" s="17" t="s">
+      <c r="P30" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
-      <c r="R30" s="18">
+      <c r="Q30" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R30" s="4">
         <v>0</v>
       </c>
       <c r="S30" s="18">
@@ -3808,8 +3985,14 @@
       <c r="T30" s="18">
         <v>0</v>
       </c>
+      <c r="U30" s="18">
+        <v>0</v>
+      </c>
+      <c r="V30" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
         <v>223</v>
       </c>
@@ -3855,23 +4038,29 @@
       <c r="O31" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P31" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q31" s="7">
+      <c r="P31" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R31" s="7">
         <v>514</v>
       </c>
-      <c r="R31" s="21">
+      <c r="S31" s="21">
         <v>1382</v>
       </c>
-      <c r="S31" s="21">
+      <c r="T31" s="21">
         <v>1343</v>
       </c>
-      <c r="T31" s="21">
-        <v>3239</v>
+      <c r="U31" s="21">
+        <v>2288</v>
+      </c>
+      <c r="V31" s="21">
+        <v>5527</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>229</v>
       </c>
@@ -3917,23 +4106,29 @@
       <c r="O32" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P32" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q32" s="4">
+      <c r="P32" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R32" s="4">
         <v>2234</v>
       </c>
-      <c r="R32" s="18">
+      <c r="S32" s="18">
         <v>3447</v>
       </c>
-      <c r="S32" s="18">
+      <c r="T32" s="18">
         <v>1127</v>
       </c>
-      <c r="T32" s="18">
-        <v>6808</v>
+      <c r="U32" s="18">
+        <v>751</v>
+      </c>
+      <c r="V32" s="18">
+        <v>7559</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>237</v>
       </c>
@@ -3979,23 +4174,29 @@
       <c r="O33" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="P33" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q33" s="7">
+      <c r="P33" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R33" s="7">
         <v>407</v>
       </c>
-      <c r="R33" s="21">
+      <c r="S33" s="21">
         <v>0</v>
       </c>
-      <c r="S33" s="21">
+      <c r="T33" s="21">
         <v>761</v>
       </c>
-      <c r="T33" s="21">
-        <v>1168</v>
+      <c r="U33" s="21">
+        <v>906</v>
+      </c>
+      <c r="V33" s="21">
+        <v>2074</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>243</v>
       </c>
@@ -4041,23 +4242,29 @@
       <c r="O34" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P34" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q34" s="4">
+      <c r="P34" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R34" s="4">
         <v>462</v>
       </c>
-      <c r="R34" s="18">
+      <c r="S34" s="18">
         <v>978</v>
       </c>
-      <c r="S34" s="18">
+      <c r="T34" s="18">
         <v>1281</v>
       </c>
-      <c r="T34" s="18">
-        <v>2721</v>
+      <c r="U34" s="18">
+        <v>1425</v>
+      </c>
+      <c r="V34" s="18">
+        <v>4146</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
         <v>250</v>
       </c>
@@ -4103,23 +4310,29 @@
       <c r="O35" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P35" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q35" s="7">
+      <c r="P35" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="R35" s="7">
         <v>658</v>
       </c>
-      <c r="R35" s="21">
+      <c r="S35" s="21">
         <v>709</v>
       </c>
-      <c r="S35" s="21">
+      <c r="T35" s="21">
         <v>818</v>
       </c>
-      <c r="T35" s="21">
+      <c r="U35" s="21">
+        <v>0</v>
+      </c>
+      <c r="V35" s="21">
         <v>2185</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
         <v>256</v>
       </c>
@@ -4165,23 +4378,29 @@
       <c r="O36" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P36" s="17" t="s">
+      <c r="P36" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R36" s="4">
         <v>1350</v>
-      </c>
-      <c r="R36" s="18">
-        <v>0</v>
       </c>
       <c r="S36" s="18">
         <v>0</v>
       </c>
       <c r="T36" s="18">
+        <v>0</v>
+      </c>
+      <c r="U36" s="18">
+        <v>0</v>
+      </c>
+      <c r="V36" s="18">
         <v>1350</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>263</v>
       </c>
@@ -4227,23 +4446,29 @@
       <c r="O37" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P37" s="20" t="s">
+      <c r="P37" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="Q37" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="R37" s="7">
         <v>2381</v>
       </c>
-      <c r="R37" s="21">
+      <c r="S37" s="21">
         <v>1268</v>
       </c>
-      <c r="S37" s="21">
+      <c r="T37" s="21">
         <v>0</v>
       </c>
-      <c r="T37" s="21">
+      <c r="U37" s="21">
+        <v>0</v>
+      </c>
+      <c r="V37" s="21">
         <v>3649</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>270</v>
       </c>
@@ -4289,23 +4514,29 @@
       <c r="O38" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P38" s="17" t="s">
+      <c r="P38" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R38" s="4">
         <v>1293</v>
-      </c>
-      <c r="R38" s="18">
-        <v>0</v>
       </c>
       <c r="S38" s="18">
         <v>0</v>
       </c>
       <c r="T38" s="18">
+        <v>0</v>
+      </c>
+      <c r="U38" s="18">
+        <v>0</v>
+      </c>
+      <c r="V38" s="18">
         <v>1293</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
         <v>276</v>
       </c>
@@ -4351,23 +4582,29 @@
       <c r="O39" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P39" s="20" t="s">
+      <c r="P39" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q39" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R39" s="7">
         <v>590</v>
       </c>
-      <c r="R39" s="21">
+      <c r="S39" s="21">
         <v>4626</v>
       </c>
-      <c r="S39" s="21">
+      <c r="T39" s="21">
         <v>0</v>
       </c>
-      <c r="T39" s="21">
-        <v>5216</v>
+      <c r="U39" s="21">
+        <v>1920</v>
+      </c>
+      <c r="V39" s="21">
+        <v>7136</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>282</v>
       </c>
@@ -4413,23 +4650,29 @@
       <c r="O40" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P40" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q40" s="4">
+      <c r="P40" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R40" s="4">
         <v>2176</v>
       </c>
-      <c r="R40" s="18">
+      <c r="S40" s="18">
         <v>3627</v>
       </c>
-      <c r="S40" s="18">
+      <c r="T40" s="18">
         <v>1653</v>
       </c>
-      <c r="T40" s="18">
-        <v>7456</v>
+      <c r="U40" s="18">
+        <v>1954</v>
+      </c>
+      <c r="V40" s="18">
+        <v>9410</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
         <v>289</v>
       </c>
@@ -4475,23 +4718,29 @@
       <c r="O41" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P41" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q41" s="7">
+      <c r="P41" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R41" s="7">
         <v>524</v>
       </c>
-      <c r="R41" s="21">
+      <c r="S41" s="21">
         <v>1259</v>
       </c>
-      <c r="S41" s="21">
+      <c r="T41" s="21">
         <v>1212</v>
       </c>
-      <c r="T41" s="21">
-        <v>2995</v>
+      <c r="U41" s="21">
+        <v>860</v>
+      </c>
+      <c r="V41" s="21">
+        <v>3855</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>295</v>
       </c>
@@ -4535,23 +4784,29 @@
       <c r="O42" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P42" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q42" s="4">
+      <c r="P42" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R42" s="4">
         <v>2080</v>
       </c>
-      <c r="R42" s="18">
+      <c r="S42" s="18">
         <v>1638</v>
       </c>
-      <c r="S42" s="18">
+      <c r="T42" s="18">
         <v>779</v>
       </c>
-      <c r="T42" s="18">
-        <v>4497</v>
+      <c r="U42" s="18">
+        <v>407</v>
+      </c>
+      <c r="V42" s="18">
+        <v>4904</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
         <v>300</v>
       </c>
@@ -4597,23 +4852,29 @@
       <c r="O43" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P43" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q43" s="7">
+      <c r="P43" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R43" s="7">
         <v>1716</v>
       </c>
-      <c r="R43" s="21">
+      <c r="S43" s="21">
         <v>2216</v>
       </c>
-      <c r="S43" s="21">
+      <c r="T43" s="21">
         <v>842</v>
       </c>
-      <c r="T43" s="21">
-        <v>4774</v>
+      <c r="U43" s="21">
+        <v>2878</v>
+      </c>
+      <c r="V43" s="21">
+        <v>7652</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>306</v>
       </c>
@@ -4662,10 +4923,10 @@
       <c r="P44" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="Q44" s="4">
-        <v>0</v>
-      </c>
-      <c r="R44" s="18">
+      <c r="Q44" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R44" s="4">
         <v>0</v>
       </c>
       <c r="S44" s="18">
@@ -4674,8 +4935,14 @@
       <c r="T44" s="18">
         <v>0</v>
       </c>
+      <c r="U44" s="18">
+        <v>0</v>
+      </c>
+      <c r="V44" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="19" t="s">
         <v>312</v>
       </c>
@@ -4721,23 +4988,29 @@
       <c r="O45" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="P45" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q45" s="7">
+      <c r="P45" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R45" s="7">
         <v>787</v>
       </c>
-      <c r="R45" s="21">
+      <c r="S45" s="21">
         <v>0</v>
       </c>
-      <c r="S45" s="21">
+      <c r="T45" s="21">
         <v>815</v>
       </c>
-      <c r="T45" s="21">
-        <v>1602</v>
+      <c r="U45" s="21">
+        <v>1195</v>
+      </c>
+      <c r="V45" s="21">
+        <v>2797</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
         <v>319</v>
       </c>
@@ -4783,23 +5056,29 @@
       <c r="O46" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P46" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q46" s="4">
+      <c r="P46" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R46" s="4">
         <v>268</v>
       </c>
-      <c r="R46" s="18">
+      <c r="S46" s="18">
         <v>507</v>
       </c>
-      <c r="S46" s="18">
+      <c r="T46" s="18">
         <v>603</v>
       </c>
-      <c r="T46" s="18">
-        <v>1378</v>
+      <c r="U46" s="18">
+        <v>1471</v>
+      </c>
+      <c r="V46" s="18">
+        <v>2849</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
         <v>326</v>
       </c>
@@ -4845,23 +5124,29 @@
       <c r="O47" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P47" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q47" s="7">
+      <c r="P47" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="R47" s="7">
         <v>633</v>
       </c>
-      <c r="R47" s="21">
+      <c r="S47" s="21">
         <v>4260</v>
       </c>
-      <c r="S47" s="21">
+      <c r="T47" s="21">
         <v>552</v>
       </c>
-      <c r="T47" s="21">
+      <c r="U47" s="21">
+        <v>0</v>
+      </c>
+      <c r="V47" s="21">
         <v>5445</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>332</v>
       </c>
@@ -4907,23 +5192,29 @@
       <c r="O48" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P48" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q48" s="4">
+      <c r="P48" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R48" s="4">
         <v>1755</v>
       </c>
-      <c r="R48" s="18">
+      <c r="S48" s="18">
         <v>3189</v>
       </c>
-      <c r="S48" s="18">
+      <c r="T48" s="18">
         <v>3735</v>
       </c>
-      <c r="T48" s="18">
-        <v>8679</v>
+      <c r="U48" s="18">
+        <v>3492</v>
+      </c>
+      <c r="V48" s="18">
+        <v>12171</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
         <v>339</v>
       </c>
@@ -4969,23 +5260,29 @@
       <c r="O49" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P49" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q49" s="7">
+      <c r="P49" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R49" s="7">
         <v>424</v>
       </c>
-      <c r="R49" s="21">
+      <c r="S49" s="21">
         <v>3217</v>
       </c>
-      <c r="S49" s="21">
+      <c r="T49" s="21">
         <v>253</v>
       </c>
-      <c r="T49" s="21">
-        <v>3894</v>
+      <c r="U49" s="21">
+        <v>1292</v>
+      </c>
+      <c r="V49" s="21">
+        <v>5186</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>346</v>
       </c>
@@ -5031,23 +5328,29 @@
       <c r="O50" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P50" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q50" s="4">
+      <c r="P50" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R50" s="4">
         <v>522</v>
       </c>
-      <c r="R50" s="18">
+      <c r="S50" s="18">
         <v>2749</v>
       </c>
-      <c r="S50" s="18">
+      <c r="T50" s="18">
         <v>754</v>
       </c>
-      <c r="T50" s="18">
-        <v>4025</v>
+      <c r="U50" s="18">
+        <v>1094</v>
+      </c>
+      <c r="V50" s="18">
+        <v>5119</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="19" t="s">
         <v>352</v>
       </c>
@@ -5093,23 +5396,29 @@
       <c r="O51" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P51" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q51" s="7">
+      <c r="P51" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="R51" s="7">
         <v>1408</v>
       </c>
-      <c r="R51" s="21">
+      <c r="S51" s="21">
         <v>1052</v>
       </c>
-      <c r="S51" s="21">
+      <c r="T51" s="21">
         <v>906</v>
       </c>
-      <c r="T51" s="21">
-        <v>3366</v>
+      <c r="U51" s="21">
+        <v>815</v>
+      </c>
+      <c r="V51" s="21">
+        <v>4181</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>359</v>
       </c>
@@ -5155,23 +5464,29 @@
       <c r="O52" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P52" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q52" s="4">
+      <c r="P52" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R52" s="4">
         <v>662</v>
       </c>
-      <c r="R52" s="18">
+      <c r="S52" s="18">
         <v>643</v>
       </c>
-      <c r="S52" s="18">
+      <c r="T52" s="18">
         <v>373</v>
       </c>
-      <c r="T52" s="18">
-        <v>1678</v>
+      <c r="U52" s="18">
+        <v>660</v>
+      </c>
+      <c r="V52" s="18">
+        <v>2338</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
         <v>366</v>
       </c>
@@ -5217,22 +5532,30 @@
       <c r="O53" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P53" s="20" t="s">
+      <c r="P53" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="Q53" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="R53" s="7">
         <v>684</v>
       </c>
-      <c r="R53" s="21">
+      <c r="S53" s="21">
         <v>1573</v>
       </c>
-      <c r="S53" s="22"/>
       <c r="T53" s="21">
+        <v>0</v>
+      </c>
+      <c r="U53" s="21">
+        <v>0</v>
+      </c>
+      <c r="V53" s="21">
         <v>2257</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="23" t="s">
+    <row r="54" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="22" t="s">
         <v>373</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -5254,135 +5577,142 @@
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="25" t="s">
+      <c r="M54" s="23"/>
+      <c r="N54" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="O54" s="25" t="s">
+      <c r="O54" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="P54" s="30" t="s">
+      <c r="P54" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="Q54" s="26">
+      <c r="Q54" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="R54" s="25">
         <v>0</v>
       </c>
-      <c r="R54" s="27">
+      <c r="S54" s="26">
         <v>0</v>
       </c>
-      <c r="S54" s="28">
+      <c r="T54" s="27">
         <v>0</v>
       </c>
-      <c r="T54" s="28">
+      <c r="U54" s="27">
+        <v>0</v>
+      </c>
+      <c r="V54" s="27">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V1" xr:uid="{F3C2AB94-8371-415B-B15C-673BF998D579}"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{BF4871D9-1E6A-4FAB-86AC-B1CA162C2E6F}"/>
-    <hyperlink ref="L2" r:id="rId2" xr:uid="{C693EA93-9F21-4ACE-8C74-C46F8B922D59}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{2599B7BE-C480-4166-83E1-8E8473E6C97E}"/>
-    <hyperlink ref="L3" r:id="rId4" xr:uid="{E485AC19-3BD8-4843-9F31-4AB755F96004}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{39314B55-4F5C-4126-9794-19DB324F0A2F}"/>
-    <hyperlink ref="L4" r:id="rId6" xr:uid="{EF0EE722-D4A0-4575-9243-61E64C2564A6}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{54E80522-7BD2-4AFD-B34D-748F9946DEE3}"/>
-    <hyperlink ref="L5" r:id="rId8" xr:uid="{BA6ED292-98EF-4782-A5B4-96C5E748DD75}"/>
-    <hyperlink ref="F6" r:id="rId9" xr:uid="{0E903748-842D-4E69-903B-0E9F7D1124BC}"/>
-    <hyperlink ref="L6" r:id="rId10" xr:uid="{6A9E5D54-A0BD-43E6-ADCD-9F5E0CDFF719}"/>
-    <hyperlink ref="F7" r:id="rId11" xr:uid="{0C04BAE9-4D85-4C9A-9CE9-C1EFBAE04A54}"/>
-    <hyperlink ref="L7" r:id="rId12" xr:uid="{11525ED1-4362-4E6A-8DED-F2E49F84DC39}"/>
-    <hyperlink ref="F8" r:id="rId13" xr:uid="{C2587CFA-A1DA-47BF-9FCF-9DC94AD8EF97}"/>
-    <hyperlink ref="L8" r:id="rId14" xr:uid="{0C4A514D-4E5C-4CFA-B3EB-12E4F53AD1DD}"/>
-    <hyperlink ref="F9" r:id="rId15" xr:uid="{A43558CA-55B2-4E53-AE7A-B77EEE86CC17}"/>
-    <hyperlink ref="L9" r:id="rId16" xr:uid="{BDD79251-CFB0-45B1-AE4F-3E8F41A47981}"/>
-    <hyperlink ref="F10" r:id="rId17" xr:uid="{C64D93EE-1B1A-4DA4-A1F3-D0985ACB7EC5}"/>
-    <hyperlink ref="L10" r:id="rId18" xr:uid="{99FC9A37-6115-46DE-A9A1-6A20326DBC3B}"/>
-    <hyperlink ref="F11" r:id="rId19" xr:uid="{50060AE3-3933-4595-B484-2A8219965D3F}"/>
-    <hyperlink ref="L11" r:id="rId20" xr:uid="{7EAA4FF2-BBE0-4073-8506-3B9ACC06D495}"/>
-    <hyperlink ref="F12" r:id="rId21" xr:uid="{4CB7CA0E-9CA0-402C-9657-27B218D63D45}"/>
-    <hyperlink ref="L12" r:id="rId22" xr:uid="{FC4F21B6-0DCF-4944-9AF8-39741E5C7C42}"/>
-    <hyperlink ref="F13" r:id="rId23" xr:uid="{D85FAC32-1BCD-40F7-A2CA-6B8E06C850DA}"/>
-    <hyperlink ref="L13" r:id="rId24" xr:uid="{88A981B4-CCF4-48C6-89F1-76F25009ED0A}"/>
-    <hyperlink ref="F14" r:id="rId25" xr:uid="{FFB2AB9E-271F-4E68-AC78-DB795A2108B5}"/>
-    <hyperlink ref="L14" r:id="rId26" xr:uid="{4D7EDD75-DC42-48B1-94CB-7924CB2A7CAE}"/>
-    <hyperlink ref="F15" r:id="rId27" xr:uid="{4DCB5AD4-4DBC-4C8B-82FD-A6B88673905F}"/>
-    <hyperlink ref="L15" r:id="rId28" xr:uid="{8426D3A1-7C0E-4DA6-82B3-42BA30D28CA1}"/>
-    <hyperlink ref="F16" r:id="rId29" xr:uid="{53CBAB83-A060-4897-A50A-75A6F90EFE9E}"/>
-    <hyperlink ref="L16" r:id="rId30" xr:uid="{EE3FAC74-04D0-4929-9FF9-B02266135527}"/>
-    <hyperlink ref="F17" r:id="rId31" xr:uid="{37E84704-02AC-4FC5-BEA8-20F7F067F293}"/>
-    <hyperlink ref="L17" r:id="rId32" xr:uid="{315EA7B0-1A62-48CB-8004-553F68A6825C}"/>
-    <hyperlink ref="F18" r:id="rId33" xr:uid="{4D31920F-4FFC-46FB-B311-702082CF266B}"/>
-    <hyperlink ref="L18" r:id="rId34" xr:uid="{832D894F-E975-4467-9F69-0D5C519CB8D7}"/>
-    <hyperlink ref="F19" r:id="rId35" xr:uid="{18E5557E-EB0A-42E7-824A-E63226208560}"/>
-    <hyperlink ref="L19" r:id="rId36" xr:uid="{D2914809-5099-46AA-9E8C-FA8517915020}"/>
-    <hyperlink ref="F20" r:id="rId37" xr:uid="{7A195B2D-D958-40C4-B50F-A1D1362E4C5C}"/>
-    <hyperlink ref="L20" r:id="rId38" xr:uid="{56000586-2E17-4688-ADA1-8B4C99693C03}"/>
-    <hyperlink ref="F21" r:id="rId39" xr:uid="{187CCA8F-56A0-443D-A257-2369B6E6FBEC}"/>
-    <hyperlink ref="L21" r:id="rId40" xr:uid="{5F3CC269-CFDB-41D2-A2F5-9575306E5C5F}"/>
-    <hyperlink ref="F22" r:id="rId41" xr:uid="{89B63224-36BA-4386-98CA-53BD6DEA785C}"/>
-    <hyperlink ref="L22" r:id="rId42" xr:uid="{070B3B55-B6DA-4D7D-96A1-0B38655B7EE5}"/>
-    <hyperlink ref="F23" r:id="rId43" xr:uid="{542656C7-0D07-48CB-BE60-C337D6B82BDE}"/>
-    <hyperlink ref="L23" r:id="rId44" xr:uid="{20DAC5B6-6C72-4C02-BBB5-39AB54DFE4FB}"/>
-    <hyperlink ref="F24" r:id="rId45" xr:uid="{F5B2BA3B-331A-480C-B1DC-D99A87AC3982}"/>
-    <hyperlink ref="L24" r:id="rId46" xr:uid="{D4802E10-61EC-4AEA-A21F-D48ACEE2AF4C}"/>
-    <hyperlink ref="F25" r:id="rId47" xr:uid="{F7AEB93C-57A8-4BEC-9309-9CCF86AEFD74}"/>
-    <hyperlink ref="L25" r:id="rId48" xr:uid="{569C8B00-05E5-4885-BC8C-23003D7FD7D1}"/>
-    <hyperlink ref="F26" r:id="rId49" xr:uid="{305146D1-D16B-423A-B9AE-64B61DB70208}"/>
-    <hyperlink ref="L26" r:id="rId50" xr:uid="{19BC3173-B2D0-44BF-96FD-D44F5780BE53}"/>
-    <hyperlink ref="F27" r:id="rId51" display="https://drive.google.com/file/d/1buDrBqk4rHcGLbKKMJHOEOM9AOosdrVF/view?usp=drive_link" xr:uid="{F2B92217-933B-40C6-9E0D-CDC57C3ABD25}"/>
-    <hyperlink ref="L27" r:id="rId52" xr:uid="{03D06138-3500-4731-882A-C37EC9194DB1}"/>
-    <hyperlink ref="F28" r:id="rId53" xr:uid="{09D61F21-63CF-4923-97B9-D6D685FCF725}"/>
-    <hyperlink ref="L28" r:id="rId54" xr:uid="{481922EA-C663-4FC4-B85B-1DF4F52A8D4D}"/>
-    <hyperlink ref="F29" r:id="rId55" xr:uid="{A447EEF4-C6FB-41A1-AC77-F823A2012E94}"/>
-    <hyperlink ref="L29" r:id="rId56" xr:uid="{B54BF329-7307-408A-9A08-09528434830A}"/>
-    <hyperlink ref="F30" r:id="rId57" xr:uid="{92D1FF1B-AAEF-4A86-95D3-E9EB523624AA}"/>
-    <hyperlink ref="L30" r:id="rId58" xr:uid="{516642FA-6318-4C35-B053-26827143CB59}"/>
-    <hyperlink ref="F31" r:id="rId59" xr:uid="{48E5B769-368A-4029-8C55-BB9E27DC42F4}"/>
-    <hyperlink ref="L31" r:id="rId60" xr:uid="{BE2A4988-4D0B-4EB4-BE11-17B0BD49DC8B}"/>
-    <hyperlink ref="F32" r:id="rId61" xr:uid="{A8B5CF5F-C59F-4A08-BE3E-0871678C66C9}"/>
-    <hyperlink ref="L32" r:id="rId62" xr:uid="{DE74A513-1010-487D-A1E5-C8B7528F48CB}"/>
-    <hyperlink ref="F33" r:id="rId63" xr:uid="{412368C3-1B36-401D-9645-A54DE65175EF}"/>
-    <hyperlink ref="L33" r:id="rId64" xr:uid="{6803A765-70D4-47D9-832E-061B4499C344}"/>
-    <hyperlink ref="F34" r:id="rId65" xr:uid="{5638778F-C664-43F9-A972-775A068EF781}"/>
-    <hyperlink ref="L34" r:id="rId66" xr:uid="{9328E37F-D22E-437B-8FC5-044D5624D77C}"/>
-    <hyperlink ref="F35" r:id="rId67" xr:uid="{67C6EDDE-DE10-4D5B-944C-5ED3E8EB1BA7}"/>
-    <hyperlink ref="L35" r:id="rId68" xr:uid="{985547D5-B505-4788-99A4-0154360F1A31}"/>
-    <hyperlink ref="F36" r:id="rId69" xr:uid="{1380A29E-FD2E-4CF5-9D4F-4AA31EEF3684}"/>
-    <hyperlink ref="L36" r:id="rId70" xr:uid="{2932EF15-ECB4-4970-A552-E41FDE73C11E}"/>
-    <hyperlink ref="F37" r:id="rId71" xr:uid="{DAC946FD-380B-47C2-8D73-216A770C0EEC}"/>
-    <hyperlink ref="L37" r:id="rId72" xr:uid="{444BDA33-DDBC-4270-9B2C-7333164ACC6F}"/>
-    <hyperlink ref="F38" r:id="rId73" xr:uid="{2199F9EC-6BE6-49EE-AB4A-5676605608ED}"/>
-    <hyperlink ref="L38" r:id="rId74" xr:uid="{0D6457B5-13A9-4B96-8725-EA526DC4CB5C}"/>
-    <hyperlink ref="F39" r:id="rId75" xr:uid="{1332CDD2-1C0B-4306-8363-658AC68E6398}"/>
-    <hyperlink ref="L39" r:id="rId76" xr:uid="{F05266ED-1994-4BE7-8222-6CAE1E20BA06}"/>
-    <hyperlink ref="F40" r:id="rId77" xr:uid="{5D7A7365-A8C5-49B3-9DF7-87FFEF7C2676}"/>
-    <hyperlink ref="L40" r:id="rId78" xr:uid="{96BC6402-59A6-4C40-9CA3-A7A93C8CDB0F}"/>
-    <hyperlink ref="F41" r:id="rId79" xr:uid="{A4D84D0C-311B-404B-B507-A9EF1D163EC7}"/>
-    <hyperlink ref="L41" r:id="rId80" xr:uid="{18F191BF-3EBD-447F-B12E-FB2E4F7716E7}"/>
-    <hyperlink ref="F42" r:id="rId81" xr:uid="{DB2CAA61-1D01-4EC3-8AFE-98D2A969DD40}"/>
-    <hyperlink ref="F43" r:id="rId82" xr:uid="{0FDEDDE5-3261-4C50-831C-6060A20FC48E}"/>
-    <hyperlink ref="L43" r:id="rId83" xr:uid="{EF0F958D-5A76-47A8-961C-26C91241A9F2}"/>
-    <hyperlink ref="F44" r:id="rId84" xr:uid="{2C6DD999-A8A8-42F1-A019-66AD6DC2175A}"/>
-    <hyperlink ref="L44" r:id="rId85" xr:uid="{55B780D0-7CB5-4062-9465-96E5CC3FD8E4}"/>
-    <hyperlink ref="F45" r:id="rId86" xr:uid="{7729B01B-5051-44C4-A9C8-70ACA5895AB9}"/>
-    <hyperlink ref="L45" r:id="rId87" xr:uid="{6D438157-69A3-4709-9BC6-8AC753B6558E}"/>
-    <hyperlink ref="F46" r:id="rId88" xr:uid="{83A0E19D-82F9-460E-8BCD-2C748D341B76}"/>
-    <hyperlink ref="L46" r:id="rId89" xr:uid="{5997857A-B084-470A-B7E8-3D1A3AEF0CEC}"/>
-    <hyperlink ref="F47" r:id="rId90" xr:uid="{AA21AF18-8995-4412-9DF0-0FC0B5459AA2}"/>
-    <hyperlink ref="L47" r:id="rId91" xr:uid="{51326B38-3A8B-44AC-A4A6-2CD88D23216F}"/>
-    <hyperlink ref="F48" r:id="rId92" xr:uid="{40C22073-A136-48B7-823D-D09A6D9A23D0}"/>
-    <hyperlink ref="L48" r:id="rId93" xr:uid="{783F25CC-FD28-4A2E-980B-77C1390D4064}"/>
-    <hyperlink ref="F49" r:id="rId94" xr:uid="{6F6BBF82-A1AA-4435-8C68-F2C94DBCC111}"/>
-    <hyperlink ref="L49" r:id="rId95" xr:uid="{84E89D86-034E-461E-8B2F-14A093498B6C}"/>
-    <hyperlink ref="F50" r:id="rId96" xr:uid="{B5A344BD-0991-4875-A8D1-1EF04C12A72A}"/>
-    <hyperlink ref="L50" r:id="rId97" xr:uid="{1325BE3D-68F1-4BFC-81E5-373DE57F1F16}"/>
-    <hyperlink ref="F51" r:id="rId98" xr:uid="{E2543043-AC62-4DCC-B2CE-83638B534A2A}"/>
-    <hyperlink ref="L51" r:id="rId99" xr:uid="{415A8DBF-67FE-4864-A8EF-EDC02192D9A5}"/>
-    <hyperlink ref="F52" r:id="rId100" xr:uid="{0F8A4830-596A-4547-BA5F-4B5570D631EC}"/>
-    <hyperlink ref="L52" r:id="rId101" xr:uid="{CEF0DFB0-AA13-4BFB-9C4C-0BDC8E75FAF4}"/>
-    <hyperlink ref="F53" r:id="rId102" xr:uid="{1D5FE741-48CD-4D14-9AA6-105873DB8366}"/>
-    <hyperlink ref="L53" r:id="rId103" xr:uid="{E8DF7D37-2642-4DBF-A8DA-FF792B416D9F}"/>
-    <hyperlink ref="F54" r:id="rId104" xr:uid="{E27549AE-23DF-4C8B-AE77-FC403C244CA2}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{5D4BD371-0C04-4903-984D-69A8087EB808}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{6AEED221-F6B2-4975-A2A6-9D173CBC1E9E}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{4C17DA2F-DEFE-44E1-835C-A7DDCD99DCD4}"/>
+    <hyperlink ref="L3" r:id="rId4" xr:uid="{40EBD183-A30D-4D34-8114-BE913B8E5BD7}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{8C5112C6-F846-4BE2-AA0A-B0FB0D856FB6}"/>
+    <hyperlink ref="L4" r:id="rId6" xr:uid="{F7FF61B6-7132-4FB2-A47A-5A01B5ECACCD}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{4DCFEFFA-EF93-41D0-B983-19979FD08D7B}"/>
+    <hyperlink ref="L5" r:id="rId8" xr:uid="{3DA6E193-29AB-4C34-8A58-21E3182E0F4C}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{99B9F00C-F5DD-4EF9-9D9B-776523B2504A}"/>
+    <hyperlink ref="L6" r:id="rId10" xr:uid="{E517D69D-BDE6-4F8F-A5FA-BFD20B9E45D3}"/>
+    <hyperlink ref="F7" r:id="rId11" xr:uid="{E2405877-997A-49EC-88B8-E57FB14B9225}"/>
+    <hyperlink ref="L7" r:id="rId12" xr:uid="{CBF45866-DAD9-42F8-A5C3-C813DE4E86E5}"/>
+    <hyperlink ref="F8" r:id="rId13" xr:uid="{01F6680B-3C86-4A94-9623-BF7AAAF0469A}"/>
+    <hyperlink ref="L8" r:id="rId14" xr:uid="{AA049339-38BB-40C2-8BF6-ED211B5B2DB8}"/>
+    <hyperlink ref="F9" r:id="rId15" xr:uid="{6FDDFAF9-4816-4D21-BF82-56CE888EDBEA}"/>
+    <hyperlink ref="L9" r:id="rId16" xr:uid="{CB0A7BF5-05A0-4954-977A-309CB02A5430}"/>
+    <hyperlink ref="F10" r:id="rId17" xr:uid="{C217B199-471C-4624-AF65-376986B43031}"/>
+    <hyperlink ref="L10" r:id="rId18" xr:uid="{C8FBF625-6510-4CC7-BF2A-AD2067888177}"/>
+    <hyperlink ref="F11" r:id="rId19" xr:uid="{CD960F6F-A4B6-4DDC-95E6-299EB1FBEDD6}"/>
+    <hyperlink ref="L11" r:id="rId20" xr:uid="{1E151122-A1F6-40E9-9EAE-B4C6BE66B28D}"/>
+    <hyperlink ref="F12" r:id="rId21" xr:uid="{C41B4601-2208-4EE4-9518-0A870B3FDC29}"/>
+    <hyperlink ref="L12" r:id="rId22" xr:uid="{FFDACEA2-7772-49F2-A56F-1F061DA2FD15}"/>
+    <hyperlink ref="F13" r:id="rId23" xr:uid="{F86DC7A4-CD31-4F53-B59C-0CF6CB42FD28}"/>
+    <hyperlink ref="L13" r:id="rId24" xr:uid="{5216A3D6-47EF-414B-9FFB-5BED486A8974}"/>
+    <hyperlink ref="F14" r:id="rId25" xr:uid="{191DE461-2E71-4EE4-8A77-61F23B7A13DB}"/>
+    <hyperlink ref="L14" r:id="rId26" xr:uid="{B3E62AB7-8140-4106-94AA-614AC6E47A9D}"/>
+    <hyperlink ref="F15" r:id="rId27" xr:uid="{D732047D-46C2-4667-B325-F888B84ECAB2}"/>
+    <hyperlink ref="L15" r:id="rId28" xr:uid="{4B52EB56-2A7B-4E2E-88CB-B3B0BD5FD822}"/>
+    <hyperlink ref="F16" r:id="rId29" xr:uid="{81CFBA32-C28E-4B5B-BC5E-DA57E788A55D}"/>
+    <hyperlink ref="L16" r:id="rId30" xr:uid="{CEE4C220-D8C6-41A9-9DFB-7252AE05BDFC}"/>
+    <hyperlink ref="F17" r:id="rId31" xr:uid="{A2E9E974-BA18-4975-88F1-8CA97B6B452F}"/>
+    <hyperlink ref="L17" r:id="rId32" xr:uid="{FC0CBEFB-45BD-4DC6-B4BA-E2EBDD0EAA41}"/>
+    <hyperlink ref="F18" r:id="rId33" xr:uid="{5BB4184A-AA1E-41C4-B8B2-3D20F3844533}"/>
+    <hyperlink ref="L18" r:id="rId34" xr:uid="{C5ABC83E-507C-4820-B279-A3C9CA956809}"/>
+    <hyperlink ref="F19" r:id="rId35" xr:uid="{BE980BE3-F24E-4FF8-B14D-EAB71B5B4A37}"/>
+    <hyperlink ref="L19" r:id="rId36" xr:uid="{0E9AE9C5-B283-48C9-B84E-420284647ABC}"/>
+    <hyperlink ref="F20" r:id="rId37" xr:uid="{49D4E96B-A68E-4AE9-A29A-2B4ED4DC251D}"/>
+    <hyperlink ref="L20" r:id="rId38" xr:uid="{4B64DD23-246D-4E7F-9A95-94CBFBEE55EC}"/>
+    <hyperlink ref="F21" r:id="rId39" xr:uid="{5E218E4B-1C14-4D23-9252-CAF7AA68D174}"/>
+    <hyperlink ref="L21" r:id="rId40" xr:uid="{3AD41F2D-057A-44B5-80C7-F98658A317C7}"/>
+    <hyperlink ref="F22" r:id="rId41" xr:uid="{3AA25E30-38EF-4A8E-8B7A-73975A0DEACD}"/>
+    <hyperlink ref="L22" r:id="rId42" xr:uid="{6C02ECBE-5041-44DC-9030-FD8325DB5C98}"/>
+    <hyperlink ref="F23" r:id="rId43" xr:uid="{313EDD0F-ECD4-4105-93C6-EA8BCE7177A5}"/>
+    <hyperlink ref="L23" r:id="rId44" xr:uid="{F97D8B3B-58CE-4496-AE10-D2C6306F24F3}"/>
+    <hyperlink ref="F24" r:id="rId45" xr:uid="{032F873D-8B7C-4FF8-BDEB-AE0B18EBC427}"/>
+    <hyperlink ref="L24" r:id="rId46" xr:uid="{FB18B3DA-B7AF-49F0-AB66-2D2D78A0C91E}"/>
+    <hyperlink ref="F25" r:id="rId47" xr:uid="{1EDDBEC8-11D9-426B-9664-C5C3F8F1DE78}"/>
+    <hyperlink ref="L25" r:id="rId48" xr:uid="{100F1440-A606-418E-BF4C-B9AE80E8421D}"/>
+    <hyperlink ref="F26" r:id="rId49" xr:uid="{9980C3E9-500F-41B8-8519-975067706355}"/>
+    <hyperlink ref="L26" r:id="rId50" xr:uid="{2E442EA0-1FC9-4233-8AA0-EEA2D95F746F}"/>
+    <hyperlink ref="F27" r:id="rId51" display="https://drive.google.com/file/d/1buDrBqk4rHcGLbKKMJHOEOM9AOosdrVF/view?usp=drive_link" xr:uid="{7FE962F7-6E3B-4C08-A9DB-F0C34F06456C}"/>
+    <hyperlink ref="L27" r:id="rId52" xr:uid="{A7EC9171-30A0-4F47-8C9C-2CCDFBC61D23}"/>
+    <hyperlink ref="F28" r:id="rId53" xr:uid="{BC0D5F1E-BE6F-48D9-877E-DE05D0140882}"/>
+    <hyperlink ref="L28" r:id="rId54" xr:uid="{71E4AF84-BB0A-41ED-B713-EE97EB907916}"/>
+    <hyperlink ref="F29" r:id="rId55" xr:uid="{A0BAD1B1-9622-4B46-8F54-9A385A68593A}"/>
+    <hyperlink ref="L29" r:id="rId56" xr:uid="{0A2855E1-79AB-4658-8194-75BBFDF3D8EA}"/>
+    <hyperlink ref="F30" r:id="rId57" xr:uid="{EBEEA235-5A7B-4EC0-8AC6-EFE7A962E407}"/>
+    <hyperlink ref="L30" r:id="rId58" xr:uid="{0BC72138-BC88-471C-9D6D-4A28B6539FB1}"/>
+    <hyperlink ref="F31" r:id="rId59" xr:uid="{C9EDDF40-7F6D-4FD2-86B1-22BCAF8B8BFE}"/>
+    <hyperlink ref="L31" r:id="rId60" xr:uid="{8AB46302-AD1E-4C71-A47E-A11D173FEE37}"/>
+    <hyperlink ref="F32" r:id="rId61" xr:uid="{3A00DED2-AA59-43B9-9DFC-EA3FEEBA742E}"/>
+    <hyperlink ref="L32" r:id="rId62" xr:uid="{5A3A2D4F-C837-4A67-AD76-0AAF1795DAD2}"/>
+    <hyperlink ref="F33" r:id="rId63" xr:uid="{813278CB-0E23-44FA-8758-6A168A54D2EF}"/>
+    <hyperlink ref="L33" r:id="rId64" xr:uid="{107FB20A-8EC3-4B22-9BD3-97D5F4DCBC1F}"/>
+    <hyperlink ref="F34" r:id="rId65" xr:uid="{A7C2ECE8-01C3-402C-914D-5BE918E6B12F}"/>
+    <hyperlink ref="L34" r:id="rId66" xr:uid="{81EBC728-4AB8-40C6-BC31-F451378010E5}"/>
+    <hyperlink ref="F35" r:id="rId67" xr:uid="{B7ED2E74-DC11-4998-9A54-67664F0AE695}"/>
+    <hyperlink ref="L35" r:id="rId68" xr:uid="{DA0A5023-7442-4F23-8FB4-D465C20DDCAD}"/>
+    <hyperlink ref="F36" r:id="rId69" xr:uid="{08773AE9-746C-406F-ACDB-5B8E8D45D867}"/>
+    <hyperlink ref="L36" r:id="rId70" xr:uid="{BA934032-59F5-42D2-AF31-4D90784F43C6}"/>
+    <hyperlink ref="F37" r:id="rId71" xr:uid="{D12D234C-62BF-4F01-A2BF-4DB8BE4ABC07}"/>
+    <hyperlink ref="L37" r:id="rId72" xr:uid="{7CC5E3EA-BA1F-4AA6-BFBE-55DE10FD4ECB}"/>
+    <hyperlink ref="F38" r:id="rId73" xr:uid="{4AE7DB25-ED98-44C1-992B-1640242B25F6}"/>
+    <hyperlink ref="L38" r:id="rId74" xr:uid="{35AEBCD9-9ACF-40BA-9F08-FF0E2A27723F}"/>
+    <hyperlink ref="F39" r:id="rId75" xr:uid="{872A5433-C723-49BC-9366-5620B64D6E58}"/>
+    <hyperlink ref="L39" r:id="rId76" xr:uid="{98228D53-7120-4C88-AEA2-077A06A06FC4}"/>
+    <hyperlink ref="F40" r:id="rId77" xr:uid="{28C815AA-BF1C-42FC-A3FD-0E97F9CF7943}"/>
+    <hyperlink ref="L40" r:id="rId78" xr:uid="{7C9F96EE-E00D-4115-A606-CC6FBCBC67C8}"/>
+    <hyperlink ref="F41" r:id="rId79" xr:uid="{3F2999C3-2916-4E26-8428-B012B542719D}"/>
+    <hyperlink ref="L41" r:id="rId80" xr:uid="{395907C9-6EBF-43BD-BF29-FAC09C474F6D}"/>
+    <hyperlink ref="F42" r:id="rId81" xr:uid="{EFCE930D-C0CC-4A0C-8A47-C46E07A3E013}"/>
+    <hyperlink ref="F43" r:id="rId82" xr:uid="{BDE08AC8-685C-447E-B2CD-F32854E74554}"/>
+    <hyperlink ref="L43" r:id="rId83" xr:uid="{D3884B3C-13F0-4458-A86E-6CD267C7341F}"/>
+    <hyperlink ref="F44" r:id="rId84" xr:uid="{B12DA1C0-A487-4D3C-B22C-8DA251380E1E}"/>
+    <hyperlink ref="L44" r:id="rId85" xr:uid="{91A14998-1A43-4790-BF8D-DF025E540C4D}"/>
+    <hyperlink ref="F45" r:id="rId86" xr:uid="{93CE1067-39CB-42BF-87B0-F13F43A07F49}"/>
+    <hyperlink ref="L45" r:id="rId87" xr:uid="{18B38B8A-244F-4232-986F-30B3961B9C57}"/>
+    <hyperlink ref="F46" r:id="rId88" xr:uid="{857DA5B2-B4F6-402E-80CC-1104DEC7CB6A}"/>
+    <hyperlink ref="L46" r:id="rId89" xr:uid="{6A942C88-53E3-47AE-B82C-1181D60E3636}"/>
+    <hyperlink ref="F47" r:id="rId90" xr:uid="{F3B78FE0-8384-415D-8363-10202840412A}"/>
+    <hyperlink ref="L47" r:id="rId91" xr:uid="{26D42EA7-5B55-40D4-AD43-B372F9EC76EB}"/>
+    <hyperlink ref="F48" r:id="rId92" xr:uid="{6E3C4B3A-3042-422B-B45A-98307A237582}"/>
+    <hyperlink ref="L48" r:id="rId93" xr:uid="{B2263E0F-948F-4EB5-A8C8-15CED116A235}"/>
+    <hyperlink ref="F49" r:id="rId94" xr:uid="{05F3033C-94C2-4C40-8226-22C1A5C21932}"/>
+    <hyperlink ref="L49" r:id="rId95" xr:uid="{A4BFDBDF-B2E8-4DE6-9736-A5560A6EFAE9}"/>
+    <hyperlink ref="F50" r:id="rId96" xr:uid="{4D5D3F74-44AD-44C2-9863-0B6D3ABB6ECE}"/>
+    <hyperlink ref="L50" r:id="rId97" xr:uid="{AED21175-E45B-4EF0-9D7D-9939C726F218}"/>
+    <hyperlink ref="F51" r:id="rId98" xr:uid="{58907F31-65EC-4D9F-98A9-473AA612F132}"/>
+    <hyperlink ref="L51" r:id="rId99" xr:uid="{C08A5FB8-E049-4DF5-9980-F039779612E2}"/>
+    <hyperlink ref="F52" r:id="rId100" xr:uid="{5132A192-C9F7-445E-B724-FF0FE47B0BA5}"/>
+    <hyperlink ref="L52" r:id="rId101" xr:uid="{FD65C244-C8B9-42F0-B5E3-AE9E79ABD636}"/>
+    <hyperlink ref="F53" r:id="rId102" xr:uid="{45397676-4323-4A95-A90B-DC8F1461260C}"/>
+    <hyperlink ref="L53" r:id="rId103" xr:uid="{3B3450C7-F9AC-4AF3-97AF-348100E67258}"/>
+    <hyperlink ref="F54" r:id="rId104" xr:uid="{115B1EFA-63B2-4C3E-ACE3-58732D3FF570}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId105"/>

--- a/alunos.xlsx
+++ b/alunos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leticia\Documents\Letícia\Repositórios\latelie_de_verao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B0123C-5453-4FD3-9446-DBD12036A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097EAF57-E41A-4C44-B7BC-294B31644F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BD735D1-F3B0-4DC0-AB17-30AB545D3AA1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="392">
   <si>
     <t xml:space="preserve">Nome completo
 </t>
@@ -1204,6 +1204,18 @@
   </si>
   <si>
     <t>Qntd. de Palavras Atv. 4</t>
+  </si>
+  <si>
+    <t>Atividade 5</t>
+  </si>
+  <si>
+    <t>Qntd. de Palavras Atv. 5</t>
+  </si>
+  <si>
+    <t>Atividade 6</t>
+  </si>
+  <si>
+    <t>Qntd. de Palavras Atv. 6</t>
   </si>
 </sst>
 </file>
@@ -1340,21 +1352,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF5B3F86"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF5B3F86"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF442F65"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -1400,21 +1397,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -1425,36 +1407,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF442F65"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1503,14 +1455,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF5B3F86"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF5B3F86"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1519,8 +1549,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1528,10 +1567,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1543,19 +1594,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1564,31 +1603,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1926,3793 +1944,4441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C2AB94-8371-415B-B15C-673BF998D579}">
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="90.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="134.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="66.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="65" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="134.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="65" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="U1" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="V1" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="W1" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="X1" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="R2" s="4">
+      <c r="O2" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="T2" s="11">
         <v>207</v>
       </c>
-      <c r="S2" s="18">
-        <v>0</v>
-      </c>
-      <c r="T2" s="18">
-        <v>0</v>
-      </c>
-      <c r="U2" s="18">
-        <v>0</v>
-      </c>
-      <c r="V2" s="18">
+      <c r="U2" s="12">
+        <v>0</v>
+      </c>
+      <c r="V2" s="12">
+        <v>0</v>
+      </c>
+      <c r="W2" s="12">
+        <v>0</v>
+      </c>
+      <c r="X2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="12">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R3" s="7">
+      <c r="O3" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T3" s="17">
         <v>645</v>
       </c>
-      <c r="S3" s="21">
+      <c r="U3" s="18">
         <v>1170</v>
       </c>
-      <c r="T3" s="21">
+      <c r="V3" s="18">
         <v>376</v>
       </c>
-      <c r="U3" s="21">
+      <c r="W3" s="18">
         <v>970</v>
       </c>
-      <c r="V3" s="21">
-        <v>3161</v>
+      <c r="X3" s="18">
+        <v>465</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>314</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>3940</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="11">
         <v>51991688961</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="R4" s="4">
+      <c r="O4" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="T4" s="11">
         <v>243</v>
       </c>
-      <c r="S4" s="18">
+      <c r="U4" s="12">
         <v>358</v>
       </c>
-      <c r="T4" s="18">
-        <v>0</v>
-      </c>
-      <c r="U4" s="18">
-        <v>0</v>
-      </c>
-      <c r="V4" s="18">
+      <c r="V4" s="12">
+        <v>0</v>
+      </c>
+      <c r="W4" s="12">
+        <v>0</v>
+      </c>
+      <c r="X4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="12">
         <v>601</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="17">
         <v>77988219090</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R5" s="7">
+      <c r="O5" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T5" s="17">
         <v>1992</v>
       </c>
-      <c r="S5" s="21">
+      <c r="U5" s="18">
         <v>3976</v>
       </c>
-      <c r="T5" s="21">
+      <c r="V5" s="18">
         <v>2344</v>
       </c>
-      <c r="U5" s="21">
+      <c r="W5" s="18">
         <v>2995</v>
       </c>
-      <c r="V5" s="21">
-        <v>11307</v>
+      <c r="X5" s="18">
+        <v>515</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>1070</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>12892</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="11">
         <v>85986158011</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R6" s="4">
+      <c r="O6" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T6" s="11">
         <v>1870</v>
       </c>
-      <c r="S6" s="18">
+      <c r="U6" s="12">
         <v>1383</v>
       </c>
-      <c r="T6" s="18">
+      <c r="V6" s="12">
         <v>495</v>
       </c>
-      <c r="U6" s="18">
+      <c r="W6" s="12">
         <v>1317</v>
       </c>
-      <c r="V6" s="18">
-        <v>5065</v>
+      <c r="X6" s="12">
+        <v>284</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>918</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>6267</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="17">
         <v>71983116688</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="R7" s="7">
+      <c r="O7" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="T7" s="17">
         <v>514</v>
       </c>
-      <c r="S7" s="21">
+      <c r="U7" s="18">
         <v>868</v>
       </c>
-      <c r="T7" s="21">
+      <c r="V7" s="18">
         <v>86</v>
       </c>
-      <c r="U7" s="21">
-        <v>0</v>
-      </c>
-      <c r="V7" s="21">
-        <v>1468</v>
+      <c r="W7" s="18">
+        <v>0</v>
+      </c>
+      <c r="X7" s="18">
+        <v>469</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>1937</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="11">
         <v>14981363459</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R8" s="4">
+      <c r="O8" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="T8" s="11">
         <v>269</v>
       </c>
-      <c r="S8" s="18">
+      <c r="U8" s="12">
         <v>474</v>
       </c>
-      <c r="T8" s="18">
+      <c r="V8" s="12">
         <v>320</v>
       </c>
-      <c r="U8" s="18">
+      <c r="W8" s="12">
         <v>56</v>
       </c>
-      <c r="V8" s="18">
-        <v>1119</v>
+      <c r="X8" s="12">
+        <v>405</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>1524</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="17">
         <v>77981642963</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R9" s="7">
+      <c r="O9" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T9" s="17">
         <v>261</v>
       </c>
-      <c r="S9" s="21">
+      <c r="U9" s="18">
         <v>766</v>
       </c>
-      <c r="T9" s="21">
+      <c r="V9" s="18">
         <v>478</v>
       </c>
-      <c r="U9" s="21">
+      <c r="W9" s="18">
         <v>608</v>
       </c>
-      <c r="V9" s="21">
-        <v>2113</v>
+      <c r="X9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>274</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>2387</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R10" s="4">
+      <c r="O10" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T10" s="11">
         <v>355</v>
       </c>
-      <c r="S10" s="18">
+      <c r="U10" s="12">
         <v>868</v>
       </c>
-      <c r="T10" s="18">
+      <c r="V10" s="12">
         <v>420</v>
       </c>
-      <c r="U10" s="18">
+      <c r="W10" s="12">
         <v>926</v>
       </c>
-      <c r="V10" s="18">
-        <v>2569</v>
+      <c r="X10" s="12">
+        <v>478</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>84</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>3131</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="17">
         <v>62984957364</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R11" s="7">
+      <c r="O11" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T11" s="17">
         <v>549</v>
       </c>
-      <c r="S11" s="21">
+      <c r="U11" s="18">
         <v>3324</v>
       </c>
-      <c r="T11" s="21">
+      <c r="V11" s="18">
         <v>1745</v>
       </c>
-      <c r="U11" s="21">
+      <c r="W11" s="18">
         <v>4349</v>
       </c>
-      <c r="V11" s="21">
-        <v>9967</v>
+      <c r="X11" s="18">
+        <v>782</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>816</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>11565</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="R12" s="4">
+      <c r="O12" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="T12" s="11">
         <v>789</v>
       </c>
-      <c r="S12" s="18">
-        <v>0</v>
-      </c>
-      <c r="T12" s="18">
-        <v>0</v>
-      </c>
-      <c r="U12" s="18">
-        <v>0</v>
-      </c>
-      <c r="V12" s="18">
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
         <v>789</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R13" s="7">
+      <c r="O13" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T13" s="17">
         <v>783</v>
       </c>
-      <c r="S13" s="21">
+      <c r="U13" s="18">
         <v>1466</v>
       </c>
-      <c r="T13" s="21">
+      <c r="V13" s="18">
         <v>741</v>
       </c>
-      <c r="U13" s="21">
+      <c r="W13" s="18">
         <v>2831</v>
       </c>
-      <c r="V13" s="21">
-        <v>5821</v>
+      <c r="X13" s="18">
+        <v>1237</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>1361</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>8419</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R14" s="4">
+      <c r="O14" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T14" s="11">
         <v>565</v>
       </c>
-      <c r="S14" s="18">
+      <c r="U14" s="12">
         <v>884</v>
       </c>
-      <c r="T14" s="18">
-        <v>0</v>
-      </c>
-      <c r="U14" s="18">
+      <c r="V14" s="12">
+        <v>0</v>
+      </c>
+      <c r="W14" s="12">
         <v>967</v>
       </c>
-      <c r="V14" s="18">
-        <v>2416</v>
+      <c r="X14" s="12">
+        <v>396</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>655</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>3467</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="17">
         <v>83996141186</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="M15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R15" s="7">
+      <c r="O15" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T15" s="17">
         <v>394</v>
       </c>
-      <c r="S15" s="21">
+      <c r="U15" s="18">
         <v>1845</v>
       </c>
-      <c r="T15" s="21">
+      <c r="V15" s="18">
         <v>1041</v>
       </c>
-      <c r="U15" s="21">
+      <c r="W15" s="18">
         <v>1841</v>
       </c>
-      <c r="V15" s="21">
-        <v>5121</v>
+      <c r="X15" s="18">
+        <v>619</v>
+      </c>
+      <c r="Y15" s="18">
+        <v>835</v>
+      </c>
+      <c r="Z15" s="18">
+        <v>6575</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="11">
         <v>11948557371</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R16" s="4">
+      <c r="O16" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T16" s="11">
         <v>1935</v>
       </c>
-      <c r="S16" s="18">
+      <c r="U16" s="12">
         <v>1620</v>
       </c>
-      <c r="T16" s="18">
+      <c r="V16" s="12">
         <v>759</v>
       </c>
-      <c r="U16" s="18">
+      <c r="W16" s="12">
         <v>3119</v>
       </c>
-      <c r="V16" s="18">
-        <v>7433</v>
+      <c r="X16" s="12">
+        <v>925</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>333</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>8691</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="17">
         <v>75991174812</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R17" s="7">
+      <c r="P17" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T17" s="17">
         <v>683</v>
       </c>
-      <c r="S17" s="21">
-        <v>0</v>
-      </c>
-      <c r="T17" s="21">
-        <v>0</v>
-      </c>
-      <c r="U17" s="21">
+      <c r="U17" s="18">
+        <v>0</v>
+      </c>
+      <c r="V17" s="18">
+        <v>0</v>
+      </c>
+      <c r="W17" s="18">
         <v>943</v>
       </c>
-      <c r="V17" s="21">
-        <v>1626</v>
+      <c r="X17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="18">
+        <v>571</v>
+      </c>
+      <c r="Z17" s="18">
+        <v>2197</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R18" s="4">
+      <c r="O18" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T18" s="11">
         <v>908</v>
       </c>
-      <c r="S18" s="18">
+      <c r="U18" s="12">
         <v>1612</v>
       </c>
-      <c r="T18" s="18">
+      <c r="V18" s="12">
         <v>681</v>
       </c>
-      <c r="U18" s="18">
+      <c r="W18" s="12">
         <v>1092</v>
       </c>
-      <c r="V18" s="18">
-        <v>4293</v>
+      <c r="X18" s="12">
+        <v>905</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>324</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>5522</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="17">
         <v>65996601399</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R19" s="7">
+      <c r="O19" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="T19" s="17">
         <v>818</v>
       </c>
-      <c r="S19" s="21">
+      <c r="U19" s="18">
         <v>1226</v>
       </c>
-      <c r="T19" s="21">
-        <v>0</v>
-      </c>
-      <c r="U19" s="21">
+      <c r="V19" s="18">
+        <v>0</v>
+      </c>
+      <c r="W19" s="18">
         <v>1251</v>
       </c>
-      <c r="V19" s="21">
-        <v>3295</v>
+      <c r="X19" s="18">
+        <v>600</v>
+      </c>
+      <c r="Y19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="18">
+        <v>3895</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="M20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R20" s="4">
+      <c r="O20" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T20" s="11">
         <v>720</v>
       </c>
-      <c r="S20" s="18">
+      <c r="U20" s="12">
         <v>1177</v>
       </c>
-      <c r="T20" s="18">
+      <c r="V20" s="12">
         <v>1256</v>
       </c>
-      <c r="U20" s="18">
+      <c r="W20" s="12">
         <v>780</v>
       </c>
-      <c r="V20" s="18">
-        <v>3933</v>
+      <c r="X20" s="12">
+        <v>1067</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>483</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>5483</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="17">
         <v>11994690490</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O21" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R21" s="7">
+      <c r="O21" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="T21" s="17">
         <v>964</v>
       </c>
-      <c r="S21" s="21">
+      <c r="U21" s="18">
         <v>575</v>
       </c>
-      <c r="T21" s="21">
+      <c r="V21" s="18">
         <v>760</v>
       </c>
-      <c r="U21" s="21">
+      <c r="W21" s="18">
         <v>1032</v>
       </c>
-      <c r="V21" s="21">
-        <v>3331</v>
+      <c r="X21" s="18">
+        <v>235</v>
+      </c>
+      <c r="Y21" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="18">
+        <v>3566</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="11">
         <v>11989296363</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="M22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R22" s="4">
+      <c r="O22" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T22" s="11">
         <v>5001</v>
       </c>
-      <c r="S22" s="18">
+      <c r="U22" s="12">
         <v>7230</v>
       </c>
-      <c r="T22" s="18">
+      <c r="V22" s="12">
         <v>5756</v>
       </c>
-      <c r="U22" s="18">
+      <c r="W22" s="12">
         <v>13912</v>
       </c>
-      <c r="V22" s="18">
-        <v>31899</v>
+      <c r="X22" s="12">
+        <v>909</v>
+      </c>
+      <c r="Y22" s="12">
+        <v>2260</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>35068</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="17">
         <v>43996484117</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O23" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R23" s="7">
+      <c r="O23" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T23" s="17">
         <v>490</v>
       </c>
-      <c r="S23" s="21">
+      <c r="U23" s="18">
         <v>696</v>
       </c>
-      <c r="T23" s="21">
+      <c r="V23" s="18">
         <v>245</v>
       </c>
-      <c r="U23" s="21">
+      <c r="W23" s="18">
         <v>878</v>
       </c>
-      <c r="V23" s="21">
-        <v>2309</v>
+      <c r="X23" s="18">
+        <v>615</v>
+      </c>
+      <c r="Y23" s="18">
+        <v>58</v>
+      </c>
+      <c r="Z23" s="18">
+        <v>2982</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="M24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="R24" s="4">
+      <c r="O24" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="T24" s="11">
         <v>446</v>
       </c>
-      <c r="S24" s="18">
-        <v>0</v>
-      </c>
-      <c r="T24" s="18">
-        <v>0</v>
-      </c>
-      <c r="U24" s="18">
-        <v>0</v>
-      </c>
-      <c r="V24" s="18">
+      <c r="U24" s="12">
+        <v>0</v>
+      </c>
+      <c r="V24" s="12">
+        <v>0</v>
+      </c>
+      <c r="W24" s="12">
+        <v>0</v>
+      </c>
+      <c r="X24" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="12">
         <v>446</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="17">
         <v>15991007447</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="R25" s="7">
+      <c r="O25" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="T25" s="17">
         <v>543</v>
       </c>
-      <c r="S25" s="21">
-        <v>0</v>
-      </c>
-      <c r="T25" s="21">
-        <v>0</v>
-      </c>
-      <c r="U25" s="21">
-        <v>0</v>
-      </c>
-      <c r="V25" s="21">
+      <c r="U25" s="18">
+        <v>0</v>
+      </c>
+      <c r="V25" s="18">
+        <v>0</v>
+      </c>
+      <c r="W25" s="18">
+        <v>0</v>
+      </c>
+      <c r="X25" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="18">
         <v>543</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="11">
         <v>19991048164</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N26" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R26" s="4">
+      <c r="O26" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T26" s="11">
         <v>1145</v>
       </c>
-      <c r="S26" s="18">
+      <c r="U26" s="12">
         <v>1820</v>
       </c>
-      <c r="T26" s="18">
+      <c r="V26" s="12">
         <v>1340</v>
       </c>
-      <c r="U26" s="18">
+      <c r="W26" s="12">
         <v>875</v>
       </c>
-      <c r="V26" s="18">
-        <v>5180</v>
+      <c r="X26" s="12">
+        <v>547</v>
+      </c>
+      <c r="Y26" s="12">
+        <v>83</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>5810</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="17">
         <v>81999437665</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O27" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R27" s="7">
+      <c r="O27" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T27" s="17">
         <v>607</v>
       </c>
-      <c r="S27" s="21">
+      <c r="U27" s="18">
         <v>808</v>
       </c>
-      <c r="T27" s="21">
+      <c r="V27" s="18">
         <v>778</v>
       </c>
-      <c r="U27" s="21">
+      <c r="W27" s="18">
         <v>509</v>
       </c>
-      <c r="V27" s="21">
-        <v>2702</v>
+      <c r="X27" s="18">
+        <v>620</v>
+      </c>
+      <c r="Y27" s="18">
+        <v>254</v>
+      </c>
+      <c r="Z27" s="18">
+        <v>3576</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="11">
         <v>21991843315</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="M28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O28" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R28" s="4">
+      <c r="O28" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="T28" s="11">
         <v>555</v>
       </c>
-      <c r="S28" s="18">
+      <c r="U28" s="12">
         <v>445</v>
       </c>
-      <c r="T28" s="18">
-        <v>0</v>
-      </c>
-      <c r="U28" s="18">
+      <c r="V28" s="12">
+        <v>0</v>
+      </c>
+      <c r="W28" s="12">
         <v>50</v>
       </c>
-      <c r="V28" s="18">
+      <c r="X28" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="12">
         <v>1050</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="17">
         <v>85986369722</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="M29" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="O29" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="R29" s="7">
-        <v>0</v>
-      </c>
-      <c r="S29" s="21">
-        <v>0</v>
-      </c>
-      <c r="T29" s="21">
-        <v>0</v>
-      </c>
-      <c r="U29" s="21">
-        <v>0</v>
-      </c>
-      <c r="V29" s="21">
+      <c r="O29" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="T29" s="17">
+        <v>0</v>
+      </c>
+      <c r="U29" s="18">
+        <v>0</v>
+      </c>
+      <c r="V29" s="18">
+        <v>0</v>
+      </c>
+      <c r="W29" s="18">
+        <v>0</v>
+      </c>
+      <c r="X29" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="11">
         <v>11944948824</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="M30" s="17" t="s">
+      <c r="M30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="R30" s="4">
-        <v>0</v>
-      </c>
-      <c r="S30" s="18">
-        <v>0</v>
-      </c>
-      <c r="T30" s="18">
-        <v>0</v>
-      </c>
-      <c r="U30" s="18">
-        <v>0</v>
-      </c>
-      <c r="V30" s="18">
+      <c r="O30" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="T30" s="11">
+        <v>0</v>
+      </c>
+      <c r="U30" s="12">
+        <v>0</v>
+      </c>
+      <c r="V30" s="12">
+        <v>0</v>
+      </c>
+      <c r="W30" s="12">
+        <v>0</v>
+      </c>
+      <c r="X30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="19" t="s">
+    <row r="31" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="17">
         <v>11964699480</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="M31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O31" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R31" s="7">
+      <c r="O31" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T31" s="17">
         <v>514</v>
       </c>
-      <c r="S31" s="21">
+      <c r="U31" s="18">
         <v>1382</v>
       </c>
-      <c r="T31" s="21">
+      <c r="V31" s="18">
         <v>1343</v>
       </c>
-      <c r="U31" s="21">
+      <c r="W31" s="18">
         <v>2288</v>
       </c>
-      <c r="V31" s="21">
-        <v>5527</v>
+      <c r="X31" s="18">
+        <v>1374</v>
+      </c>
+      <c r="Y31" s="18">
+        <v>1523</v>
+      </c>
+      <c r="Z31" s="18">
+        <v>8424</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="M32" s="17" t="s">
+      <c r="M32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O32" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R32" s="4">
+      <c r="O32" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="T32" s="11">
         <v>2234</v>
       </c>
-      <c r="S32" s="18">
+      <c r="U32" s="12">
         <v>3447</v>
       </c>
-      <c r="T32" s="18">
+      <c r="V32" s="12">
         <v>1127</v>
       </c>
-      <c r="U32" s="18">
+      <c r="W32" s="12">
         <v>751</v>
       </c>
-      <c r="V32" s="18">
-        <v>7559</v>
+      <c r="X32" s="12">
+        <v>1316</v>
+      </c>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="12">
+        <v>8875</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="17">
         <v>11956890011</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="M33" s="20" t="s">
+      <c r="M33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O33" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R33" s="7">
+      <c r="O33" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q33" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S33" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T33" s="17">
         <v>407</v>
       </c>
-      <c r="S33" s="21">
-        <v>0</v>
-      </c>
-      <c r="T33" s="21">
+      <c r="U33" s="18">
+        <v>0</v>
+      </c>
+      <c r="V33" s="18">
         <v>761</v>
       </c>
-      <c r="U33" s="21">
+      <c r="W33" s="18">
         <v>906</v>
       </c>
-      <c r="V33" s="21">
-        <v>2074</v>
+      <c r="X33" s="18">
+        <v>351</v>
+      </c>
+      <c r="Y33" s="18">
+        <v>707</v>
+      </c>
+      <c r="Z33" s="18">
+        <v>3132</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="11">
         <v>66996776152</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="M34" s="17" t="s">
+      <c r="M34" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="N34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R34" s="4">
+      <c r="O34" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T34" s="11">
         <v>462</v>
       </c>
-      <c r="S34" s="18">
+      <c r="U34" s="12">
         <v>978</v>
       </c>
-      <c r="T34" s="18">
+      <c r="V34" s="12">
         <v>1281</v>
       </c>
-      <c r="U34" s="18">
+      <c r="W34" s="12">
         <v>1425</v>
       </c>
-      <c r="V34" s="18">
-        <v>4146</v>
+      <c r="X34" s="12">
+        <v>284</v>
+      </c>
+      <c r="Y34" s="12">
+        <v>613</v>
+      </c>
+      <c r="Z34" s="12">
+        <v>5043</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="17">
         <v>71996861680</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="M35" s="20" t="s">
+      <c r="M35" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O35" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="R35" s="7">
+      <c r="O35" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S35" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T35" s="17">
         <v>658</v>
       </c>
-      <c r="S35" s="21">
+      <c r="U35" s="18">
         <v>709</v>
       </c>
-      <c r="T35" s="21">
+      <c r="V35" s="18">
         <v>818</v>
       </c>
-      <c r="U35" s="21">
-        <v>0</v>
-      </c>
-      <c r="V35" s="21">
-        <v>2185</v>
+      <c r="W35" s="18">
+        <v>0</v>
+      </c>
+      <c r="X35" s="18">
+        <v>1124</v>
+      </c>
+      <c r="Y35" s="18">
+        <v>586</v>
+      </c>
+      <c r="Z35" s="18">
+        <v>3895</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+    <row r="36" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="M36" s="17" t="s">
+      <c r="M36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="N36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="R36" s="4">
+      <c r="O36" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="S36" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="T36" s="11">
         <v>1350</v>
       </c>
-      <c r="S36" s="18">
-        <v>0</v>
-      </c>
-      <c r="T36" s="18">
-        <v>0</v>
-      </c>
-      <c r="U36" s="18">
-        <v>0</v>
-      </c>
-      <c r="V36" s="18">
+      <c r="U36" s="12">
+        <v>0</v>
+      </c>
+      <c r="V36" s="12">
+        <v>0</v>
+      </c>
+      <c r="W36" s="12">
+        <v>0</v>
+      </c>
+      <c r="X36" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="12">
         <v>1350</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="M37" s="20" t="s">
+      <c r="M37" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="N37" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O37" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="R37" s="7">
+      <c r="O37" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q37" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="R37" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="S37" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="T37" s="17">
         <v>2381</v>
       </c>
-      <c r="S37" s="21">
+      <c r="U37" s="18">
         <v>1268</v>
       </c>
-      <c r="T37" s="21">
-        <v>0</v>
-      </c>
-      <c r="U37" s="21">
-        <v>0</v>
-      </c>
-      <c r="V37" s="21">
+      <c r="V37" s="18">
+        <v>0</v>
+      </c>
+      <c r="W37" s="18">
+        <v>0</v>
+      </c>
+      <c r="X37" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="18">
         <v>3649</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="11">
         <v>47997106069</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="M38" s="17" t="s">
+      <c r="M38" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="N38" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="R38" s="4">
+      <c r="O38" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="T38" s="11">
         <v>1293</v>
       </c>
-      <c r="S38" s="18">
-        <v>0</v>
-      </c>
-      <c r="T38" s="18">
-        <v>0</v>
-      </c>
-      <c r="U38" s="18">
-        <v>0</v>
-      </c>
-      <c r="V38" s="18">
-        <v>1293</v>
+      <c r="U38" s="12">
+        <v>0</v>
+      </c>
+      <c r="V38" s="12">
+        <v>0</v>
+      </c>
+      <c r="W38" s="12">
+        <v>0</v>
+      </c>
+      <c r="X38" s="12">
+        <v>612</v>
+      </c>
+      <c r="Y38" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="12">
+        <v>1905</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="17">
         <v>11959496333</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="M39" s="20" t="s">
+      <c r="M39" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O39" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R39" s="7">
+      <c r="O39" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P39" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q39" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R39" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="S39" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="T39" s="17">
         <v>590</v>
       </c>
-      <c r="S39" s="21">
+      <c r="U39" s="18">
         <v>4626</v>
       </c>
-      <c r="T39" s="21">
-        <v>0</v>
-      </c>
-      <c r="U39" s="21">
+      <c r="V39" s="18">
+        <v>0</v>
+      </c>
+      <c r="W39" s="18">
         <v>1920</v>
       </c>
-      <c r="V39" s="21">
+      <c r="X39" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="18">
         <v>7136</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="M40" s="17" t="s">
+      <c r="M40" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="N40" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O40" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R40" s="4">
+      <c r="O40" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T40" s="11">
         <v>2176</v>
       </c>
-      <c r="S40" s="18">
+      <c r="U40" s="12">
         <v>3627</v>
       </c>
-      <c r="T40" s="18">
+      <c r="V40" s="12">
         <v>1653</v>
       </c>
-      <c r="U40" s="18">
+      <c r="W40" s="12">
         <v>1954</v>
       </c>
-      <c r="V40" s="18">
-        <v>9410</v>
+      <c r="X40" s="12">
+        <v>1269</v>
+      </c>
+      <c r="Y40" s="12">
+        <v>474</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>11153</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="19" t="s">
+    <row r="41" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="M41" s="20" t="s">
+      <c r="M41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="N41" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O41" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R41" s="7">
+      <c r="O41" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P41" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q41" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S41" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T41" s="17">
         <v>524</v>
       </c>
-      <c r="S41" s="21">
+      <c r="U41" s="18">
         <v>1259</v>
       </c>
-      <c r="T41" s="21">
+      <c r="V41" s="18">
         <v>1212</v>
       </c>
-      <c r="U41" s="21">
+      <c r="W41" s="18">
         <v>860</v>
       </c>
-      <c r="V41" s="21">
-        <v>3855</v>
+      <c r="X41" s="18">
+        <v>1690</v>
+      </c>
+      <c r="Y41" s="18">
+        <v>842</v>
+      </c>
+      <c r="Z41" s="18">
+        <v>6387</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="11">
         <v>71986279915</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L42" s="8"/>
-      <c r="M42" s="17" t="s">
+      <c r="L42" s="20"/>
+      <c r="M42" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="N42" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R42" s="4">
+      <c r="O42" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S42" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T42" s="11">
         <v>2080</v>
       </c>
-      <c r="S42" s="18">
+      <c r="U42" s="12">
         <v>1638</v>
       </c>
-      <c r="T42" s="18">
+      <c r="V42" s="12">
         <v>779</v>
       </c>
-      <c r="U42" s="18">
+      <c r="W42" s="12">
         <v>407</v>
       </c>
-      <c r="V42" s="18">
-        <v>4904</v>
+      <c r="X42" s="12">
+        <v>423</v>
+      </c>
+      <c r="Y42" s="12">
+        <v>162</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>5489</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="19" t="s">
+    <row r="43" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="17">
         <v>51989475857</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J43" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="M43" s="20" t="s">
+      <c r="M43" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O43" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R43" s="7">
+      <c r="O43" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P43" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q43" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R43" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S43" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T43" s="17">
         <v>1716</v>
       </c>
-      <c r="S43" s="21">
+      <c r="U43" s="18">
         <v>2216</v>
       </c>
-      <c r="T43" s="21">
+      <c r="V43" s="18">
         <v>842</v>
       </c>
-      <c r="U43" s="21">
+      <c r="W43" s="18">
         <v>2878</v>
       </c>
-      <c r="V43" s="21">
-        <v>7652</v>
+      <c r="X43" s="18">
+        <v>1035</v>
+      </c>
+      <c r="Y43" s="18">
+        <v>105</v>
+      </c>
+      <c r="Z43" s="18">
+        <v>8792</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="16" t="s">
+    <row r="44" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="11">
         <v>73998391645</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="M44" s="17" t="s">
+      <c r="M44" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="N44" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="R44" s="4">
-        <v>0</v>
-      </c>
-      <c r="S44" s="18">
-        <v>0</v>
-      </c>
-      <c r="T44" s="18">
-        <v>0</v>
-      </c>
-      <c r="U44" s="18">
-        <v>0</v>
-      </c>
-      <c r="V44" s="18">
+      <c r="O44" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="S44" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="T44" s="11">
+        <v>0</v>
+      </c>
+      <c r="U44" s="12">
+        <v>0</v>
+      </c>
+      <c r="V44" s="12">
+        <v>0</v>
+      </c>
+      <c r="W44" s="12">
+        <v>0</v>
+      </c>
+      <c r="X44" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="19" t="s">
+    <row r="45" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="M45" s="20" t="s">
+      <c r="M45" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N45" s="5" t="s">
+      <c r="N45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O45" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R45" s="7">
+      <c r="O45" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q45" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R45" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S45" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T45" s="17">
         <v>787</v>
       </c>
-      <c r="S45" s="21">
-        <v>0</v>
-      </c>
-      <c r="T45" s="21">
+      <c r="U45" s="18">
+        <v>0</v>
+      </c>
+      <c r="V45" s="18">
         <v>815</v>
       </c>
-      <c r="U45" s="21">
+      <c r="W45" s="18">
         <v>1195</v>
       </c>
-      <c r="V45" s="21">
-        <v>2797</v>
+      <c r="X45" s="18">
+        <v>514</v>
+      </c>
+      <c r="Y45" s="18">
+        <v>218</v>
+      </c>
+      <c r="Z45" s="18">
+        <v>3529</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="11">
         <v>61995231313</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="L46" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="M46" s="17" t="s">
+      <c r="M46" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N46" s="2" t="s">
+      <c r="N46" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O46" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R46" s="4">
+      <c r="O46" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T46" s="11">
         <v>268</v>
       </c>
-      <c r="S46" s="18">
+      <c r="U46" s="12">
         <v>507</v>
       </c>
-      <c r="T46" s="18">
+      <c r="V46" s="12">
         <v>603</v>
       </c>
-      <c r="U46" s="18">
+      <c r="W46" s="12">
         <v>1471</v>
       </c>
-      <c r="V46" s="18">
-        <v>2849</v>
+      <c r="X46" s="12">
+        <v>500</v>
+      </c>
+      <c r="Y46" s="12">
+        <v>264</v>
+      </c>
+      <c r="Z46" s="12">
+        <v>3613</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="19" t="s">
+    <row r="47" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="17">
         <v>21987000059</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="M47" s="20" t="s">
+      <c r="M47" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O47" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P47" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q47" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="R47" s="7">
+      <c r="O47" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P47" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q47" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="R47" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S47" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T47" s="17">
         <v>633</v>
       </c>
-      <c r="S47" s="21">
+      <c r="U47" s="18">
         <v>4260</v>
       </c>
-      <c r="T47" s="21">
+      <c r="V47" s="18">
         <v>552</v>
       </c>
-      <c r="U47" s="21">
-        <v>0</v>
-      </c>
-      <c r="V47" s="21">
-        <v>5445</v>
+      <c r="W47" s="18">
+        <v>0</v>
+      </c>
+      <c r="X47" s="18">
+        <v>6138</v>
+      </c>
+      <c r="Y47" s="18">
+        <v>701</v>
+      </c>
+      <c r="Z47" s="18">
+        <v>12284</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
+    <row r="48" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="L48" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="M48" s="17" t="s">
+      <c r="M48" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="N48" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O48" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R48" s="4">
+      <c r="O48" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S48" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T48" s="11">
         <v>1755</v>
       </c>
-      <c r="S48" s="18">
+      <c r="U48" s="12">
         <v>3189</v>
       </c>
-      <c r="T48" s="18">
+      <c r="V48" s="12">
         <v>3735</v>
       </c>
-      <c r="U48" s="18">
+      <c r="W48" s="12">
         <v>3492</v>
       </c>
-      <c r="V48" s="18">
-        <v>12171</v>
+      <c r="X48" s="12">
+        <v>4742</v>
+      </c>
+      <c r="Y48" s="12">
+        <v>1032</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>17945</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L49" s="6" t="s">
+      <c r="L49" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="M49" s="20" t="s">
+      <c r="M49" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N49" s="5" t="s">
+      <c r="N49" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O49" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P49" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q49" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R49" s="7">
+      <c r="O49" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P49" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q49" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R49" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="S49" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="T49" s="17">
         <v>424</v>
       </c>
-      <c r="S49" s="21">
+      <c r="U49" s="18">
         <v>3217</v>
       </c>
-      <c r="T49" s="21">
+      <c r="V49" s="18">
         <v>253</v>
       </c>
-      <c r="U49" s="21">
+      <c r="W49" s="18">
         <v>1292</v>
       </c>
-      <c r="V49" s="21">
+      <c r="X49" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="18">
         <v>5186</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="11">
         <v>15988238952</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="L50" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="M50" s="17" t="s">
+      <c r="M50" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="N50" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O50" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R50" s="4">
+      <c r="O50" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q50" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S50" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T50" s="11">
         <v>522</v>
       </c>
-      <c r="S50" s="18">
+      <c r="U50" s="12">
         <v>2749</v>
       </c>
-      <c r="T50" s="18">
+      <c r="V50" s="12">
         <v>754</v>
       </c>
-      <c r="U50" s="18">
+      <c r="W50" s="12">
         <v>1094</v>
       </c>
-      <c r="V50" s="18">
-        <v>5119</v>
+      <c r="X50" s="12">
+        <v>872</v>
+      </c>
+      <c r="Y50" s="12">
+        <v>452</v>
+      </c>
+      <c r="Z50" s="12">
+        <v>6443</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="19" t="s">
+    <row r="51" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L51" s="6" t="s">
+      <c r="L51" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="M51" s="20" t="s">
+      <c r="M51" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="N51" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O51" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P51" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q51" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="R51" s="7">
+      <c r="O51" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P51" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q51" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="R51" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="S51" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="T51" s="17">
         <v>1408</v>
       </c>
-      <c r="S51" s="21">
+      <c r="U51" s="18">
         <v>1052</v>
       </c>
-      <c r="T51" s="21">
+      <c r="V51" s="18">
         <v>906</v>
       </c>
-      <c r="U51" s="21">
+      <c r="W51" s="18">
         <v>815</v>
       </c>
-      <c r="V51" s="21">
-        <v>4181</v>
+      <c r="X51" s="18">
+        <v>771</v>
+      </c>
+      <c r="Y51" s="18">
+        <v>664</v>
+      </c>
+      <c r="Z51" s="18">
+        <v>5616</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
+    <row r="52" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="M52" s="17" t="s">
+      <c r="M52" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="N52" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O52" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R52" s="4">
+      <c r="O52" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q52" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S52" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="T52" s="11">
         <v>662</v>
       </c>
-      <c r="S52" s="18">
+      <c r="U52" s="12">
         <v>643</v>
       </c>
-      <c r="T52" s="18">
+      <c r="V52" s="12">
         <v>373</v>
       </c>
-      <c r="U52" s="18">
+      <c r="W52" s="12">
         <v>660</v>
       </c>
-      <c r="V52" s="18">
-        <v>2338</v>
+      <c r="X52" s="12">
+        <v>678</v>
+      </c>
+      <c r="Y52" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="12">
+        <v>3016</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="19" t="s">
+    <row r="53" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="L53" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M53" s="20" t="s">
+      <c r="M53" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N53" s="5" t="s">
+      <c r="N53" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O53" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q53" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="R53" s="7">
+      <c r="O53" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="P53" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q53" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="R53" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="S53" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="T53" s="17">
         <v>684</v>
       </c>
-      <c r="S53" s="21">
+      <c r="U53" s="18">
         <v>1573</v>
       </c>
-      <c r="T53" s="21">
-        <v>0</v>
-      </c>
-      <c r="U53" s="21">
-        <v>0</v>
-      </c>
-      <c r="V53" s="21">
+      <c r="V53" s="18">
+        <v>0</v>
+      </c>
+      <c r="W53" s="18">
+        <v>0</v>
+      </c>
+      <c r="X53" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="18">
         <v>2257</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="22" t="s">
+    <row r="54" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="23"/>
+      <c r="E54" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="24" t="s">
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="O54" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="P54" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q54" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="R54" s="25">
-        <v>0</v>
-      </c>
-      <c r="S54" s="26">
-        <v>0</v>
+      <c r="O54" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="P54" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q54" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="R54" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="S54" s="22" t="s">
+        <v>381</v>
       </c>
       <c r="T54" s="27">
         <v>0</v>
       </c>
-      <c r="U54" s="27">
-        <v>0</v>
-      </c>
-      <c r="V54" s="27">
+      <c r="U54" s="28">
+        <v>0</v>
+      </c>
+      <c r="V54" s="29">
+        <v>0</v>
+      </c>
+      <c r="W54" s="29">
+        <v>0</v>
+      </c>
+      <c r="X54" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="29">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V1" xr:uid="{F3C2AB94-8371-415B-B15C-673BF998D579}"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{5D4BD371-0C04-4903-984D-69A8087EB808}"/>
-    <hyperlink ref="L2" r:id="rId2" xr:uid="{6AEED221-F6B2-4975-A2A6-9D173CBC1E9E}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{4C17DA2F-DEFE-44E1-835C-A7DDCD99DCD4}"/>
-    <hyperlink ref="L3" r:id="rId4" xr:uid="{40EBD183-A30D-4D34-8114-BE913B8E5BD7}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{8C5112C6-F846-4BE2-AA0A-B0FB0D856FB6}"/>
-    <hyperlink ref="L4" r:id="rId6" xr:uid="{F7FF61B6-7132-4FB2-A47A-5A01B5ECACCD}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{4DCFEFFA-EF93-41D0-B983-19979FD08D7B}"/>
-    <hyperlink ref="L5" r:id="rId8" xr:uid="{3DA6E193-29AB-4C34-8A58-21E3182E0F4C}"/>
-    <hyperlink ref="F6" r:id="rId9" xr:uid="{99B9F00C-F5DD-4EF9-9D9B-776523B2504A}"/>
-    <hyperlink ref="L6" r:id="rId10" xr:uid="{E517D69D-BDE6-4F8F-A5FA-BFD20B9E45D3}"/>
-    <hyperlink ref="F7" r:id="rId11" xr:uid="{E2405877-997A-49EC-88B8-E57FB14B9225}"/>
-    <hyperlink ref="L7" r:id="rId12" xr:uid="{CBF45866-DAD9-42F8-A5C3-C813DE4E86E5}"/>
-    <hyperlink ref="F8" r:id="rId13" xr:uid="{01F6680B-3C86-4A94-9623-BF7AAAF0469A}"/>
-    <hyperlink ref="L8" r:id="rId14" xr:uid="{AA049339-38BB-40C2-8BF6-ED211B5B2DB8}"/>
-    <hyperlink ref="F9" r:id="rId15" xr:uid="{6FDDFAF9-4816-4D21-BF82-56CE888EDBEA}"/>
-    <hyperlink ref="L9" r:id="rId16" xr:uid="{CB0A7BF5-05A0-4954-977A-309CB02A5430}"/>
-    <hyperlink ref="F10" r:id="rId17" xr:uid="{C217B199-471C-4624-AF65-376986B43031}"/>
-    <hyperlink ref="L10" r:id="rId18" xr:uid="{C8FBF625-6510-4CC7-BF2A-AD2067888177}"/>
-    <hyperlink ref="F11" r:id="rId19" xr:uid="{CD960F6F-A4B6-4DDC-95E6-299EB1FBEDD6}"/>
-    <hyperlink ref="L11" r:id="rId20" xr:uid="{1E151122-A1F6-40E9-9EAE-B4C6BE66B28D}"/>
-    <hyperlink ref="F12" r:id="rId21" xr:uid="{C41B4601-2208-4EE4-9518-0A870B3FDC29}"/>
-    <hyperlink ref="L12" r:id="rId22" xr:uid="{FFDACEA2-7772-49F2-A56F-1F061DA2FD15}"/>
-    <hyperlink ref="F13" r:id="rId23" xr:uid="{F86DC7A4-CD31-4F53-B59C-0CF6CB42FD28}"/>
-    <hyperlink ref="L13" r:id="rId24" xr:uid="{5216A3D6-47EF-414B-9FFB-5BED486A8974}"/>
-    <hyperlink ref="F14" r:id="rId25" xr:uid="{191DE461-2E71-4EE4-8A77-61F23B7A13DB}"/>
-    <hyperlink ref="L14" r:id="rId26" xr:uid="{B3E62AB7-8140-4106-94AA-614AC6E47A9D}"/>
-    <hyperlink ref="F15" r:id="rId27" xr:uid="{D732047D-46C2-4667-B325-F888B84ECAB2}"/>
-    <hyperlink ref="L15" r:id="rId28" xr:uid="{4B52EB56-2A7B-4E2E-88CB-B3B0BD5FD822}"/>
-    <hyperlink ref="F16" r:id="rId29" xr:uid="{81CFBA32-C28E-4B5B-BC5E-DA57E788A55D}"/>
-    <hyperlink ref="L16" r:id="rId30" xr:uid="{CEE4C220-D8C6-41A9-9DFB-7252AE05BDFC}"/>
-    <hyperlink ref="F17" r:id="rId31" xr:uid="{A2E9E974-BA18-4975-88F1-8CA97B6B452F}"/>
-    <hyperlink ref="L17" r:id="rId32" xr:uid="{FC0CBEFB-45BD-4DC6-B4BA-E2EBDD0EAA41}"/>
-    <hyperlink ref="F18" r:id="rId33" xr:uid="{5BB4184A-AA1E-41C4-B8B2-3D20F3844533}"/>
-    <hyperlink ref="L18" r:id="rId34" xr:uid="{C5ABC83E-507C-4820-B279-A3C9CA956809}"/>
-    <hyperlink ref="F19" r:id="rId35" xr:uid="{BE980BE3-F24E-4FF8-B14D-EAB71B5B4A37}"/>
-    <hyperlink ref="L19" r:id="rId36" xr:uid="{0E9AE9C5-B283-48C9-B84E-420284647ABC}"/>
-    <hyperlink ref="F20" r:id="rId37" xr:uid="{49D4E96B-A68E-4AE9-A29A-2B4ED4DC251D}"/>
-    <hyperlink ref="L20" r:id="rId38" xr:uid="{4B64DD23-246D-4E7F-9A95-94CBFBEE55EC}"/>
-    <hyperlink ref="F21" r:id="rId39" xr:uid="{5E218E4B-1C14-4D23-9252-CAF7AA68D174}"/>
-    <hyperlink ref="L21" r:id="rId40" xr:uid="{3AD41F2D-057A-44B5-80C7-F98658A317C7}"/>
-    <hyperlink ref="F22" r:id="rId41" xr:uid="{3AA25E30-38EF-4A8E-8B7A-73975A0DEACD}"/>
-    <hyperlink ref="L22" r:id="rId42" xr:uid="{6C02ECBE-5041-44DC-9030-FD8325DB5C98}"/>
-    <hyperlink ref="F23" r:id="rId43" xr:uid="{313EDD0F-ECD4-4105-93C6-EA8BCE7177A5}"/>
-    <hyperlink ref="L23" r:id="rId44" xr:uid="{F97D8B3B-58CE-4496-AE10-D2C6306F24F3}"/>
-    <hyperlink ref="F24" r:id="rId45" xr:uid="{032F873D-8B7C-4FF8-BDEB-AE0B18EBC427}"/>
-    <hyperlink ref="L24" r:id="rId46" xr:uid="{FB18B3DA-B7AF-49F0-AB66-2D2D78A0C91E}"/>
-    <hyperlink ref="F25" r:id="rId47" xr:uid="{1EDDBEC8-11D9-426B-9664-C5C3F8F1DE78}"/>
-    <hyperlink ref="L25" r:id="rId48" xr:uid="{100F1440-A606-418E-BF4C-B9AE80E8421D}"/>
-    <hyperlink ref="F26" r:id="rId49" xr:uid="{9980C3E9-500F-41B8-8519-975067706355}"/>
-    <hyperlink ref="L26" r:id="rId50" xr:uid="{2E442EA0-1FC9-4233-8AA0-EEA2D95F746F}"/>
-    <hyperlink ref="F27" r:id="rId51" display="https://drive.google.com/file/d/1buDrBqk4rHcGLbKKMJHOEOM9AOosdrVF/view?usp=drive_link" xr:uid="{7FE962F7-6E3B-4C08-A9DB-F0C34F06456C}"/>
-    <hyperlink ref="L27" r:id="rId52" xr:uid="{A7EC9171-30A0-4F47-8C9C-2CCDFBC61D23}"/>
-    <hyperlink ref="F28" r:id="rId53" xr:uid="{BC0D5F1E-BE6F-48D9-877E-DE05D0140882}"/>
-    <hyperlink ref="L28" r:id="rId54" xr:uid="{71E4AF84-BB0A-41ED-B713-EE97EB907916}"/>
-    <hyperlink ref="F29" r:id="rId55" xr:uid="{A0BAD1B1-9622-4B46-8F54-9A385A68593A}"/>
-    <hyperlink ref="L29" r:id="rId56" xr:uid="{0A2855E1-79AB-4658-8194-75BBFDF3D8EA}"/>
-    <hyperlink ref="F30" r:id="rId57" xr:uid="{EBEEA235-5A7B-4EC0-8AC6-EFE7A962E407}"/>
-    <hyperlink ref="L30" r:id="rId58" xr:uid="{0BC72138-BC88-471C-9D6D-4A28B6539FB1}"/>
-    <hyperlink ref="F31" r:id="rId59" xr:uid="{C9EDDF40-7F6D-4FD2-86B1-22BCAF8B8BFE}"/>
-    <hyperlink ref="L31" r:id="rId60" xr:uid="{8AB46302-AD1E-4C71-A47E-A11D173FEE37}"/>
-    <hyperlink ref="F32" r:id="rId61" xr:uid="{3A00DED2-AA59-43B9-9DFC-EA3FEEBA742E}"/>
-    <hyperlink ref="L32" r:id="rId62" xr:uid="{5A3A2D4F-C837-4A67-AD76-0AAF1795DAD2}"/>
-    <hyperlink ref="F33" r:id="rId63" xr:uid="{813278CB-0E23-44FA-8758-6A168A54D2EF}"/>
-    <hyperlink ref="L33" r:id="rId64" xr:uid="{107FB20A-8EC3-4B22-9BD3-97D5F4DCBC1F}"/>
-    <hyperlink ref="F34" r:id="rId65" xr:uid="{A7C2ECE8-01C3-402C-914D-5BE918E6B12F}"/>
-    <hyperlink ref="L34" r:id="rId66" xr:uid="{81EBC728-4AB8-40C6-BC31-F451378010E5}"/>
-    <hyperlink ref="F35" r:id="rId67" xr:uid="{B7ED2E74-DC11-4998-9A54-67664F0AE695}"/>
-    <hyperlink ref="L35" r:id="rId68" xr:uid="{DA0A5023-7442-4F23-8FB4-D465C20DDCAD}"/>
-    <hyperlink ref="F36" r:id="rId69" xr:uid="{08773AE9-746C-406F-ACDB-5B8E8D45D867}"/>
-    <hyperlink ref="L36" r:id="rId70" xr:uid="{BA934032-59F5-42D2-AF31-4D90784F43C6}"/>
-    <hyperlink ref="F37" r:id="rId71" xr:uid="{D12D234C-62BF-4F01-A2BF-4DB8BE4ABC07}"/>
-    <hyperlink ref="L37" r:id="rId72" xr:uid="{7CC5E3EA-BA1F-4AA6-BFBE-55DE10FD4ECB}"/>
-    <hyperlink ref="F38" r:id="rId73" xr:uid="{4AE7DB25-ED98-44C1-992B-1640242B25F6}"/>
-    <hyperlink ref="L38" r:id="rId74" xr:uid="{35AEBCD9-9ACF-40BA-9F08-FF0E2A27723F}"/>
-    <hyperlink ref="F39" r:id="rId75" xr:uid="{872A5433-C723-49BC-9366-5620B64D6E58}"/>
-    <hyperlink ref="L39" r:id="rId76" xr:uid="{98228D53-7120-4C88-AEA2-077A06A06FC4}"/>
-    <hyperlink ref="F40" r:id="rId77" xr:uid="{28C815AA-BF1C-42FC-A3FD-0E97F9CF7943}"/>
-    <hyperlink ref="L40" r:id="rId78" xr:uid="{7C9F96EE-E00D-4115-A606-CC6FBCBC67C8}"/>
-    <hyperlink ref="F41" r:id="rId79" xr:uid="{3F2999C3-2916-4E26-8428-B012B542719D}"/>
-    <hyperlink ref="L41" r:id="rId80" xr:uid="{395907C9-6EBF-43BD-BF29-FAC09C474F6D}"/>
-    <hyperlink ref="F42" r:id="rId81" xr:uid="{EFCE930D-C0CC-4A0C-8A47-C46E07A3E013}"/>
-    <hyperlink ref="F43" r:id="rId82" xr:uid="{BDE08AC8-685C-447E-B2CD-F32854E74554}"/>
-    <hyperlink ref="L43" r:id="rId83" xr:uid="{D3884B3C-13F0-4458-A86E-6CD267C7341F}"/>
-    <hyperlink ref="F44" r:id="rId84" xr:uid="{B12DA1C0-A487-4D3C-B22C-8DA251380E1E}"/>
-    <hyperlink ref="L44" r:id="rId85" xr:uid="{91A14998-1A43-4790-BF8D-DF025E540C4D}"/>
-    <hyperlink ref="F45" r:id="rId86" xr:uid="{93CE1067-39CB-42BF-87B0-F13F43A07F49}"/>
-    <hyperlink ref="L45" r:id="rId87" xr:uid="{18B38B8A-244F-4232-986F-30B3961B9C57}"/>
-    <hyperlink ref="F46" r:id="rId88" xr:uid="{857DA5B2-B4F6-402E-80CC-1104DEC7CB6A}"/>
-    <hyperlink ref="L46" r:id="rId89" xr:uid="{6A942C88-53E3-47AE-B82C-1181D60E3636}"/>
-    <hyperlink ref="F47" r:id="rId90" xr:uid="{F3B78FE0-8384-415D-8363-10202840412A}"/>
-    <hyperlink ref="L47" r:id="rId91" xr:uid="{26D42EA7-5B55-40D4-AD43-B372F9EC76EB}"/>
-    <hyperlink ref="F48" r:id="rId92" xr:uid="{6E3C4B3A-3042-422B-B45A-98307A237582}"/>
-    <hyperlink ref="L48" r:id="rId93" xr:uid="{B2263E0F-948F-4EB5-A8C8-15CED116A235}"/>
-    <hyperlink ref="F49" r:id="rId94" xr:uid="{05F3033C-94C2-4C40-8226-22C1A5C21932}"/>
-    <hyperlink ref="L49" r:id="rId95" xr:uid="{A4BFDBDF-B2E8-4DE6-9736-A5560A6EFAE9}"/>
-    <hyperlink ref="F50" r:id="rId96" xr:uid="{4D5D3F74-44AD-44C2-9863-0B6D3ABB6ECE}"/>
-    <hyperlink ref="L50" r:id="rId97" xr:uid="{AED21175-E45B-4EF0-9D7D-9939C726F218}"/>
-    <hyperlink ref="F51" r:id="rId98" xr:uid="{58907F31-65EC-4D9F-98A9-473AA612F132}"/>
-    <hyperlink ref="L51" r:id="rId99" xr:uid="{C08A5FB8-E049-4DF5-9980-F039779612E2}"/>
-    <hyperlink ref="F52" r:id="rId100" xr:uid="{5132A192-C9F7-445E-B724-FF0FE47B0BA5}"/>
-    <hyperlink ref="L52" r:id="rId101" xr:uid="{FD65C244-C8B9-42F0-B5E3-AE9E79ABD636}"/>
-    <hyperlink ref="F53" r:id="rId102" xr:uid="{45397676-4323-4A95-A90B-DC8F1461260C}"/>
-    <hyperlink ref="L53" r:id="rId103" xr:uid="{3B3450C7-F9AC-4AF3-97AF-348100E67258}"/>
-    <hyperlink ref="F54" r:id="rId104" xr:uid="{115B1EFA-63B2-4C3E-ACE3-58732D3FF570}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{1A9E3271-C243-4A1F-AB36-FF1A98764E8C}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{E2B23590-1EAC-4FA4-A9E0-CE4C0118D512}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{5B89855F-E80E-496D-8F47-13EF9FBE8A43}"/>
+    <hyperlink ref="L3" r:id="rId4" xr:uid="{7645100D-898F-4C1F-9392-61B97F74F8FB}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{615F0EE0-9395-42E2-AECE-38C01683CD5B}"/>
+    <hyperlink ref="L4" r:id="rId6" xr:uid="{7B27CF27-AD1F-42FC-8D97-14E205E440B5}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{468DA0D8-CC39-4BF5-BABB-BC85323C8DFC}"/>
+    <hyperlink ref="L5" r:id="rId8" xr:uid="{92448622-6D97-4DAF-A8F9-CB17A98F85CD}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{4440C2F6-3E28-4B91-8864-640DFF041C0D}"/>
+    <hyperlink ref="L6" r:id="rId10" xr:uid="{308827BB-42AE-4825-A30F-143C1CD43FEE}"/>
+    <hyperlink ref="F7" r:id="rId11" xr:uid="{227D7290-7C52-4A2A-9CC2-BD98CCFE6F8E}"/>
+    <hyperlink ref="L7" r:id="rId12" xr:uid="{34721B28-F62D-436F-BF93-49F1257B8749}"/>
+    <hyperlink ref="F8" r:id="rId13" xr:uid="{E056F04D-78EA-4214-9E0C-CB0F7539C591}"/>
+    <hyperlink ref="L8" r:id="rId14" xr:uid="{5470DB60-359F-479D-8412-9A020E03CD97}"/>
+    <hyperlink ref="F9" r:id="rId15" xr:uid="{FB6FE578-D6C3-461D-BA46-3A729E8E7603}"/>
+    <hyperlink ref="L9" r:id="rId16" xr:uid="{6A34982B-BE9B-4802-BA26-7592FE218B01}"/>
+    <hyperlink ref="F10" r:id="rId17" xr:uid="{E5FE9B0B-03D1-4388-9C32-97E7CD697E75}"/>
+    <hyperlink ref="L10" r:id="rId18" xr:uid="{A194F3CA-2362-4011-AA71-89B261D88E86}"/>
+    <hyperlink ref="F11" r:id="rId19" xr:uid="{99863153-8B22-4F8B-83BF-A5F9ACC324EB}"/>
+    <hyperlink ref="L11" r:id="rId20" xr:uid="{81C9B2F5-CA4D-4428-8D97-2C19391EEEB3}"/>
+    <hyperlink ref="F12" r:id="rId21" xr:uid="{F85913E4-DFA3-430E-A070-C93E7B6B1499}"/>
+    <hyperlink ref="L12" r:id="rId22" xr:uid="{6821CDCE-E137-4961-9D21-102A68DD1F21}"/>
+    <hyperlink ref="F13" r:id="rId23" xr:uid="{4E339283-EB92-49B8-A8C2-F12C8DEA7CCE}"/>
+    <hyperlink ref="L13" r:id="rId24" xr:uid="{39D564D8-6D4E-463A-A8A1-38E8C11330FD}"/>
+    <hyperlink ref="F14" r:id="rId25" xr:uid="{B8C8C33D-B34D-4D56-B4A5-79644C852C8A}"/>
+    <hyperlink ref="L14" r:id="rId26" xr:uid="{3304E15A-9070-4D68-9472-AA6DE077DCA4}"/>
+    <hyperlink ref="F15" r:id="rId27" xr:uid="{F8F216AE-B16E-4D2C-B00E-27552FB5CC0F}"/>
+    <hyperlink ref="L15" r:id="rId28" xr:uid="{9FA81494-77CD-4D26-9BF9-D77C54171F7F}"/>
+    <hyperlink ref="F16" r:id="rId29" xr:uid="{8B89EC89-473E-45A5-B0BC-E8C34FC415B5}"/>
+    <hyperlink ref="L16" r:id="rId30" xr:uid="{59A7D904-E91D-4C56-A044-1A3869202CB1}"/>
+    <hyperlink ref="F17" r:id="rId31" xr:uid="{7FC7BB3B-7E5A-4165-A592-304BFBCFF811}"/>
+    <hyperlink ref="L17" r:id="rId32" xr:uid="{2F28DC37-CF1F-4AA8-B101-358D68A2CC17}"/>
+    <hyperlink ref="F18" r:id="rId33" xr:uid="{02EA0235-5DBF-40A1-962F-208D68CAA578}"/>
+    <hyperlink ref="L18" r:id="rId34" xr:uid="{9B28C21A-FDB4-49A5-82E1-5741E62E5091}"/>
+    <hyperlink ref="F19" r:id="rId35" xr:uid="{B4F98FEB-BEBC-4B2D-920D-BA5FDDC92476}"/>
+    <hyperlink ref="L19" r:id="rId36" xr:uid="{101B39F1-A114-4B76-BCC9-B6C7B49F467A}"/>
+    <hyperlink ref="F20" r:id="rId37" xr:uid="{D6C82C19-6C98-4276-9823-D9CA02B2B4FB}"/>
+    <hyperlink ref="L20" r:id="rId38" xr:uid="{0A898026-5825-4EE0-ACF1-AB2E8287F281}"/>
+    <hyperlink ref="F21" r:id="rId39" xr:uid="{1F36C0A1-26EE-4514-804E-C47817B3525E}"/>
+    <hyperlink ref="L21" r:id="rId40" xr:uid="{E12786E4-1F4E-495D-9C7C-0E2441CE9CC5}"/>
+    <hyperlink ref="F22" r:id="rId41" xr:uid="{15FB68F8-7F57-464E-A916-68A3378B6987}"/>
+    <hyperlink ref="L22" r:id="rId42" xr:uid="{08208EAD-36D7-4771-BB42-9FB62F2014E3}"/>
+    <hyperlink ref="F23" r:id="rId43" xr:uid="{0ED01FC2-534B-4807-8B77-1B5B677F41D9}"/>
+    <hyperlink ref="L23" r:id="rId44" xr:uid="{13B5EDDC-F974-4B91-ADCD-BDB21020BF8F}"/>
+    <hyperlink ref="F24" r:id="rId45" xr:uid="{37AE6A7F-0C43-458A-AD20-88F208C457ED}"/>
+    <hyperlink ref="L24" r:id="rId46" xr:uid="{D2CE8C43-EDF6-4A87-A826-778AE142ECE4}"/>
+    <hyperlink ref="F25" r:id="rId47" xr:uid="{8FE08516-9F99-4AA2-A3C3-F9067EBF98B1}"/>
+    <hyperlink ref="L25" r:id="rId48" xr:uid="{26A0C9FB-57FD-4039-90DB-898A5D8D77D0}"/>
+    <hyperlink ref="F26" r:id="rId49" xr:uid="{6977EDEA-FC56-410B-AA85-44E101410DCF}"/>
+    <hyperlink ref="L26" r:id="rId50" xr:uid="{87B059DA-B01C-4D41-8BA1-0341DCD23332}"/>
+    <hyperlink ref="F27" r:id="rId51" display="https://drive.google.com/file/d/1buDrBqk4rHcGLbKKMJHOEOM9AOosdrVF/view?usp=drive_link" xr:uid="{9FCBACD8-81D9-4EFE-B6D7-AF7239CB74AB}"/>
+    <hyperlink ref="L27" r:id="rId52" xr:uid="{BD1D3334-EDE0-45C9-AEEC-04AE382F8249}"/>
+    <hyperlink ref="F28" r:id="rId53" xr:uid="{573415CE-60BA-4B78-8A1E-9099D7F3E038}"/>
+    <hyperlink ref="L28" r:id="rId54" xr:uid="{08938F7F-D86D-4F58-AFDC-1FE25BB028E3}"/>
+    <hyperlink ref="F29" r:id="rId55" xr:uid="{6EC6CAD9-ACFC-4BE6-A2EA-67233CAD3A0D}"/>
+    <hyperlink ref="L29" r:id="rId56" xr:uid="{9BE6F63D-D08B-4526-A657-E32521B8C9D3}"/>
+    <hyperlink ref="F30" r:id="rId57" xr:uid="{9B50474B-57E4-4017-A95F-4B4966BB4885}"/>
+    <hyperlink ref="L30" r:id="rId58" xr:uid="{22991313-9BC8-46A8-A7D9-1A2424E86CCB}"/>
+    <hyperlink ref="F31" r:id="rId59" xr:uid="{7A84550F-DC76-4E95-A6C5-04810FD78348}"/>
+    <hyperlink ref="L31" r:id="rId60" xr:uid="{54EC66E7-610B-4121-A48A-4826C98BE0F2}"/>
+    <hyperlink ref="F32" r:id="rId61" xr:uid="{48CAA465-1D85-407E-9007-51022DA72B83}"/>
+    <hyperlink ref="L32" r:id="rId62" xr:uid="{AB0C4FCD-F143-4110-B94E-E0DB57820DDC}"/>
+    <hyperlink ref="F33" r:id="rId63" xr:uid="{364D8E9D-8B31-4C7A-954B-D3F0B6D98BB5}"/>
+    <hyperlink ref="L33" r:id="rId64" xr:uid="{3924EB23-7E9D-42B2-ACBA-AEFC9AFC559E}"/>
+    <hyperlink ref="F34" r:id="rId65" xr:uid="{25DB8941-4BD2-4E6D-98CB-0CE45955AEA2}"/>
+    <hyperlink ref="L34" r:id="rId66" xr:uid="{BADDF800-8E62-43B1-91FF-20BE6AFFCA83}"/>
+    <hyperlink ref="F35" r:id="rId67" xr:uid="{AA920837-3829-4003-9292-1C836CE76402}"/>
+    <hyperlink ref="L35" r:id="rId68" xr:uid="{B729CDFD-9E43-471F-B049-A0FD53443672}"/>
+    <hyperlink ref="F36" r:id="rId69" xr:uid="{0F718455-3CBE-4BAD-B9EC-66DEB64BB6CB}"/>
+    <hyperlink ref="L36" r:id="rId70" xr:uid="{59021BB4-D69C-4175-A71F-8F7FE4B4E105}"/>
+    <hyperlink ref="F37" r:id="rId71" xr:uid="{D8836895-4C4D-4ECF-B95F-63CA440CC4C3}"/>
+    <hyperlink ref="L37" r:id="rId72" xr:uid="{43B9D0CF-921F-4D53-9D77-E193D1C57B87}"/>
+    <hyperlink ref="F38" r:id="rId73" xr:uid="{C48E3F36-DA40-4C78-8268-88FF7FCB75D2}"/>
+    <hyperlink ref="L38" r:id="rId74" xr:uid="{BA4C8334-5254-45D4-BE7F-135374242526}"/>
+    <hyperlink ref="F39" r:id="rId75" xr:uid="{063F851B-7AAE-4C8A-B930-04A84F745DDC}"/>
+    <hyperlink ref="L39" r:id="rId76" xr:uid="{03E922B1-786D-4679-9826-37734C8FFC0A}"/>
+    <hyperlink ref="F40" r:id="rId77" xr:uid="{3C0482FA-8181-49A5-BFC8-6E1EDF280594}"/>
+    <hyperlink ref="L40" r:id="rId78" xr:uid="{BD015D12-4882-4514-B0B5-C183CC295AEB}"/>
+    <hyperlink ref="F41" r:id="rId79" xr:uid="{C50FD9C9-BF13-4D18-BD2C-B496F0104030}"/>
+    <hyperlink ref="L41" r:id="rId80" xr:uid="{76BA7AE5-A037-4080-B3B3-15AA9E809D01}"/>
+    <hyperlink ref="F42" r:id="rId81" xr:uid="{71834B84-545F-4996-8B3C-24CB0842D515}"/>
+    <hyperlink ref="F43" r:id="rId82" xr:uid="{EF536370-19A6-4EB4-866C-E57E376F769B}"/>
+    <hyperlink ref="L43" r:id="rId83" xr:uid="{851A823C-8DAC-450D-95AB-F95D736E76C5}"/>
+    <hyperlink ref="F44" r:id="rId84" xr:uid="{61D760F2-2E18-4261-912B-76A0730B0F00}"/>
+    <hyperlink ref="L44" r:id="rId85" xr:uid="{14864933-4DE9-438B-BFBE-D1E134754A42}"/>
+    <hyperlink ref="F45" r:id="rId86" xr:uid="{96503EA5-D6BB-4CF9-8F70-18662F702F44}"/>
+    <hyperlink ref="L45" r:id="rId87" xr:uid="{601B6B65-861E-4F3F-A19C-E8F751090401}"/>
+    <hyperlink ref="F46" r:id="rId88" xr:uid="{24B5D26D-E1BD-4EBA-A931-554B6E2AB33E}"/>
+    <hyperlink ref="L46" r:id="rId89" xr:uid="{DDF161F9-B336-44E8-88C9-40358EAD65C2}"/>
+    <hyperlink ref="F47" r:id="rId90" xr:uid="{78D405F3-2965-4C5D-992A-816A0F71E55E}"/>
+    <hyperlink ref="L47" r:id="rId91" xr:uid="{9EAF3A5B-6A7A-4DBB-B09F-E53251F6F4FD}"/>
+    <hyperlink ref="F48" r:id="rId92" xr:uid="{142F4738-53D8-43E8-B6E3-3A162509C9EB}"/>
+    <hyperlink ref="L48" r:id="rId93" xr:uid="{5424D7EC-9836-4176-B75F-DCB6C56B7959}"/>
+    <hyperlink ref="F49" r:id="rId94" xr:uid="{F62DF32C-137B-47F1-B3A3-B80B9CEF887F}"/>
+    <hyperlink ref="L49" r:id="rId95" xr:uid="{B87864AA-E400-4BD1-8F77-92B37A3105BF}"/>
+    <hyperlink ref="F50" r:id="rId96" xr:uid="{715738C8-7D32-453F-BCAF-DDCC21B8C774}"/>
+    <hyperlink ref="L50" r:id="rId97" xr:uid="{EBFECB34-2509-47A8-B873-53C1AA38CC90}"/>
+    <hyperlink ref="F51" r:id="rId98" xr:uid="{867CA44A-BF55-4C9A-A314-3520F585C96F}"/>
+    <hyperlink ref="L51" r:id="rId99" xr:uid="{E951E33B-EDE7-4B0E-A7D1-A959FEDBD6B6}"/>
+    <hyperlink ref="F52" r:id="rId100" xr:uid="{782A10AE-5D08-4765-A8A7-11C730FD2AE6}"/>
+    <hyperlink ref="L52" r:id="rId101" xr:uid="{F2480C6A-3363-4DE3-93A6-A7DFC8FF4013}"/>
+    <hyperlink ref="F53" r:id="rId102" xr:uid="{E77879C5-C53A-45FA-941B-1243FAF3C582}"/>
+    <hyperlink ref="L53" r:id="rId103" xr:uid="{B1937C42-5FEC-49F2-9420-484307FDA0E7}"/>
+    <hyperlink ref="F54" r:id="rId104" xr:uid="{9A8D4369-3A9B-4E74-86E1-2F3C671628DC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId105"/>

--- a/alunos.xlsx
+++ b/alunos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leticia\Documents\Letícia\Repositórios\latelie_de_verao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097EAF57-E41A-4C44-B7BC-294B31644F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C641D-57A8-4183-AD67-960AAB546516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BD735D1-F3B0-4DC0-AB17-30AB545D3AA1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="394">
   <si>
     <t xml:space="preserve">Nome completo
 </t>
@@ -1216,6 +1216,12 @@
   </si>
   <si>
     <t>Qntd. de Palavras Atv. 6</t>
+  </si>
+  <si>
+    <t>Atividade 7</t>
+  </si>
+  <si>
+    <t>Qntd. de Palavras Atv. 7</t>
   </si>
 </sst>
 </file>
@@ -1944,11 +1950,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C2AB94-8371-415B-B15C-673BF998D579}">
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1972,7 +1976,7 @@
     <col min="27" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2030,29 +2034,35 @@
       <c r="S1" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -2110,12 +2120,12 @@
       <c r="S2" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="U2" s="11">
         <v>207</v>
       </c>
-      <c r="U2" s="12">
-        <v>0</v>
-      </c>
       <c r="V2" s="12">
         <v>0</v>
       </c>
@@ -2129,10 +2139,16 @@
         <v>0</v>
       </c>
       <c r="Z2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="12">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
@@ -2190,29 +2206,35 @@
       <c r="S3" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U3" s="17">
         <v>645</v>
       </c>
-      <c r="U3" s="18">
+      <c r="V3" s="18">
         <v>1170</v>
       </c>
-      <c r="V3" s="18">
+      <c r="W3" s="18">
         <v>376</v>
       </c>
-      <c r="W3" s="18">
+      <c r="X3" s="18">
         <v>970</v>
       </c>
-      <c r="X3" s="18">
+      <c r="Y3" s="18">
         <v>465</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="Z3" s="18">
         <v>314</v>
       </c>
-      <c r="Z3" s="18">
-        <v>3940</v>
+      <c r="AA3" s="18">
+        <v>535</v>
+      </c>
+      <c r="AB3" s="18">
+        <v>4475</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -2270,15 +2292,15 @@
       <c r="S4" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="U4" s="11">
         <v>243</v>
       </c>
-      <c r="U4" s="12">
+      <c r="V4" s="12">
         <v>358</v>
       </c>
-      <c r="V4" s="12">
-        <v>0</v>
-      </c>
       <c r="W4" s="12">
         <v>0</v>
       </c>
@@ -2289,10 +2311,16 @@
         <v>0</v>
       </c>
       <c r="Z4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="12">
         <v>601</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>48</v>
       </c>
@@ -2350,29 +2378,35 @@
       <c r="S5" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U5" s="17">
         <v>1992</v>
       </c>
-      <c r="U5" s="18">
+      <c r="V5" s="18">
         <v>3976</v>
       </c>
-      <c r="V5" s="18">
+      <c r="W5" s="18">
         <v>2344</v>
       </c>
-      <c r="W5" s="18">
+      <c r="X5" s="18">
         <v>2995</v>
       </c>
-      <c r="X5" s="18">
+      <c r="Y5" s="18">
         <v>515</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Z5" s="18">
         <v>1070</v>
       </c>
-      <c r="Z5" s="18">
-        <v>12892</v>
+      <c r="AA5" s="18">
+        <v>2077</v>
+      </c>
+      <c r="AB5" s="18">
+        <v>14969</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>55</v>
       </c>
@@ -2430,29 +2464,35 @@
       <c r="S6" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U6" s="11">
         <v>1870</v>
       </c>
-      <c r="U6" s="12">
+      <c r="V6" s="12">
         <v>1383</v>
       </c>
-      <c r="V6" s="12">
+      <c r="W6" s="12">
         <v>495</v>
       </c>
-      <c r="W6" s="12">
+      <c r="X6" s="12">
         <v>1317</v>
       </c>
-      <c r="X6" s="12">
+      <c r="Y6" s="12">
         <v>284</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Z6" s="12">
         <v>918</v>
       </c>
-      <c r="Z6" s="12">
-        <v>6267</v>
+      <c r="AA6" s="12">
+        <v>1416</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>7683</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>61</v>
       </c>
@@ -2510,29 +2550,35 @@
       <c r="S7" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U7" s="17">
         <v>514</v>
       </c>
-      <c r="U7" s="18">
+      <c r="V7" s="18">
         <v>868</v>
       </c>
-      <c r="V7" s="18">
+      <c r="W7" s="18">
         <v>86</v>
       </c>
-      <c r="W7" s="18">
-        <v>0</v>
-      </c>
       <c r="X7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18">
         <v>469</v>
       </c>
-      <c r="Y7" s="18">
-        <v>0</v>
-      </c>
       <c r="Z7" s="18">
-        <v>1937</v>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>370</v>
+      </c>
+      <c r="AB7" s="18">
+        <v>2307</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>68</v>
       </c>
@@ -2590,29 +2636,35 @@
       <c r="S8" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U8" s="11">
         <v>269</v>
       </c>
-      <c r="U8" s="12">
+      <c r="V8" s="12">
         <v>474</v>
       </c>
-      <c r="V8" s="12">
+      <c r="W8" s="12">
         <v>320</v>
       </c>
-      <c r="W8" s="12">
+      <c r="X8" s="12">
         <v>56</v>
       </c>
-      <c r="X8" s="12">
+      <c r="Y8" s="12">
         <v>405</v>
       </c>
-      <c r="Y8" s="12">
-        <v>0</v>
-      </c>
       <c r="Z8" s="12">
-        <v>1524</v>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>259</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>1783</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>75</v>
       </c>
@@ -2670,29 +2722,35 @@
       <c r="S9" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U9" s="17">
         <v>261</v>
       </c>
-      <c r="U9" s="18">
+      <c r="V9" s="18">
         <v>766</v>
       </c>
-      <c r="V9" s="18">
+      <c r="W9" s="18">
         <v>478</v>
       </c>
-      <c r="W9" s="18">
+      <c r="X9" s="18">
         <v>608</v>
       </c>
-      <c r="X9" s="18">
-        <v>0</v>
-      </c>
       <c r="Y9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="18">
         <v>274</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="AA9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="18">
         <v>2387</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>83</v>
       </c>
@@ -2750,29 +2808,35 @@
       <c r="S10" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U10" s="11">
         <v>355</v>
       </c>
-      <c r="U10" s="12">
+      <c r="V10" s="12">
         <v>868</v>
       </c>
-      <c r="V10" s="12">
+      <c r="W10" s="12">
         <v>420</v>
       </c>
-      <c r="W10" s="12">
+      <c r="X10" s="12">
         <v>926</v>
       </c>
-      <c r="X10" s="12">
+      <c r="Y10" s="12">
         <v>478</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Z10" s="12">
         <v>84</v>
       </c>
-      <c r="Z10" s="12">
+      <c r="AA10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="12">
         <v>3131</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>91</v>
       </c>
@@ -2830,29 +2894,35 @@
       <c r="S11" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U11" s="17">
         <v>549</v>
       </c>
-      <c r="U11" s="18">
+      <c r="V11" s="18">
         <v>3324</v>
       </c>
-      <c r="V11" s="18">
+      <c r="W11" s="18">
         <v>1745</v>
       </c>
-      <c r="W11" s="18">
+      <c r="X11" s="18">
         <v>4349</v>
       </c>
-      <c r="X11" s="18">
+      <c r="Y11" s="18">
         <v>782</v>
       </c>
-      <c r="Y11" s="18">
+      <c r="Z11" s="18">
         <v>816</v>
       </c>
-      <c r="Z11" s="18">
-        <v>11565</v>
+      <c r="AA11" s="18">
+        <v>610</v>
+      </c>
+      <c r="AB11" s="18">
+        <v>12175</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>97</v>
       </c>
@@ -2910,12 +2980,12 @@
       <c r="S12" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="U12" s="11">
         <v>789</v>
       </c>
-      <c r="U12" s="12">
-        <v>0</v>
-      </c>
       <c r="V12" s="12">
         <v>0</v>
       </c>
@@ -2929,10 +2999,16 @@
         <v>0</v>
       </c>
       <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
         <v>789</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>105</v>
       </c>
@@ -2990,29 +3066,35 @@
       <c r="S13" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U13" s="17">
         <v>783</v>
       </c>
-      <c r="U13" s="18">
+      <c r="V13" s="18">
         <v>1466</v>
       </c>
-      <c r="V13" s="18">
+      <c r="W13" s="18">
         <v>741</v>
       </c>
-      <c r="W13" s="18">
+      <c r="X13" s="18">
         <v>2831</v>
       </c>
-      <c r="X13" s="18">
+      <c r="Y13" s="18">
         <v>1237</v>
       </c>
-      <c r="Y13" s="18">
+      <c r="Z13" s="18">
         <v>1361</v>
       </c>
-      <c r="Z13" s="18">
-        <v>8419</v>
+      <c r="AA13" s="18">
+        <v>1106</v>
+      </c>
+      <c r="AB13" s="18">
+        <v>9525</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>112</v>
       </c>
@@ -3070,29 +3152,35 @@
       <c r="S14" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="U14" s="11">
         <v>565</v>
       </c>
-      <c r="U14" s="12">
+      <c r="V14" s="12">
         <v>884</v>
       </c>
-      <c r="V14" s="12">
-        <v>0</v>
-      </c>
       <c r="W14" s="12">
+        <v>0</v>
+      </c>
+      <c r="X14" s="12">
         <v>967</v>
       </c>
-      <c r="X14" s="12">
+      <c r="Y14" s="12">
         <v>396</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Z14" s="12">
         <v>655</v>
       </c>
-      <c r="Z14" s="12">
+      <c r="AA14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="12">
         <v>3467</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>121</v>
       </c>
@@ -3150,29 +3238,35 @@
       <c r="S15" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T15" s="17">
+      <c r="T15" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="U15" s="17">
         <v>394</v>
       </c>
-      <c r="U15" s="18">
+      <c r="V15" s="18">
         <v>1845</v>
       </c>
-      <c r="V15" s="18">
+      <c r="W15" s="18">
         <v>1041</v>
       </c>
-      <c r="W15" s="18">
+      <c r="X15" s="18">
         <v>1841</v>
       </c>
-      <c r="X15" s="18">
+      <c r="Y15" s="18">
         <v>619</v>
       </c>
-      <c r="Y15" s="18">
+      <c r="Z15" s="18">
         <v>835</v>
       </c>
-      <c r="Z15" s="18">
+      <c r="AA15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="18">
         <v>6575</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>127</v>
       </c>
@@ -3230,29 +3324,35 @@
       <c r="S16" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U16" s="11">
         <v>1935</v>
       </c>
-      <c r="U16" s="12">
+      <c r="V16" s="12">
         <v>1620</v>
       </c>
-      <c r="V16" s="12">
+      <c r="W16" s="12">
         <v>759</v>
       </c>
-      <c r="W16" s="12">
+      <c r="X16" s="12">
         <v>3119</v>
       </c>
-      <c r="X16" s="12">
+      <c r="Y16" s="12">
         <v>925</v>
       </c>
-      <c r="Y16" s="12">
+      <c r="Z16" s="12">
         <v>333</v>
       </c>
-      <c r="Z16" s="12">
-        <v>8691</v>
+      <c r="AA16" s="12">
+        <v>1770</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>10461</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>133</v>
       </c>
@@ -3310,29 +3410,35 @@
       <c r="S17" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T17" s="17">
+      <c r="T17" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U17" s="17">
         <v>683</v>
       </c>
-      <c r="U17" s="18">
-        <v>0</v>
-      </c>
       <c r="V17" s="18">
         <v>0</v>
       </c>
       <c r="W17" s="18">
+        <v>0</v>
+      </c>
+      <c r="X17" s="18">
         <v>943</v>
       </c>
-      <c r="X17" s="18">
-        <v>0</v>
-      </c>
       <c r="Y17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="18">
         <v>571</v>
       </c>
-      <c r="Z17" s="18">
-        <v>2197</v>
+      <c r="AA17" s="18">
+        <v>595</v>
+      </c>
+      <c r="AB17" s="18">
+        <v>2792</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>140</v>
       </c>
@@ -3390,29 +3496,35 @@
       <c r="S18" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U18" s="11">
         <v>908</v>
       </c>
-      <c r="U18" s="12">
+      <c r="V18" s="12">
         <v>1612</v>
       </c>
-      <c r="V18" s="12">
+      <c r="W18" s="12">
         <v>681</v>
       </c>
-      <c r="W18" s="12">
+      <c r="X18" s="12">
         <v>1092</v>
       </c>
-      <c r="X18" s="12">
+      <c r="Y18" s="12">
         <v>905</v>
       </c>
-      <c r="Y18" s="12">
+      <c r="Z18" s="12">
         <v>324</v>
       </c>
-      <c r="Z18" s="12">
-        <v>5522</v>
+      <c r="AA18" s="12">
+        <v>1160</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>6682</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>147</v>
       </c>
@@ -3470,29 +3582,35 @@
       <c r="S19" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T19" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U19" s="17">
         <v>818</v>
       </c>
-      <c r="U19" s="18">
+      <c r="V19" s="18">
         <v>1226</v>
       </c>
-      <c r="V19" s="18">
-        <v>0</v>
-      </c>
       <c r="W19" s="18">
+        <v>0</v>
+      </c>
+      <c r="X19" s="18">
         <v>1251</v>
       </c>
-      <c r="X19" s="18">
+      <c r="Y19" s="18">
         <v>600</v>
       </c>
-      <c r="Y19" s="18">
-        <v>0</v>
-      </c>
       <c r="Z19" s="18">
-        <v>3895</v>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="18">
+        <v>555</v>
+      </c>
+      <c r="AB19" s="18">
+        <v>4450</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>154</v>
       </c>
@@ -3550,29 +3668,35 @@
       <c r="S20" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U20" s="11">
         <v>720</v>
       </c>
-      <c r="U20" s="12">
+      <c r="V20" s="12">
         <v>1177</v>
       </c>
-      <c r="V20" s="12">
+      <c r="W20" s="12">
         <v>1256</v>
       </c>
-      <c r="W20" s="12">
+      <c r="X20" s="12">
         <v>780</v>
       </c>
-      <c r="X20" s="12">
+      <c r="Y20" s="12">
         <v>1067</v>
       </c>
-      <c r="Y20" s="12">
+      <c r="Z20" s="12">
         <v>483</v>
       </c>
-      <c r="Z20" s="12">
-        <v>5483</v>
+      <c r="AA20" s="12">
+        <v>720</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>6203</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>161</v>
       </c>
@@ -3630,29 +3754,35 @@
       <c r="S21" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="T21" s="17">
+      <c r="T21" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U21" s="17">
         <v>964</v>
       </c>
-      <c r="U21" s="18">
+      <c r="V21" s="18">
         <v>575</v>
       </c>
-      <c r="V21" s="18">
+      <c r="W21" s="18">
         <v>760</v>
       </c>
-      <c r="W21" s="18">
+      <c r="X21" s="18">
         <v>1032</v>
       </c>
-      <c r="X21" s="18">
+      <c r="Y21" s="18">
         <v>235</v>
       </c>
-      <c r="Y21" s="18">
-        <v>0</v>
-      </c>
       <c r="Z21" s="18">
-        <v>3566</v>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="18">
+        <v>372</v>
+      </c>
+      <c r="AB21" s="18">
+        <v>3938</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>167</v>
       </c>
@@ -3710,29 +3840,35 @@
       <c r="S22" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U22" s="11">
         <v>5001</v>
       </c>
-      <c r="U22" s="12">
+      <c r="V22" s="12">
         <v>7230</v>
       </c>
-      <c r="V22" s="12">
+      <c r="W22" s="12">
         <v>5756</v>
       </c>
-      <c r="W22" s="12">
+      <c r="X22" s="12">
         <v>13912</v>
       </c>
-      <c r="X22" s="12">
+      <c r="Y22" s="12">
         <v>909</v>
       </c>
-      <c r="Y22" s="12">
+      <c r="Z22" s="12">
         <v>2260</v>
       </c>
-      <c r="Z22" s="12">
-        <v>35068</v>
+      <c r="AA22" s="12">
+        <v>1391</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>36459</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>174</v>
       </c>
@@ -3790,29 +3926,35 @@
       <c r="S23" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T23" s="17">
+      <c r="T23" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U23" s="17">
         <v>490</v>
       </c>
-      <c r="U23" s="18">
+      <c r="V23" s="18">
         <v>696</v>
       </c>
-      <c r="V23" s="18">
+      <c r="W23" s="18">
         <v>245</v>
       </c>
-      <c r="W23" s="18">
+      <c r="X23" s="18">
         <v>878</v>
       </c>
-      <c r="X23" s="18">
+      <c r="Y23" s="18">
         <v>615</v>
       </c>
-      <c r="Y23" s="18">
+      <c r="Z23" s="18">
         <v>58</v>
       </c>
-      <c r="Z23" s="18">
-        <v>2982</v>
+      <c r="AA23" s="18">
+        <v>1130</v>
+      </c>
+      <c r="AB23" s="18">
+        <v>4112</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>180</v>
       </c>
@@ -3870,12 +4012,12 @@
       <c r="S24" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="U24" s="11">
         <v>446</v>
       </c>
-      <c r="U24" s="12">
-        <v>0</v>
-      </c>
       <c r="V24" s="12">
         <v>0</v>
       </c>
@@ -3889,10 +4031,16 @@
         <v>0</v>
       </c>
       <c r="Z24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="12">
         <v>446</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>187</v>
       </c>
@@ -3950,12 +4098,12 @@
       <c r="S25" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="T25" s="17">
+      <c r="T25" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="U25" s="17">
         <v>543</v>
       </c>
-      <c r="U25" s="18">
-        <v>0</v>
-      </c>
       <c r="V25" s="18">
         <v>0</v>
       </c>
@@ -3969,10 +4117,16 @@
         <v>0</v>
       </c>
       <c r="Z25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="18">
         <v>543</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>192</v>
       </c>
@@ -4030,29 +4184,35 @@
       <c r="S26" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U26" s="11">
         <v>1145</v>
       </c>
-      <c r="U26" s="12">
+      <c r="V26" s="12">
         <v>1820</v>
       </c>
-      <c r="V26" s="12">
+      <c r="W26" s="12">
         <v>1340</v>
       </c>
-      <c r="W26" s="12">
+      <c r="X26" s="12">
         <v>875</v>
       </c>
-      <c r="X26" s="12">
+      <c r="Y26" s="12">
         <v>547</v>
       </c>
-      <c r="Y26" s="12">
+      <c r="Z26" s="12">
         <v>83</v>
       </c>
-      <c r="Z26" s="12">
-        <v>5810</v>
+      <c r="AA26" s="12">
+        <v>1012</v>
+      </c>
+      <c r="AB26" s="12">
+        <v>6822</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>198</v>
       </c>
@@ -4110,29 +4270,35 @@
       <c r="S27" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T27" s="17">
+      <c r="T27" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U27" s="17">
         <v>607</v>
       </c>
-      <c r="U27" s="18">
+      <c r="V27" s="18">
         <v>808</v>
       </c>
-      <c r="V27" s="18">
+      <c r="W27" s="18">
         <v>778</v>
       </c>
-      <c r="W27" s="18">
+      <c r="X27" s="18">
         <v>509</v>
       </c>
-      <c r="X27" s="18">
+      <c r="Y27" s="18">
         <v>620</v>
       </c>
-      <c r="Y27" s="18">
+      <c r="Z27" s="18">
         <v>254</v>
       </c>
-      <c r="Z27" s="18">
-        <v>3576</v>
+      <c r="AA27" s="18">
+        <v>468</v>
+      </c>
+      <c r="AB27" s="18">
+        <v>4044</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>204</v>
       </c>
@@ -4190,29 +4356,35 @@
       <c r="S28" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="T28" s="11">
+      <c r="T28" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="U28" s="11">
         <v>555</v>
       </c>
-      <c r="U28" s="12">
+      <c r="V28" s="12">
         <v>445</v>
       </c>
-      <c r="V28" s="12">
-        <v>0</v>
-      </c>
       <c r="W28" s="12">
+        <v>0</v>
+      </c>
+      <c r="X28" s="12">
         <v>50</v>
       </c>
-      <c r="X28" s="12">
-        <v>0</v>
-      </c>
       <c r="Y28" s="12">
         <v>0</v>
       </c>
       <c r="Z28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="12">
         <v>1050</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>210</v>
       </c>
@@ -4270,10 +4442,10 @@
       <c r="S29" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="T29" s="17">
-        <v>0</v>
-      </c>
-      <c r="U29" s="18">
+      <c r="T29" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="U29" s="17">
         <v>0</v>
       </c>
       <c r="V29" s="18">
@@ -4291,8 +4463,14 @@
       <c r="Z29" s="18">
         <v>0</v>
       </c>
+      <c r="AA29" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>217</v>
       </c>
@@ -4350,10 +4528,10 @@
       <c r="S30" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="T30" s="11">
-        <v>0</v>
-      </c>
-      <c r="U30" s="12">
+      <c r="T30" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="U30" s="11">
         <v>0</v>
       </c>
       <c r="V30" s="12">
@@ -4371,8 +4549,14 @@
       <c r="Z30" s="12">
         <v>0</v>
       </c>
+      <c r="AA30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>223</v>
       </c>
@@ -4430,29 +4614,35 @@
       <c r="S31" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T31" s="17">
+      <c r="T31" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U31" s="17">
         <v>514</v>
       </c>
-      <c r="U31" s="18">
+      <c r="V31" s="18">
         <v>1382</v>
       </c>
-      <c r="V31" s="18">
+      <c r="W31" s="18">
         <v>1343</v>
       </c>
-      <c r="W31" s="18">
+      <c r="X31" s="18">
         <v>2288</v>
       </c>
-      <c r="X31" s="18">
+      <c r="Y31" s="18">
         <v>1374</v>
       </c>
-      <c r="Y31" s="18">
+      <c r="Z31" s="18">
         <v>1523</v>
       </c>
-      <c r="Z31" s="18">
-        <v>8424</v>
+      <c r="AA31" s="18">
+        <v>628</v>
+      </c>
+      <c r="AB31" s="18">
+        <v>9052</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>229</v>
       </c>
@@ -4510,27 +4700,33 @@
       <c r="S32" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="T32" s="11">
+      <c r="T32" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U32" s="11">
         <v>2234</v>
       </c>
-      <c r="U32" s="12">
+      <c r="V32" s="12">
         <v>3447</v>
       </c>
-      <c r="V32" s="12">
+      <c r="W32" s="12">
         <v>1127</v>
       </c>
-      <c r="W32" s="12">
+      <c r="X32" s="12">
         <v>751</v>
       </c>
-      <c r="X32" s="12">
+      <c r="Y32" s="12">
         <v>1316</v>
       </c>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="12">
-        <v>8875</v>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="12">
+        <v>473</v>
+      </c>
+      <c r="AB32" s="12">
+        <v>9348</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>237</v>
       </c>
@@ -4588,29 +4784,35 @@
       <c r="S33" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T33" s="17">
+      <c r="T33" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U33" s="17">
         <v>407</v>
       </c>
-      <c r="U33" s="18">
-        <v>0</v>
-      </c>
       <c r="V33" s="18">
+        <v>0</v>
+      </c>
+      <c r="W33" s="18">
         <v>761</v>
       </c>
-      <c r="W33" s="18">
+      <c r="X33" s="18">
         <v>906</v>
       </c>
-      <c r="X33" s="18">
+      <c r="Y33" s="18">
         <v>351</v>
       </c>
-      <c r="Y33" s="18">
+      <c r="Z33" s="18">
         <v>707</v>
       </c>
-      <c r="Z33" s="18">
-        <v>3132</v>
+      <c r="AA33" s="18">
+        <v>458</v>
+      </c>
+      <c r="AB33" s="18">
+        <v>3590</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>243</v>
       </c>
@@ -4668,29 +4870,35 @@
       <c r="S34" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="T34" s="11">
+      <c r="T34" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U34" s="11">
         <v>462</v>
       </c>
-      <c r="U34" s="12">
+      <c r="V34" s="12">
         <v>978</v>
       </c>
-      <c r="V34" s="12">
+      <c r="W34" s="12">
         <v>1281</v>
       </c>
-      <c r="W34" s="12">
+      <c r="X34" s="12">
         <v>1425</v>
       </c>
-      <c r="X34" s="12">
+      <c r="Y34" s="12">
         <v>284</v>
       </c>
-      <c r="Y34" s="12">
+      <c r="Z34" s="12">
         <v>613</v>
       </c>
-      <c r="Z34" s="12">
-        <v>5043</v>
+      <c r="AA34" s="12">
+        <v>375</v>
+      </c>
+      <c r="AB34" s="12">
+        <v>5418</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>250</v>
       </c>
@@ -4748,29 +4956,35 @@
       <c r="S35" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T35" s="17">
+      <c r="T35" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="U35" s="17">
         <v>658</v>
       </c>
-      <c r="U35" s="18">
+      <c r="V35" s="18">
         <v>709</v>
       </c>
-      <c r="V35" s="18">
+      <c r="W35" s="18">
         <v>818</v>
       </c>
-      <c r="W35" s="18">
-        <v>0</v>
-      </c>
       <c r="X35" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="18">
         <v>1124</v>
       </c>
-      <c r="Y35" s="18">
+      <c r="Z35" s="18">
         <v>586</v>
       </c>
-      <c r="Z35" s="18">
+      <c r="AA35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="18">
         <v>3895</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>256</v>
       </c>
@@ -4828,12 +5042,12 @@
       <c r="S36" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="T36" s="11">
+      <c r="T36" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="U36" s="11">
         <v>1350</v>
       </c>
-      <c r="U36" s="12">
-        <v>0</v>
-      </c>
       <c r="V36" s="12">
         <v>0</v>
       </c>
@@ -4847,10 +5061,16 @@
         <v>0</v>
       </c>
       <c r="Z36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="12">
         <v>1350</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>263</v>
       </c>
@@ -4908,15 +5128,15 @@
       <c r="S37" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="T37" s="17">
+      <c r="T37" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="U37" s="17">
         <v>2381</v>
       </c>
-      <c r="U37" s="18">
+      <c r="V37" s="18">
         <v>1268</v>
       </c>
-      <c r="V37" s="18">
-        <v>0</v>
-      </c>
       <c r="W37" s="18">
         <v>0</v>
       </c>
@@ -4927,10 +5147,16 @@
         <v>0</v>
       </c>
       <c r="Z37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="18">
         <v>3649</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>270</v>
       </c>
@@ -4988,12 +5214,12 @@
       <c r="S38" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="T38" s="11">
+      <c r="T38" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="U38" s="11">
         <v>1293</v>
       </c>
-      <c r="U38" s="12">
-        <v>0</v>
-      </c>
       <c r="V38" s="12">
         <v>0</v>
       </c>
@@ -5001,16 +5227,22 @@
         <v>0</v>
       </c>
       <c r="X38" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="12">
         <v>612</v>
       </c>
-      <c r="Y38" s="12">
-        <v>0</v>
-      </c>
       <c r="Z38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="12">
         <v>1905</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>276</v>
       </c>
@@ -5068,29 +5300,35 @@
       <c r="S39" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="T39" s="17">
+      <c r="T39" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="U39" s="17">
         <v>590</v>
       </c>
-      <c r="U39" s="18">
+      <c r="V39" s="18">
         <v>4626</v>
       </c>
-      <c r="V39" s="18">
-        <v>0</v>
-      </c>
       <c r="W39" s="18">
+        <v>0</v>
+      </c>
+      <c r="X39" s="18">
         <v>1920</v>
       </c>
-      <c r="X39" s="18">
-        <v>0</v>
-      </c>
       <c r="Y39" s="18">
         <v>0</v>
       </c>
       <c r="Z39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="18">
         <v>7136</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>282</v>
       </c>
@@ -5148,29 +5386,35 @@
       <c r="S40" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="T40" s="11">
+      <c r="T40" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U40" s="11">
         <v>2176</v>
       </c>
-      <c r="U40" s="12">
+      <c r="V40" s="12">
         <v>3627</v>
       </c>
-      <c r="V40" s="12">
+      <c r="W40" s="12">
         <v>1653</v>
       </c>
-      <c r="W40" s="12">
+      <c r="X40" s="12">
         <v>1954</v>
       </c>
-      <c r="X40" s="12">
+      <c r="Y40" s="12">
         <v>1269</v>
       </c>
-      <c r="Y40" s="12">
+      <c r="Z40" s="12">
         <v>474</v>
       </c>
-      <c r="Z40" s="12">
-        <v>11153</v>
+      <c r="AA40" s="12">
+        <v>407</v>
+      </c>
+      <c r="AB40" s="12">
+        <v>11560</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>289</v>
       </c>
@@ -5228,29 +5472,35 @@
       <c r="S41" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T41" s="17">
+      <c r="T41" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U41" s="17">
         <v>524</v>
       </c>
-      <c r="U41" s="18">
+      <c r="V41" s="18">
         <v>1259</v>
       </c>
-      <c r="V41" s="18">
+      <c r="W41" s="18">
         <v>1212</v>
       </c>
-      <c r="W41" s="18">
+      <c r="X41" s="18">
         <v>860</v>
       </c>
-      <c r="X41" s="18">
+      <c r="Y41" s="18">
         <v>1690</v>
       </c>
-      <c r="Y41" s="18">
+      <c r="Z41" s="18">
         <v>842</v>
       </c>
-      <c r="Z41" s="18">
-        <v>6387</v>
+      <c r="AA41" s="18">
+        <v>761</v>
+      </c>
+      <c r="AB41" s="18">
+        <v>7148</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>295</v>
       </c>
@@ -5306,29 +5556,35 @@
       <c r="S42" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="T42" s="11">
+      <c r="T42" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U42" s="11">
         <v>2080</v>
       </c>
-      <c r="U42" s="12">
+      <c r="V42" s="12">
         <v>1638</v>
       </c>
-      <c r="V42" s="12">
+      <c r="W42" s="12">
         <v>779</v>
       </c>
-      <c r="W42" s="12">
+      <c r="X42" s="12">
         <v>407</v>
       </c>
-      <c r="X42" s="12">
+      <c r="Y42" s="12">
         <v>423</v>
       </c>
-      <c r="Y42" s="12">
+      <c r="Z42" s="12">
         <v>162</v>
       </c>
-      <c r="Z42" s="12">
-        <v>5489</v>
+      <c r="AA42" s="12">
+        <v>514</v>
+      </c>
+      <c r="AB42" s="12">
+        <v>6003</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>300</v>
       </c>
@@ -5386,29 +5642,35 @@
       <c r="S43" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T43" s="17">
+      <c r="T43" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U43" s="17">
         <v>1716</v>
       </c>
-      <c r="U43" s="18">
+      <c r="V43" s="18">
         <v>2216</v>
       </c>
-      <c r="V43" s="18">
+      <c r="W43" s="18">
         <v>842</v>
       </c>
-      <c r="W43" s="18">
+      <c r="X43" s="18">
         <v>2878</v>
       </c>
-      <c r="X43" s="18">
+      <c r="Y43" s="18">
         <v>1035</v>
       </c>
-      <c r="Y43" s="18">
+      <c r="Z43" s="18">
         <v>105</v>
       </c>
-      <c r="Z43" s="18">
+      <c r="AA43" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="18">
         <v>8792</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>306</v>
       </c>
@@ -5466,10 +5728,10 @@
       <c r="S44" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="T44" s="11">
-        <v>0</v>
-      </c>
-      <c r="U44" s="12">
+      <c r="T44" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="U44" s="11">
         <v>0</v>
       </c>
       <c r="V44" s="12">
@@ -5487,8 +5749,14 @@
       <c r="Z44" s="12">
         <v>0</v>
       </c>
+      <c r="AA44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>312</v>
       </c>
@@ -5546,29 +5814,35 @@
       <c r="S45" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T45" s="17">
+      <c r="T45" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U45" s="17">
         <v>787</v>
       </c>
-      <c r="U45" s="18">
-        <v>0</v>
-      </c>
       <c r="V45" s="18">
+        <v>0</v>
+      </c>
+      <c r="W45" s="18">
         <v>815</v>
       </c>
-      <c r="W45" s="18">
+      <c r="X45" s="18">
         <v>1195</v>
       </c>
-      <c r="X45" s="18">
+      <c r="Y45" s="18">
         <v>514</v>
       </c>
-      <c r="Y45" s="18">
+      <c r="Z45" s="18">
         <v>218</v>
       </c>
-      <c r="Z45" s="18">
-        <v>3529</v>
+      <c r="AA45" s="18">
+        <v>276</v>
+      </c>
+      <c r="AB45" s="18">
+        <v>3805</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>319</v>
       </c>
@@ -5626,29 +5900,35 @@
       <c r="S46" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="T46" s="11">
+      <c r="T46" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U46" s="11">
         <v>268</v>
       </c>
-      <c r="U46" s="12">
+      <c r="V46" s="12">
         <v>507</v>
       </c>
-      <c r="V46" s="12">
+      <c r="W46" s="12">
         <v>603</v>
       </c>
-      <c r="W46" s="12">
+      <c r="X46" s="12">
         <v>1471</v>
       </c>
-      <c r="X46" s="12">
+      <c r="Y46" s="12">
         <v>500</v>
       </c>
-      <c r="Y46" s="12">
+      <c r="Z46" s="12">
         <v>264</v>
       </c>
-      <c r="Z46" s="12">
-        <v>3613</v>
+      <c r="AA46" s="12">
+        <v>914</v>
+      </c>
+      <c r="AB46" s="12">
+        <v>4527</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
         <v>326</v>
       </c>
@@ -5706,29 +5986,35 @@
       <c r="S47" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T47" s="17">
+      <c r="T47" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="U47" s="17">
         <v>633</v>
       </c>
-      <c r="U47" s="18">
+      <c r="V47" s="18">
         <v>4260</v>
       </c>
-      <c r="V47" s="18">
+      <c r="W47" s="18">
         <v>552</v>
       </c>
-      <c r="W47" s="18">
-        <v>0</v>
-      </c>
       <c r="X47" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="18">
         <v>6138</v>
       </c>
-      <c r="Y47" s="18">
+      <c r="Z47" s="18">
         <v>701</v>
       </c>
-      <c r="Z47" s="18">
+      <c r="AA47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="18">
         <v>12284</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>332</v>
       </c>
@@ -5786,29 +6072,35 @@
       <c r="S48" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="T48" s="11">
+      <c r="T48" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U48" s="11">
         <v>1755</v>
       </c>
-      <c r="U48" s="12">
+      <c r="V48" s="12">
         <v>3189</v>
       </c>
-      <c r="V48" s="12">
+      <c r="W48" s="12">
         <v>3735</v>
       </c>
-      <c r="W48" s="12">
+      <c r="X48" s="12">
         <v>3492</v>
       </c>
-      <c r="X48" s="12">
+      <c r="Y48" s="12">
         <v>4742</v>
       </c>
-      <c r="Y48" s="12">
+      <c r="Z48" s="12">
         <v>1032</v>
       </c>
-      <c r="Z48" s="12">
-        <v>17945</v>
+      <c r="AA48" s="12">
+        <v>14624</v>
+      </c>
+      <c r="AB48" s="12">
+        <v>32569</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
         <v>339</v>
       </c>
@@ -5866,29 +6158,35 @@
       <c r="S49" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="T49" s="17">
+      <c r="T49" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="U49" s="17">
         <v>424</v>
       </c>
-      <c r="U49" s="18">
+      <c r="V49" s="18">
         <v>3217</v>
       </c>
-      <c r="V49" s="18">
+      <c r="W49" s="18">
         <v>253</v>
       </c>
-      <c r="W49" s="18">
+      <c r="X49" s="18">
         <v>1292</v>
       </c>
-      <c r="X49" s="18">
-        <v>0</v>
-      </c>
       <c r="Y49" s="18">
         <v>0</v>
       </c>
       <c r="Z49" s="18">
-        <v>5186</v>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="18">
+        <v>573</v>
+      </c>
+      <c r="AB49" s="18">
+        <v>5759</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>346</v>
       </c>
@@ -5946,29 +6244,35 @@
       <c r="S50" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="T50" s="11">
+      <c r="T50" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U50" s="11">
         <v>522</v>
       </c>
-      <c r="U50" s="12">
+      <c r="V50" s="12">
         <v>2749</v>
       </c>
-      <c r="V50" s="12">
+      <c r="W50" s="12">
         <v>754</v>
       </c>
-      <c r="W50" s="12">
+      <c r="X50" s="12">
         <v>1094</v>
       </c>
-      <c r="X50" s="12">
+      <c r="Y50" s="12">
         <v>872</v>
       </c>
-      <c r="Y50" s="12">
+      <c r="Z50" s="12">
         <v>452</v>
       </c>
-      <c r="Z50" s="12">
-        <v>6443</v>
+      <c r="AA50" s="12">
+        <v>2253</v>
+      </c>
+      <c r="AB50" s="12">
+        <v>8696</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
         <v>352</v>
       </c>
@@ -6026,29 +6330,35 @@
       <c r="S51" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="T51" s="17">
+      <c r="T51" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="U51" s="17">
         <v>1408</v>
       </c>
-      <c r="U51" s="18">
+      <c r="V51" s="18">
         <v>1052</v>
       </c>
-      <c r="V51" s="18">
+      <c r="W51" s="18">
         <v>906</v>
       </c>
-      <c r="W51" s="18">
+      <c r="X51" s="18">
         <v>815</v>
       </c>
-      <c r="X51" s="18">
+      <c r="Y51" s="18">
         <v>771</v>
       </c>
-      <c r="Y51" s="18">
+      <c r="Z51" s="18">
         <v>664</v>
       </c>
-      <c r="Z51" s="18">
+      <c r="AA51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="18">
         <v>5616</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>359</v>
       </c>
@@ -6106,29 +6416,35 @@
       <c r="S52" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="T52" s="11">
+      <c r="T52" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U52" s="11">
         <v>662</v>
       </c>
-      <c r="U52" s="12">
+      <c r="V52" s="12">
         <v>643</v>
       </c>
-      <c r="V52" s="12">
+      <c r="W52" s="12">
         <v>373</v>
       </c>
-      <c r="W52" s="12">
+      <c r="X52" s="12">
         <v>660</v>
       </c>
-      <c r="X52" s="12">
+      <c r="Y52" s="12">
         <v>678</v>
       </c>
-      <c r="Y52" s="12">
-        <v>0</v>
-      </c>
       <c r="Z52" s="12">
-        <v>3016</v>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="12">
+        <v>855</v>
+      </c>
+      <c r="AB52" s="12">
+        <v>3871</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>366</v>
       </c>
@@ -6186,15 +6502,15 @@
       <c r="S53" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="T53" s="17">
+      <c r="T53" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="U53" s="17">
         <v>684</v>
       </c>
-      <c r="U53" s="18">
+      <c r="V53" s="18">
         <v>1573</v>
       </c>
-      <c r="V53" s="18">
-        <v>0</v>
-      </c>
       <c r="W53" s="18">
         <v>0</v>
       </c>
@@ -6205,10 +6521,16 @@
         <v>0</v>
       </c>
       <c r="Z53" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="18">
         <v>2257</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
         <v>373</v>
       </c>
@@ -6250,13 +6572,13 @@
       <c r="S54" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="T54" s="27">
-        <v>0</v>
-      </c>
-      <c r="U54" s="28">
-        <v>0</v>
-      </c>
-      <c r="V54" s="29">
+      <c r="T54" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="U54" s="27">
+        <v>0</v>
+      </c>
+      <c r="V54" s="28">
         <v>0</v>
       </c>
       <c r="W54" s="29">
@@ -6269,116 +6591,122 @@
         <v>0</v>
       </c>
       <c r="Z54" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="29">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V1" xr:uid="{F3C2AB94-8371-415B-B15C-673BF998D579}"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{1A9E3271-C243-4A1F-AB36-FF1A98764E8C}"/>
-    <hyperlink ref="L2" r:id="rId2" xr:uid="{E2B23590-1EAC-4FA4-A9E0-CE4C0118D512}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{5B89855F-E80E-496D-8F47-13EF9FBE8A43}"/>
-    <hyperlink ref="L3" r:id="rId4" xr:uid="{7645100D-898F-4C1F-9392-61B97F74F8FB}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{615F0EE0-9395-42E2-AECE-38C01683CD5B}"/>
-    <hyperlink ref="L4" r:id="rId6" xr:uid="{7B27CF27-AD1F-42FC-8D97-14E205E440B5}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{468DA0D8-CC39-4BF5-BABB-BC85323C8DFC}"/>
-    <hyperlink ref="L5" r:id="rId8" xr:uid="{92448622-6D97-4DAF-A8F9-CB17A98F85CD}"/>
-    <hyperlink ref="F6" r:id="rId9" xr:uid="{4440C2F6-3E28-4B91-8864-640DFF041C0D}"/>
-    <hyperlink ref="L6" r:id="rId10" xr:uid="{308827BB-42AE-4825-A30F-143C1CD43FEE}"/>
-    <hyperlink ref="F7" r:id="rId11" xr:uid="{227D7290-7C52-4A2A-9CC2-BD98CCFE6F8E}"/>
-    <hyperlink ref="L7" r:id="rId12" xr:uid="{34721B28-F62D-436F-BF93-49F1257B8749}"/>
-    <hyperlink ref="F8" r:id="rId13" xr:uid="{E056F04D-78EA-4214-9E0C-CB0F7539C591}"/>
-    <hyperlink ref="L8" r:id="rId14" xr:uid="{5470DB60-359F-479D-8412-9A020E03CD97}"/>
-    <hyperlink ref="F9" r:id="rId15" xr:uid="{FB6FE578-D6C3-461D-BA46-3A729E8E7603}"/>
-    <hyperlink ref="L9" r:id="rId16" xr:uid="{6A34982B-BE9B-4802-BA26-7592FE218B01}"/>
-    <hyperlink ref="F10" r:id="rId17" xr:uid="{E5FE9B0B-03D1-4388-9C32-97E7CD697E75}"/>
-    <hyperlink ref="L10" r:id="rId18" xr:uid="{A194F3CA-2362-4011-AA71-89B261D88E86}"/>
-    <hyperlink ref="F11" r:id="rId19" xr:uid="{99863153-8B22-4F8B-83BF-A5F9ACC324EB}"/>
-    <hyperlink ref="L11" r:id="rId20" xr:uid="{81C9B2F5-CA4D-4428-8D97-2C19391EEEB3}"/>
-    <hyperlink ref="F12" r:id="rId21" xr:uid="{F85913E4-DFA3-430E-A070-C93E7B6B1499}"/>
-    <hyperlink ref="L12" r:id="rId22" xr:uid="{6821CDCE-E137-4961-9D21-102A68DD1F21}"/>
-    <hyperlink ref="F13" r:id="rId23" xr:uid="{4E339283-EB92-49B8-A8C2-F12C8DEA7CCE}"/>
-    <hyperlink ref="L13" r:id="rId24" xr:uid="{39D564D8-6D4E-463A-A8A1-38E8C11330FD}"/>
-    <hyperlink ref="F14" r:id="rId25" xr:uid="{B8C8C33D-B34D-4D56-B4A5-79644C852C8A}"/>
-    <hyperlink ref="L14" r:id="rId26" xr:uid="{3304E15A-9070-4D68-9472-AA6DE077DCA4}"/>
-    <hyperlink ref="F15" r:id="rId27" xr:uid="{F8F216AE-B16E-4D2C-B00E-27552FB5CC0F}"/>
-    <hyperlink ref="L15" r:id="rId28" xr:uid="{9FA81494-77CD-4D26-9BF9-D77C54171F7F}"/>
-    <hyperlink ref="F16" r:id="rId29" xr:uid="{8B89EC89-473E-45A5-B0BC-E8C34FC415B5}"/>
-    <hyperlink ref="L16" r:id="rId30" xr:uid="{59A7D904-E91D-4C56-A044-1A3869202CB1}"/>
-    <hyperlink ref="F17" r:id="rId31" xr:uid="{7FC7BB3B-7E5A-4165-A592-304BFBCFF811}"/>
-    <hyperlink ref="L17" r:id="rId32" xr:uid="{2F28DC37-CF1F-4AA8-B101-358D68A2CC17}"/>
-    <hyperlink ref="F18" r:id="rId33" xr:uid="{02EA0235-5DBF-40A1-962F-208D68CAA578}"/>
-    <hyperlink ref="L18" r:id="rId34" xr:uid="{9B28C21A-FDB4-49A5-82E1-5741E62E5091}"/>
-    <hyperlink ref="F19" r:id="rId35" xr:uid="{B4F98FEB-BEBC-4B2D-920D-BA5FDDC92476}"/>
-    <hyperlink ref="L19" r:id="rId36" xr:uid="{101B39F1-A114-4B76-BCC9-B6C7B49F467A}"/>
-    <hyperlink ref="F20" r:id="rId37" xr:uid="{D6C82C19-6C98-4276-9823-D9CA02B2B4FB}"/>
-    <hyperlink ref="L20" r:id="rId38" xr:uid="{0A898026-5825-4EE0-ACF1-AB2E8287F281}"/>
-    <hyperlink ref="F21" r:id="rId39" xr:uid="{1F36C0A1-26EE-4514-804E-C47817B3525E}"/>
-    <hyperlink ref="L21" r:id="rId40" xr:uid="{E12786E4-1F4E-495D-9C7C-0E2441CE9CC5}"/>
-    <hyperlink ref="F22" r:id="rId41" xr:uid="{15FB68F8-7F57-464E-A916-68A3378B6987}"/>
-    <hyperlink ref="L22" r:id="rId42" xr:uid="{08208EAD-36D7-4771-BB42-9FB62F2014E3}"/>
-    <hyperlink ref="F23" r:id="rId43" xr:uid="{0ED01FC2-534B-4807-8B77-1B5B677F41D9}"/>
-    <hyperlink ref="L23" r:id="rId44" xr:uid="{13B5EDDC-F974-4B91-ADCD-BDB21020BF8F}"/>
-    <hyperlink ref="F24" r:id="rId45" xr:uid="{37AE6A7F-0C43-458A-AD20-88F208C457ED}"/>
-    <hyperlink ref="L24" r:id="rId46" xr:uid="{D2CE8C43-EDF6-4A87-A826-778AE142ECE4}"/>
-    <hyperlink ref="F25" r:id="rId47" xr:uid="{8FE08516-9F99-4AA2-A3C3-F9067EBF98B1}"/>
-    <hyperlink ref="L25" r:id="rId48" xr:uid="{26A0C9FB-57FD-4039-90DB-898A5D8D77D0}"/>
-    <hyperlink ref="F26" r:id="rId49" xr:uid="{6977EDEA-FC56-410B-AA85-44E101410DCF}"/>
-    <hyperlink ref="L26" r:id="rId50" xr:uid="{87B059DA-B01C-4D41-8BA1-0341DCD23332}"/>
-    <hyperlink ref="F27" r:id="rId51" display="https://drive.google.com/file/d/1buDrBqk4rHcGLbKKMJHOEOM9AOosdrVF/view?usp=drive_link" xr:uid="{9FCBACD8-81D9-4EFE-B6D7-AF7239CB74AB}"/>
-    <hyperlink ref="L27" r:id="rId52" xr:uid="{BD1D3334-EDE0-45C9-AEEC-04AE382F8249}"/>
-    <hyperlink ref="F28" r:id="rId53" xr:uid="{573415CE-60BA-4B78-8A1E-9099D7F3E038}"/>
-    <hyperlink ref="L28" r:id="rId54" xr:uid="{08938F7F-D86D-4F58-AFDC-1FE25BB028E3}"/>
-    <hyperlink ref="F29" r:id="rId55" xr:uid="{6EC6CAD9-ACFC-4BE6-A2EA-67233CAD3A0D}"/>
-    <hyperlink ref="L29" r:id="rId56" xr:uid="{9BE6F63D-D08B-4526-A657-E32521B8C9D3}"/>
-    <hyperlink ref="F30" r:id="rId57" xr:uid="{9B50474B-57E4-4017-A95F-4B4966BB4885}"/>
-    <hyperlink ref="L30" r:id="rId58" xr:uid="{22991313-9BC8-46A8-A7D9-1A2424E86CCB}"/>
-    <hyperlink ref="F31" r:id="rId59" xr:uid="{7A84550F-DC76-4E95-A6C5-04810FD78348}"/>
-    <hyperlink ref="L31" r:id="rId60" xr:uid="{54EC66E7-610B-4121-A48A-4826C98BE0F2}"/>
-    <hyperlink ref="F32" r:id="rId61" xr:uid="{48CAA465-1D85-407E-9007-51022DA72B83}"/>
-    <hyperlink ref="L32" r:id="rId62" xr:uid="{AB0C4FCD-F143-4110-B94E-E0DB57820DDC}"/>
-    <hyperlink ref="F33" r:id="rId63" xr:uid="{364D8E9D-8B31-4C7A-954B-D3F0B6D98BB5}"/>
-    <hyperlink ref="L33" r:id="rId64" xr:uid="{3924EB23-7E9D-42B2-ACBA-AEFC9AFC559E}"/>
-    <hyperlink ref="F34" r:id="rId65" xr:uid="{25DB8941-4BD2-4E6D-98CB-0CE45955AEA2}"/>
-    <hyperlink ref="L34" r:id="rId66" xr:uid="{BADDF800-8E62-43B1-91FF-20BE6AFFCA83}"/>
-    <hyperlink ref="F35" r:id="rId67" xr:uid="{AA920837-3829-4003-9292-1C836CE76402}"/>
-    <hyperlink ref="L35" r:id="rId68" xr:uid="{B729CDFD-9E43-471F-B049-A0FD53443672}"/>
-    <hyperlink ref="F36" r:id="rId69" xr:uid="{0F718455-3CBE-4BAD-B9EC-66DEB64BB6CB}"/>
-    <hyperlink ref="L36" r:id="rId70" xr:uid="{59021BB4-D69C-4175-A71F-8F7FE4B4E105}"/>
-    <hyperlink ref="F37" r:id="rId71" xr:uid="{D8836895-4C4D-4ECF-B95F-63CA440CC4C3}"/>
-    <hyperlink ref="L37" r:id="rId72" xr:uid="{43B9D0CF-921F-4D53-9D77-E193D1C57B87}"/>
-    <hyperlink ref="F38" r:id="rId73" xr:uid="{C48E3F36-DA40-4C78-8268-88FF7FCB75D2}"/>
-    <hyperlink ref="L38" r:id="rId74" xr:uid="{BA4C8334-5254-45D4-BE7F-135374242526}"/>
-    <hyperlink ref="F39" r:id="rId75" xr:uid="{063F851B-7AAE-4C8A-B930-04A84F745DDC}"/>
-    <hyperlink ref="L39" r:id="rId76" xr:uid="{03E922B1-786D-4679-9826-37734C8FFC0A}"/>
-    <hyperlink ref="F40" r:id="rId77" xr:uid="{3C0482FA-8181-49A5-BFC8-6E1EDF280594}"/>
-    <hyperlink ref="L40" r:id="rId78" xr:uid="{BD015D12-4882-4514-B0B5-C183CC295AEB}"/>
-    <hyperlink ref="F41" r:id="rId79" xr:uid="{C50FD9C9-BF13-4D18-BD2C-B496F0104030}"/>
-    <hyperlink ref="L41" r:id="rId80" xr:uid="{76BA7AE5-A037-4080-B3B3-15AA9E809D01}"/>
-    <hyperlink ref="F42" r:id="rId81" xr:uid="{71834B84-545F-4996-8B3C-24CB0842D515}"/>
-    <hyperlink ref="F43" r:id="rId82" xr:uid="{EF536370-19A6-4EB4-866C-E57E376F769B}"/>
-    <hyperlink ref="L43" r:id="rId83" xr:uid="{851A823C-8DAC-450D-95AB-F95D736E76C5}"/>
-    <hyperlink ref="F44" r:id="rId84" xr:uid="{61D760F2-2E18-4261-912B-76A0730B0F00}"/>
-    <hyperlink ref="L44" r:id="rId85" xr:uid="{14864933-4DE9-438B-BFBE-D1E134754A42}"/>
-    <hyperlink ref="F45" r:id="rId86" xr:uid="{96503EA5-D6BB-4CF9-8F70-18662F702F44}"/>
-    <hyperlink ref="L45" r:id="rId87" xr:uid="{601B6B65-861E-4F3F-A19C-E8F751090401}"/>
-    <hyperlink ref="F46" r:id="rId88" xr:uid="{24B5D26D-E1BD-4EBA-A931-554B6E2AB33E}"/>
-    <hyperlink ref="L46" r:id="rId89" xr:uid="{DDF161F9-B336-44E8-88C9-40358EAD65C2}"/>
-    <hyperlink ref="F47" r:id="rId90" xr:uid="{78D405F3-2965-4C5D-992A-816A0F71E55E}"/>
-    <hyperlink ref="L47" r:id="rId91" xr:uid="{9EAF3A5B-6A7A-4DBB-B09F-E53251F6F4FD}"/>
-    <hyperlink ref="F48" r:id="rId92" xr:uid="{142F4738-53D8-43E8-B6E3-3A162509C9EB}"/>
-    <hyperlink ref="L48" r:id="rId93" xr:uid="{5424D7EC-9836-4176-B75F-DCB6C56B7959}"/>
-    <hyperlink ref="F49" r:id="rId94" xr:uid="{F62DF32C-137B-47F1-B3A3-B80B9CEF887F}"/>
-    <hyperlink ref="L49" r:id="rId95" xr:uid="{B87864AA-E400-4BD1-8F77-92B37A3105BF}"/>
-    <hyperlink ref="F50" r:id="rId96" xr:uid="{715738C8-7D32-453F-BCAF-DDCC21B8C774}"/>
-    <hyperlink ref="L50" r:id="rId97" xr:uid="{EBFECB34-2509-47A8-B873-53C1AA38CC90}"/>
-    <hyperlink ref="F51" r:id="rId98" xr:uid="{867CA44A-BF55-4C9A-A314-3520F585C96F}"/>
-    <hyperlink ref="L51" r:id="rId99" xr:uid="{E951E33B-EDE7-4B0E-A7D1-A959FEDBD6B6}"/>
-    <hyperlink ref="F52" r:id="rId100" xr:uid="{782A10AE-5D08-4765-A8A7-11C730FD2AE6}"/>
-    <hyperlink ref="L52" r:id="rId101" xr:uid="{F2480C6A-3363-4DE3-93A6-A7DFC8FF4013}"/>
-    <hyperlink ref="F53" r:id="rId102" xr:uid="{E77879C5-C53A-45FA-941B-1243FAF3C582}"/>
-    <hyperlink ref="L53" r:id="rId103" xr:uid="{B1937C42-5FEC-49F2-9420-484307FDA0E7}"/>
-    <hyperlink ref="F54" r:id="rId104" xr:uid="{9A8D4369-3A9B-4E74-86E1-2F3C671628DC}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{F6353419-A141-4D4D-8C78-ACBC606A4173}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{33D41FBA-4DC9-4267-9B4C-38707E09D4EE}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{EBA92456-B0F4-4B9A-B8D4-890EAD455DFD}"/>
+    <hyperlink ref="L3" r:id="rId4" xr:uid="{423E0C2A-CEAF-4E50-9ECA-7ACE4FA86D19}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{CFA51FEB-E04E-44F4-8515-C4E6001D658B}"/>
+    <hyperlink ref="L4" r:id="rId6" xr:uid="{B54C0960-D6EB-4782-B875-7733D9FDAF30}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{1F026526-770C-477E-A112-4D83E93381BA}"/>
+    <hyperlink ref="L5" r:id="rId8" xr:uid="{EA2987F3-3D15-4821-B904-A82DB679E506}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{70085A28-F461-4DD2-B746-8833DBE4234B}"/>
+    <hyperlink ref="L6" r:id="rId10" xr:uid="{F7EF8472-C61A-4F62-8EEF-393FC8A0C269}"/>
+    <hyperlink ref="F7" r:id="rId11" xr:uid="{908F3688-6A4E-4565-A6C2-C68280FD08F9}"/>
+    <hyperlink ref="L7" r:id="rId12" xr:uid="{57BBE378-448C-4B8B-8266-51B9DAC9240F}"/>
+    <hyperlink ref="F8" r:id="rId13" xr:uid="{1CDCC367-D4EB-4663-8261-3E6F6302DF62}"/>
+    <hyperlink ref="L8" r:id="rId14" xr:uid="{9340E88E-A10C-4C05-B5DF-0A875829ADB3}"/>
+    <hyperlink ref="F9" r:id="rId15" xr:uid="{07605912-03A5-4EF2-8CF1-8447376268A6}"/>
+    <hyperlink ref="L9" r:id="rId16" xr:uid="{82AA7A44-D95A-43D8-8197-0618A8774035}"/>
+    <hyperlink ref="F10" r:id="rId17" xr:uid="{5600FAA2-AD49-44C7-A6C7-17BD0DF7DEE2}"/>
+    <hyperlink ref="L10" r:id="rId18" xr:uid="{C2BB6CE9-35FD-4C39-8A99-C1E63919018E}"/>
+    <hyperlink ref="F11" r:id="rId19" xr:uid="{33DD70C1-4B90-4EA8-8D08-9CBC33B8B461}"/>
+    <hyperlink ref="L11" r:id="rId20" xr:uid="{54E9380A-6C95-4B62-963F-635ADC7C49A8}"/>
+    <hyperlink ref="F12" r:id="rId21" xr:uid="{D8226FE8-A99B-4959-AB2C-655EF5498E14}"/>
+    <hyperlink ref="L12" r:id="rId22" xr:uid="{34EE021B-6D33-4D00-819F-EFC898FC75F4}"/>
+    <hyperlink ref="F13" r:id="rId23" xr:uid="{B9F0ABB9-D308-4C9B-8625-259156366A84}"/>
+    <hyperlink ref="L13" r:id="rId24" xr:uid="{ABB872C6-2B49-4E14-A6EE-CFCBD53D8D72}"/>
+    <hyperlink ref="F14" r:id="rId25" xr:uid="{E919524A-6DDA-467A-A98B-3DB5340D7BB5}"/>
+    <hyperlink ref="L14" r:id="rId26" xr:uid="{1FD80242-062E-4308-9B45-AE083CC4C0CA}"/>
+    <hyperlink ref="F15" r:id="rId27" xr:uid="{15DF2C21-70DB-479D-A0E2-804CD557F908}"/>
+    <hyperlink ref="L15" r:id="rId28" xr:uid="{E6033187-F6A5-4E20-919C-F2012D80D90E}"/>
+    <hyperlink ref="F16" r:id="rId29" xr:uid="{9EE84D1B-387F-4354-BC73-024E406768AA}"/>
+    <hyperlink ref="L16" r:id="rId30" xr:uid="{652B372F-BCB7-40F4-B368-210025DAD637}"/>
+    <hyperlink ref="F17" r:id="rId31" xr:uid="{93CF0075-2D8B-46A1-A149-48E34B704DC4}"/>
+    <hyperlink ref="L17" r:id="rId32" xr:uid="{DF82DB8B-15B4-4D0A-9836-5EC3B755AD09}"/>
+    <hyperlink ref="F18" r:id="rId33" xr:uid="{037E20A1-A529-461C-B297-42E8EC5EB72C}"/>
+    <hyperlink ref="L18" r:id="rId34" xr:uid="{23B16349-F5DC-48A4-9CAC-22144644141D}"/>
+    <hyperlink ref="F19" r:id="rId35" xr:uid="{C52E822F-64E8-4383-B431-403734E1A163}"/>
+    <hyperlink ref="L19" r:id="rId36" xr:uid="{614704EE-6190-43B0-A079-8455D1BFFD4A}"/>
+    <hyperlink ref="F20" r:id="rId37" xr:uid="{81403702-0479-4CEE-85A8-9EB60F23AC79}"/>
+    <hyperlink ref="L20" r:id="rId38" xr:uid="{E893E605-A833-43B2-BBC0-E6384DCDD52C}"/>
+    <hyperlink ref="F21" r:id="rId39" xr:uid="{C8DF3EB1-4B38-4749-89E3-B53884CF8AE8}"/>
+    <hyperlink ref="L21" r:id="rId40" xr:uid="{E230BD91-E98D-4CE5-8BD4-FAA5980C19FC}"/>
+    <hyperlink ref="F22" r:id="rId41" xr:uid="{CA275F06-3D8E-4299-B3AA-49502B345CF8}"/>
+    <hyperlink ref="L22" r:id="rId42" xr:uid="{6014EB75-61D9-451C-A895-D72CF166C3CB}"/>
+    <hyperlink ref="F23" r:id="rId43" xr:uid="{E69742A6-C814-44BA-B9FE-DE0239F1AE32}"/>
+    <hyperlink ref="L23" r:id="rId44" xr:uid="{7A5F9C04-6C0C-4F22-82F6-19E8D3EF893C}"/>
+    <hyperlink ref="F24" r:id="rId45" xr:uid="{D6F72472-399A-458D-BE66-650EB57FAFEC}"/>
+    <hyperlink ref="L24" r:id="rId46" xr:uid="{BDAD4600-B0FB-48A7-BC7D-E571736884D2}"/>
+    <hyperlink ref="F25" r:id="rId47" xr:uid="{1BC4A484-70F9-43D6-88C4-6F536747F82E}"/>
+    <hyperlink ref="L25" r:id="rId48" xr:uid="{FC34AA38-9153-4153-BF4F-FB7E9E9347B4}"/>
+    <hyperlink ref="F26" r:id="rId49" xr:uid="{8E225B48-B94A-4F01-B91E-EF3C11B42291}"/>
+    <hyperlink ref="L26" r:id="rId50" xr:uid="{1F130858-601C-464A-813D-F345DDA63242}"/>
+    <hyperlink ref="F27" r:id="rId51" display="https://drive.google.com/file/d/1buDrBqk4rHcGLbKKMJHOEOM9AOosdrVF/view?usp=drive_link" xr:uid="{9CA3F958-F2B3-4F68-AB2C-280D73614C51}"/>
+    <hyperlink ref="L27" r:id="rId52" xr:uid="{EB6E844A-05A8-482A-8A58-0EBC62216416}"/>
+    <hyperlink ref="F28" r:id="rId53" xr:uid="{B271464D-D252-4CD7-9B53-ADD24A3881D3}"/>
+    <hyperlink ref="L28" r:id="rId54" xr:uid="{3D40AA0A-E76A-4ACA-9FD8-8E15A1775AA5}"/>
+    <hyperlink ref="F29" r:id="rId55" xr:uid="{6394B5DC-972C-4873-A5C6-4EC1366313F0}"/>
+    <hyperlink ref="L29" r:id="rId56" xr:uid="{52939B49-0B19-415C-8E5A-4BE49AB51453}"/>
+    <hyperlink ref="F30" r:id="rId57" xr:uid="{3CC3ED60-75EB-4D33-B841-DB3B8CBC2D31}"/>
+    <hyperlink ref="L30" r:id="rId58" xr:uid="{9F3142DD-47B5-48CB-9F15-6637BC5353C5}"/>
+    <hyperlink ref="F31" r:id="rId59" xr:uid="{3B38FA5A-9BFF-4921-8B7C-096696023BA0}"/>
+    <hyperlink ref="L31" r:id="rId60" xr:uid="{39A5A6DD-AE74-4B0F-8FA1-164CE79C88C0}"/>
+    <hyperlink ref="F32" r:id="rId61" xr:uid="{3EE94F90-8B29-4820-A463-B2A4B98B3601}"/>
+    <hyperlink ref="L32" r:id="rId62" xr:uid="{DCF9D188-7515-4981-AE48-DC91A31F3226}"/>
+    <hyperlink ref="F33" r:id="rId63" xr:uid="{4B0D5DD2-1BA7-4B19-A81E-02EAA4F1E301}"/>
+    <hyperlink ref="L33" r:id="rId64" xr:uid="{C5C91477-0E75-4C1C-9DDA-6C6C8312B85B}"/>
+    <hyperlink ref="F34" r:id="rId65" xr:uid="{E29DB7BC-A67F-4C2B-8733-37D42B7CB760}"/>
+    <hyperlink ref="L34" r:id="rId66" xr:uid="{7A430FAA-1577-4A40-BBAB-B2178B83D498}"/>
+    <hyperlink ref="F35" r:id="rId67" xr:uid="{7CA6631E-C7FE-4CB6-839E-347F381B8256}"/>
+    <hyperlink ref="L35" r:id="rId68" xr:uid="{93CC2FB7-9406-4CAD-903A-A2E7E1476CBE}"/>
+    <hyperlink ref="F36" r:id="rId69" xr:uid="{AA33BD83-26FC-4534-9D2E-A2AA9E1C4602}"/>
+    <hyperlink ref="L36" r:id="rId70" xr:uid="{24A8388A-1808-43B4-ACB6-15226F274E0A}"/>
+    <hyperlink ref="F37" r:id="rId71" xr:uid="{F2778820-4665-4C25-B718-F5F8E4647CA9}"/>
+    <hyperlink ref="L37" r:id="rId72" xr:uid="{C885C3B3-94CE-4D27-A66B-E2345B9896AF}"/>
+    <hyperlink ref="F38" r:id="rId73" xr:uid="{DA56B0CC-5445-4800-A244-0D201DD792C8}"/>
+    <hyperlink ref="L38" r:id="rId74" xr:uid="{6D9683DA-A437-4A2B-AF85-0C441B01BA68}"/>
+    <hyperlink ref="F39" r:id="rId75" xr:uid="{0315CF64-93E7-4BA5-9EC9-3216DCB95A90}"/>
+    <hyperlink ref="L39" r:id="rId76" xr:uid="{7356CE38-8C47-4ED6-BC80-8C4B81BCB186}"/>
+    <hyperlink ref="F40" r:id="rId77" xr:uid="{A7A4E613-89BC-49CD-834E-120509B9F530}"/>
+    <hyperlink ref="L40" r:id="rId78" xr:uid="{BAF0426B-F411-408F-96FF-C9CB01D073C7}"/>
+    <hyperlink ref="F41" r:id="rId79" xr:uid="{E55078B4-CA37-45C9-973B-0237B899A41E}"/>
+    <hyperlink ref="L41" r:id="rId80" xr:uid="{0D56C756-9132-4157-9825-0DF78F2B89F4}"/>
+    <hyperlink ref="F42" r:id="rId81" xr:uid="{CCFFBB60-774F-4EFD-9274-8F82DBD156C2}"/>
+    <hyperlink ref="F43" r:id="rId82" xr:uid="{C3238686-99BF-407A-A440-B3F914CBE207}"/>
+    <hyperlink ref="L43" r:id="rId83" xr:uid="{A73D2103-292E-4442-A579-DD9A2CE4BE44}"/>
+    <hyperlink ref="F44" r:id="rId84" xr:uid="{3B0946AD-7E9A-4813-86A9-9A1E136B3B58}"/>
+    <hyperlink ref="L44" r:id="rId85" xr:uid="{B2D2DD0D-E7F6-40AD-B322-31E9E72D2662}"/>
+    <hyperlink ref="F45" r:id="rId86" xr:uid="{D671BD3B-A7D4-452E-A598-E44986350939}"/>
+    <hyperlink ref="L45" r:id="rId87" xr:uid="{01C9E3F4-FE80-4305-B9DC-8106AF590850}"/>
+    <hyperlink ref="F46" r:id="rId88" xr:uid="{909BF116-65C0-4650-9CC4-486C530D7C91}"/>
+    <hyperlink ref="L46" r:id="rId89" xr:uid="{D525668B-69FF-48D7-BC6E-3DE6423915D6}"/>
+    <hyperlink ref="F47" r:id="rId90" xr:uid="{3DF7044C-915B-4286-A95F-D66258273445}"/>
+    <hyperlink ref="L47" r:id="rId91" xr:uid="{93E97E99-B471-4064-BD46-A1737FAF8148}"/>
+    <hyperlink ref="F48" r:id="rId92" xr:uid="{622A5480-5C71-4B92-9D26-52750A0CE692}"/>
+    <hyperlink ref="L48" r:id="rId93" xr:uid="{BF5CA91B-6297-4656-A9F8-10EB38567435}"/>
+    <hyperlink ref="F49" r:id="rId94" xr:uid="{F4275387-212F-433C-8BA7-566B4FA436B7}"/>
+    <hyperlink ref="L49" r:id="rId95" xr:uid="{7E5A741E-3460-410A-9D1F-CB9DA15B4A99}"/>
+    <hyperlink ref="F50" r:id="rId96" xr:uid="{7671FD09-D08F-4BDF-AF2F-CA3BC164BDB2}"/>
+    <hyperlink ref="L50" r:id="rId97" xr:uid="{326B6115-F129-42C6-8481-8C5F183768E7}"/>
+    <hyperlink ref="F51" r:id="rId98" xr:uid="{CB3E40D7-E35C-4979-B5F6-38B507A71D63}"/>
+    <hyperlink ref="L51" r:id="rId99" xr:uid="{F87646AA-428E-46E8-B386-FF6B2AD5EAEA}"/>
+    <hyperlink ref="F52" r:id="rId100" xr:uid="{8A850B7B-C754-42F9-9D41-1A3E0F120C9D}"/>
+    <hyperlink ref="L52" r:id="rId101" xr:uid="{DE8C3F14-A364-4E26-BD7D-064C0D891629}"/>
+    <hyperlink ref="F53" r:id="rId102" xr:uid="{4A7E73A1-4BC1-4095-87BD-3CD412AD3558}"/>
+    <hyperlink ref="L53" r:id="rId103" xr:uid="{4842944C-DD9E-4D9B-BAAD-62A055CCFC19}"/>
+    <hyperlink ref="F54" r:id="rId104" xr:uid="{AA1DC519-62D2-41AB-B604-3EF7F47D5661}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId105"/>
